--- a/raw_data/umd/2023/RL_2023-06-01_MB5c.xlsx
+++ b/raw_data/umd/2023/RL_2023-06-01_MB5c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CSE\Llo\LAB-stern007\AQ400 Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CB2366-C82E-4FA8-8B2A-129A9A27DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E4A0C4-3ABD-A945-A94C-3652E6406831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{251B859A-5483-44C3-A85B-CDDBAA6BBC66}"/>
+    <workbookView xWindow="7200" yWindow="1440" windowWidth="21600" windowHeight="11380" xr2:uid="{251B859A-5483-44C3-A85B-CDDBAA6BBC66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,79 +450,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918631A-0224-446E-B53D-9B33C1882523}">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R151"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45098.558703703704</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.9349429999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17.402049999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.377359E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.99954019999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4.7946440000000002E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.54019099999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>11.63767</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.15806480000000001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.88096140000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.1052215</v>
+      </c>
+      <c r="N2" s="1">
+        <v>16.805</v>
+      </c>
+      <c r="O2" s="1">
+        <v>999.08969999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>46.91070878</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-91.051765849999995</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45098.558703703704</v>
+        <v>45098.558715277781</v>
       </c>
       <c r="B3" s="1">
         <v>7.9349429999999996</v>
@@ -576,7 +627,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45098.558715277781</v>
+        <v>45098.55872685185</v>
       </c>
       <c r="B4" s="1">
         <v>7.9349429999999996</v>
@@ -630,7 +681,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>45098.55872685185</v>
+        <v>45098.558738425927</v>
       </c>
       <c r="B5" s="1">
         <v>7.9349429999999996</v>
@@ -675,112 +726,112 @@
         <v>999.08969999999999</v>
       </c>
       <c r="P5" s="1">
-        <v>46.91070878</v>
+        <v>46.910692779999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>-91.051765849999995</v>
+        <v>-91.051764700000007</v>
       </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>45098.558738425927</v>
+        <v>45098.558749999997</v>
       </c>
       <c r="B6" s="1">
-        <v>7.9349429999999996</v>
+        <v>7.4394869999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>17.402049999999999</v>
+        <v>17.136469999999999</v>
       </c>
       <c r="D6" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>7.377359E-2</v>
+        <v>7.3764350000000006E-2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.99954019999999999</v>
+        <v>0.99953970000000003</v>
       </c>
       <c r="H6" s="3">
-        <v>4.7946440000000002E-5</v>
+        <v>4.794642E-5</v>
       </c>
       <c r="I6" s="1">
-        <v>0.54019099999999998</v>
+        <v>0.41719400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>11.63767</v>
+        <v>11.642530000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>0.15806480000000001</v>
+        <v>0.17926619999999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.88096140000000001</v>
+        <v>0.96054099999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>0.1052215</v>
+        <v>0.12565509999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>16.805</v>
+        <v>16.796579999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>999.08969999999999</v>
+        <v>999.08029999999997</v>
       </c>
       <c r="P6" s="1">
-        <v>46.910692779999998</v>
+        <v>46.910682850000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>-91.051764700000007</v>
+        <v>-91.051756470000001</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>45098.558749999997</v>
+        <v>45098.558761574073</v>
       </c>
       <c r="B7" s="1">
-        <v>7.4394869999999997</v>
+        <v>7.4033189999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>17.136469999999999</v>
+        <v>17.117090000000001</v>
       </c>
       <c r="D7" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>7.3764350000000006E-2</v>
+        <v>7.3763679999999998E-2</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.99953970000000003</v>
+        <v>0.99953959999999997</v>
       </c>
       <c r="H7" s="3">
-        <v>4.794642E-5</v>
+        <v>4.794641E-5</v>
       </c>
       <c r="I7" s="1">
-        <v>0.41719400000000001</v>
+        <v>0.4082151</v>
       </c>
       <c r="J7" s="1">
-        <v>11.642530000000001</v>
+        <v>11.64289</v>
       </c>
       <c r="K7" s="1">
-        <v>0.17926619999999999</v>
+        <v>0.1808139</v>
       </c>
       <c r="L7" s="1">
-        <v>0.96054099999999998</v>
+        <v>0.96635040000000005</v>
       </c>
       <c r="M7" s="1">
-        <v>0.12565509999999999</v>
+        <v>0.1271468</v>
       </c>
       <c r="N7" s="1">
-        <v>16.796579999999999</v>
+        <v>16.795970000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>999.08029999999997</v>
+        <v>999.07960000000003</v>
       </c>
       <c r="P7" s="1">
         <v>46.910682850000001</v>
@@ -792,19 +843,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>45098.558761574073</v>
+        <v>45098.55877314815</v>
       </c>
       <c r="B8" s="1">
-        <v>7.4033189999999998</v>
+        <v>7.3671499999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>17.117090000000001</v>
+        <v>17.0977</v>
       </c>
       <c r="D8" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>7.3763679999999998E-2</v>
+        <v>7.3763010000000004E-2</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -816,133 +867,133 @@
         <v>4.794641E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>0.4082151</v>
+        <v>0.39923609999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>11.64289</v>
+        <v>11.64324</v>
       </c>
       <c r="K8" s="1">
-        <v>0.1808139</v>
+        <v>0.18236169999999999</v>
       </c>
       <c r="L8" s="1">
-        <v>0.96635040000000005</v>
+        <v>0.97215980000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>0.1271468</v>
+        <v>0.12863840000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>16.795970000000001</v>
+        <v>16.795349999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>999.07960000000003</v>
+        <v>999.07889999999998</v>
       </c>
       <c r="P8" s="1">
-        <v>46.910682850000001</v>
+        <v>46.910668440000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>-91.051756470000001</v>
+        <v>-91.051755159999999</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>45098.55877314815</v>
+        <v>45098.55878472222</v>
       </c>
       <c r="B9" s="1">
-        <v>7.3671499999999996</v>
+        <v>7.5873419999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>17.0977</v>
+        <v>17.427409999999998</v>
       </c>
       <c r="D9" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>7.3763010000000004E-2</v>
+        <v>7.3726979999999998E-2</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.99953959999999997</v>
+        <v>0.99953740000000002</v>
       </c>
       <c r="H9" s="3">
-        <v>4.794641E-5</v>
+        <v>4.7922349999999997E-5</v>
       </c>
       <c r="I9" s="1">
-        <v>0.39923609999999998</v>
+        <v>0.42907070000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>11.64324</v>
+        <v>11.662319999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0.18236169999999999</v>
+        <v>0.1950095</v>
       </c>
       <c r="L9" s="1">
-        <v>0.97215980000000002</v>
+        <v>0.99270550000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>0.12863840000000001</v>
+        <v>0.13692579999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>16.795349999999999</v>
+        <v>16.72608</v>
       </c>
       <c r="O9" s="1">
-        <v>999.07889999999998</v>
+        <v>999.04570000000001</v>
       </c>
       <c r="P9" s="1">
-        <v>46.910668440000002</v>
+        <v>46.910659350000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>-91.051755159999999</v>
+        <v>-91.051752879999995</v>
       </c>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>45098.55878472222</v>
+        <v>45098.558796296296</v>
       </c>
       <c r="B10" s="1">
-        <v>7.5873419999999996</v>
+        <v>7.5853929999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>17.427409999999998</v>
+        <v>17.437719999999999</v>
       </c>
       <c r="D10" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>7.3726979999999998E-2</v>
+        <v>7.3724789999999998E-2</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99953740000000002</v>
+        <v>0.99953729999999996</v>
       </c>
       <c r="H10" s="3">
-        <v>4.7922349999999997E-5</v>
+        <v>4.7921050000000001E-5</v>
       </c>
       <c r="I10" s="1">
-        <v>0.42907070000000003</v>
+        <v>0.4272552</v>
       </c>
       <c r="J10" s="1">
-        <v>11.662319999999999</v>
+        <v>11.66347</v>
       </c>
       <c r="K10" s="1">
-        <v>0.1950095</v>
+        <v>0.1962766</v>
       </c>
       <c r="L10" s="1">
-        <v>0.99270550000000002</v>
+        <v>0.99601740000000005</v>
       </c>
       <c r="M10" s="1">
-        <v>0.13692579999999999</v>
+        <v>0.1379377</v>
       </c>
       <c r="N10" s="1">
-        <v>16.72608</v>
+        <v>16.72213</v>
       </c>
       <c r="O10" s="1">
-        <v>999.04570000000001</v>
+        <v>999.04359999999997</v>
       </c>
       <c r="P10" s="1">
         <v>46.910659350000003</v>
@@ -954,103 +1005,103 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>45098.558796296296</v>
+        <v>45098.558807870373</v>
       </c>
       <c r="B11" s="1">
-        <v>7.5853929999999998</v>
+        <v>7.5834440000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>17.437719999999999</v>
+        <v>17.448029999999999</v>
       </c>
       <c r="D11" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>7.3724789999999998E-2</v>
+        <v>7.3722609999999994E-2</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.99953729999999996</v>
+        <v>0.99953720000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>4.7921050000000001E-5</v>
+        <v>4.7919759999999999E-5</v>
       </c>
       <c r="I11" s="1">
-        <v>0.4272552</v>
+        <v>0.42543969999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>11.66347</v>
+        <v>11.664630000000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0.1962766</v>
+        <v>0.19754379999999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0.99601740000000005</v>
+        <v>0.99932940000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>0.1379377</v>
+        <v>0.13894970000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>16.72213</v>
+        <v>16.71818</v>
       </c>
       <c r="O11" s="1">
-        <v>999.04359999999997</v>
+        <v>999.04160000000002</v>
       </c>
       <c r="P11" s="1">
-        <v>46.910659350000003</v>
+        <v>46.910648610000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>-91.051752879999995</v>
+        <v>-91.051752320000006</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>45098.558807870373</v>
+        <v>45098.558819444443</v>
       </c>
       <c r="B12" s="1">
-        <v>7.5834440000000001</v>
+        <v>7.1948930000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>17.448029999999999</v>
+        <v>15.34606</v>
       </c>
       <c r="D12" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>7.3722609999999994E-2</v>
+        <v>7.3702169999999997E-2</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.99953720000000001</v>
+        <v>0.99953650000000005</v>
       </c>
       <c r="H12" s="3">
-        <v>4.7919759999999999E-5</v>
+        <v>4.7910839999999998E-5</v>
       </c>
       <c r="I12" s="1">
-        <v>0.42543969999999998</v>
+        <v>0.4517873</v>
       </c>
       <c r="J12" s="1">
-        <v>11.664630000000001</v>
+        <v>11.67545</v>
       </c>
       <c r="K12" s="1">
-        <v>0.19754379999999999</v>
+        <v>0.1709107</v>
       </c>
       <c r="L12" s="1">
-        <v>0.99932940000000003</v>
+        <v>0.98755859999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>0.13894970000000001</v>
+        <v>0.1201622</v>
       </c>
       <c r="N12" s="1">
-        <v>16.71818</v>
+        <v>16.76248</v>
       </c>
       <c r="O12" s="1">
-        <v>999.04160000000002</v>
+        <v>999.02430000000004</v>
       </c>
       <c r="P12" s="1">
         <v>46.910648610000003</v>
@@ -1062,49 +1113,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>45098.558819444443</v>
+        <v>45098.558831018519</v>
       </c>
       <c r="B13" s="1">
-        <v>7.1948930000000004</v>
+        <v>7.1779099999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>15.34606</v>
+        <v>15.242459999999999</v>
       </c>
       <c r="D13" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>7.3702169999999997E-2</v>
+        <v>7.3700280000000007E-2</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.99953650000000005</v>
+        <v>0.99953630000000004</v>
       </c>
       <c r="H13" s="3">
-        <v>4.7910839999999998E-5</v>
+        <v>4.7909840000000003E-5</v>
       </c>
       <c r="I13" s="1">
-        <v>0.4517873</v>
+        <v>0.45345479999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>11.67545</v>
+        <v>11.676450000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0.1709107</v>
+        <v>0.1698585</v>
       </c>
       <c r="L13" s="1">
-        <v>0.98755859999999995</v>
+        <v>0.98763409999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>0.1201622</v>
+        <v>0.1194224</v>
       </c>
       <c r="N13" s="1">
-        <v>16.76248</v>
+        <v>16.76324</v>
       </c>
       <c r="O13" s="1">
-        <v>999.02430000000004</v>
+        <v>999.02260000000001</v>
       </c>
       <c r="P13" s="1">
         <v>46.910648610000003</v>
@@ -1116,19 +1167,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45098.558831018519</v>
+        <v>45098.558842592596</v>
       </c>
       <c r="B14" s="1">
-        <v>7.1779099999999998</v>
+        <v>7.160927</v>
       </c>
       <c r="C14" s="1">
-        <v>15.242459999999999</v>
+        <v>15.138859999999999</v>
       </c>
       <c r="D14" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>7.3700280000000007E-2</v>
+        <v>7.3698390000000003E-2</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1137,82 +1188,82 @@
         <v>0.99953630000000004</v>
       </c>
       <c r="H14" s="3">
-        <v>4.7909840000000003E-5</v>
+        <v>4.7908840000000001E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>0.45345479999999999</v>
+        <v>0.45512229999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>11.676450000000001</v>
+        <v>11.67745</v>
       </c>
       <c r="K14" s="1">
-        <v>0.1698585</v>
+        <v>0.16880619999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.98763409999999996</v>
+        <v>0.98770950000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>0.1194224</v>
+        <v>0.1186826</v>
       </c>
       <c r="N14" s="1">
-        <v>16.76324</v>
+        <v>16.764009999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>999.02260000000001</v>
+        <v>999.02099999999996</v>
       </c>
       <c r="P14" s="1">
-        <v>46.910648610000003</v>
+        <v>46.910640290000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>-91.051752320000006</v>
+        <v>-91.051736980000001</v>
       </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45098.558842592596</v>
+        <v>45098.558854166666</v>
       </c>
       <c r="B15" s="1">
-        <v>7.160927</v>
+        <v>7.7114789999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>15.138859999999999</v>
+        <v>12.01599</v>
       </c>
       <c r="D15" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>7.3698390000000003E-2</v>
+        <v>7.3722179999999998E-2</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0.99953630000000004</v>
+        <v>0.99953720000000001</v>
       </c>
       <c r="H15" s="3">
-        <v>4.7908840000000001E-5</v>
+        <v>4.7920039999999998E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>0.45512229999999998</v>
+        <v>3.0218129999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>11.67745</v>
+        <v>11.674149999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>0.16880619999999999</v>
+        <v>0.18437870000000001</v>
       </c>
       <c r="L15" s="1">
-        <v>0.98770950000000002</v>
+        <v>0.89647359999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>0.1186826</v>
+        <v>0.1296312</v>
       </c>
       <c r="N15" s="1">
-        <v>16.764009999999999</v>
+        <v>16.68253</v>
       </c>
       <c r="O15" s="1">
-        <v>999.02099999999996</v>
+        <v>999.07939999999996</v>
       </c>
       <c r="P15" s="1">
         <v>46.910640290000003</v>
@@ -1224,19 +1275,19 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45098.558854166666</v>
+        <v>45098.558865740742</v>
       </c>
       <c r="B16" s="1">
-        <v>7.7114789999999998</v>
+        <v>7.7328789999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>12.01599</v>
+        <v>11.804869999999999</v>
       </c>
       <c r="D16" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>7.3722179999999998E-2</v>
+        <v>7.3723049999999998E-2</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1245,28 +1296,28 @@
         <v>0.99953720000000001</v>
       </c>
       <c r="H16" s="3">
-        <v>4.7920039999999998E-5</v>
+        <v>4.792046E-5</v>
       </c>
       <c r="I16" s="1">
-        <v>3.0218129999999999</v>
+        <v>3.1601270000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>11.674149999999999</v>
+        <v>11.674189999999999</v>
       </c>
       <c r="K16" s="1">
-        <v>0.18437870000000001</v>
+        <v>0.18466769999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.89647359999999998</v>
+        <v>0.89134530000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>0.1296312</v>
+        <v>0.12983430000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>16.68253</v>
+        <v>16.679079999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>999.07939999999996</v>
+        <v>999.08219999999994</v>
       </c>
       <c r="P16" s="1">
         <v>46.910640290000003</v>
@@ -1278,49 +1329,49 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45098.558865740742</v>
+        <v>45098.558877314812</v>
       </c>
       <c r="B17" s="1">
-        <v>7.7328789999999996</v>
+        <v>7.7542790000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>11.804869999999999</v>
+        <v>11.59376</v>
       </c>
       <c r="D17" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>7.3723049999999998E-2</v>
+        <v>7.3723899999999995E-2</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99953720000000001</v>
+        <v>0.99953729999999996</v>
       </c>
       <c r="H17" s="3">
-        <v>4.792046E-5</v>
+        <v>4.7920880000000003E-5</v>
       </c>
       <c r="I17" s="1">
-        <v>3.1601270000000001</v>
+        <v>3.298441</v>
       </c>
       <c r="J17" s="1">
-        <v>11.674189999999999</v>
+        <v>11.67423</v>
       </c>
       <c r="K17" s="1">
-        <v>0.18466769999999999</v>
+        <v>0.1849567</v>
       </c>
       <c r="L17" s="1">
-        <v>0.89134530000000001</v>
+        <v>0.88621709999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>0.12983430000000001</v>
+        <v>0.1300375</v>
       </c>
       <c r="N17" s="1">
-        <v>16.679079999999999</v>
+        <v>16.675630000000002</v>
       </c>
       <c r="O17" s="1">
-        <v>999.08219999999994</v>
+        <v>999.08500000000004</v>
       </c>
       <c r="P17" s="1">
         <v>46.910640290000003</v>
@@ -1332,19 +1383,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45098.558877314812</v>
+        <v>45098.558888888889</v>
       </c>
       <c r="B18" s="1">
-        <v>7.7542790000000004</v>
+        <v>7.7756780000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>11.59376</v>
+        <v>11.38264</v>
       </c>
       <c r="D18" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>7.3723899999999995E-2</v>
+        <v>7.3724769999999995E-2</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1353,28 +1404,28 @@
         <v>0.99953729999999996</v>
       </c>
       <c r="H18" s="3">
-        <v>4.7920880000000003E-5</v>
+        <v>4.7921299999999998E-5</v>
       </c>
       <c r="I18" s="1">
-        <v>3.298441</v>
+        <v>3.4367549999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>11.67423</v>
+        <v>11.67428</v>
       </c>
       <c r="K18" s="1">
-        <v>0.1849567</v>
+        <v>0.18524570000000001</v>
       </c>
       <c r="L18" s="1">
-        <v>0.88621709999999998</v>
+        <v>0.88108869999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>0.1300375</v>
+        <v>0.13024069999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>16.675630000000002</v>
+        <v>16.672180000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>999.08500000000004</v>
+        <v>999.08780000000002</v>
       </c>
       <c r="P18" s="1">
         <v>46.910640290000003</v>
@@ -1386,49 +1437,49 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45098.558888888889</v>
+        <v>45098.558900462966</v>
       </c>
       <c r="B19" s="1">
-        <v>7.7756780000000001</v>
+        <v>7.2204680000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>11.38264</v>
+        <v>12.15456</v>
       </c>
       <c r="D19" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>7.3724769999999995E-2</v>
+        <v>7.3726570000000005E-2</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.99953729999999996</v>
+        <v>0.99953740000000002</v>
       </c>
       <c r="H19" s="3">
-        <v>4.7921299999999998E-5</v>
+        <v>4.792239E-5</v>
       </c>
       <c r="I19" s="1">
-        <v>3.4367549999999998</v>
+        <v>0.9711784</v>
       </c>
       <c r="J19" s="1">
-        <v>11.67428</v>
+        <v>11.663589999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>0.18524570000000001</v>
+        <v>0.20777519999999999</v>
       </c>
       <c r="L19" s="1">
-        <v>0.88108869999999995</v>
+        <v>0.96138100000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>0.13024069999999999</v>
+        <v>0.1070224</v>
       </c>
       <c r="N19" s="1">
-        <v>16.672180000000001</v>
+        <v>16.775310000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>999.08780000000002</v>
+        <v>999.04390000000001</v>
       </c>
       <c r="P19" s="1">
         <v>46.910640290000003</v>
@@ -1440,73 +1491,73 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45098.558900462966</v>
+        <v>45098.558912037035</v>
       </c>
       <c r="B20" s="1">
-        <v>7.2204680000000003</v>
+        <v>7.204542</v>
       </c>
       <c r="C20" s="1">
-        <v>12.15456</v>
+        <v>12.12224</v>
       </c>
       <c r="D20" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>7.3726570000000005E-2</v>
+        <v>7.3727200000000007E-2</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.99953740000000002</v>
+        <v>0.99953749999999997</v>
       </c>
       <c r="H20" s="3">
-        <v>4.792239E-5</v>
+        <v>4.792269E-5</v>
       </c>
       <c r="I20" s="1">
-        <v>0.9711784</v>
+        <v>0.90351190000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>11.663589999999999</v>
+        <v>11.66297</v>
       </c>
       <c r="K20" s="1">
-        <v>0.20777519999999999</v>
+        <v>0.20928430000000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.96138100000000004</v>
+        <v>0.96340950000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>0.1070224</v>
+        <v>0.1060796</v>
       </c>
       <c r="N20" s="1">
-        <v>16.775310000000001</v>
+        <v>16.778739999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>999.04390000000001</v>
+        <v>999.04300000000001</v>
       </c>
       <c r="P20" s="1">
-        <v>46.910640290000003</v>
+        <v>46.910631530000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>-91.051736980000001</v>
+        <v>-91.051742759999996</v>
       </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45098.558912037035</v>
+        <v>45098.558923611112</v>
       </c>
       <c r="B21" s="1">
-        <v>7.204542</v>
+        <v>7.1886159999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>12.12224</v>
+        <v>12.089919999999999</v>
       </c>
       <c r="D21" s="1">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>7.3727200000000007E-2</v>
+        <v>7.3727829999999994E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1515,28 +1566,28 @@
         <v>0.99953749999999997</v>
       </c>
       <c r="H21" s="3">
-        <v>4.792269E-5</v>
+        <v>4.7923000000000002E-5</v>
       </c>
       <c r="I21" s="1">
-        <v>0.90351190000000003</v>
+        <v>0.83584539999999996</v>
       </c>
       <c r="J21" s="1">
-        <v>11.66297</v>
+        <v>11.66235</v>
       </c>
       <c r="K21" s="1">
-        <v>0.20928430000000001</v>
+        <v>0.21079339999999999</v>
       </c>
       <c r="L21" s="1">
-        <v>0.96340950000000003</v>
+        <v>0.96543809999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>0.1060796</v>
+        <v>0.1051368</v>
       </c>
       <c r="N21" s="1">
-        <v>16.778739999999999</v>
+        <v>16.782170000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>999.04300000000001</v>
+        <v>999.0421</v>
       </c>
       <c r="P21" s="1">
         <v>46.910631530000003</v>
@@ -1548,103 +1599,103 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45098.558923611112</v>
+        <v>45098.558935185189</v>
       </c>
       <c r="B22" s="1">
-        <v>7.1886159999999997</v>
+        <v>9.4870680000000007</v>
       </c>
       <c r="C22" s="1">
-        <v>12.089919999999999</v>
+        <v>24.873819999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>5.4945059999999997E-2</v>
+        <v>58.235120000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>7.3727829999999994E-2</v>
+        <v>80.676259999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>3.7303780000000002E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.99953749999999997</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4.7923000000000002E-5</v>
+        <v>0.99967709999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5.2439569999999998E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>0.83584539999999996</v>
+        <v>0.17057820000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>11.66235</v>
+        <v>11.656969999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>0.21079339999999999</v>
+        <v>0.2066685</v>
       </c>
       <c r="L22" s="1">
-        <v>0.96543809999999997</v>
+        <v>1.087148</v>
       </c>
       <c r="M22" s="1">
-        <v>0.1051368</v>
+        <v>0.1411337</v>
       </c>
       <c r="N22" s="1">
-        <v>16.782170000000001</v>
+        <v>16.751650000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>999.0421</v>
+        <v>999.00540000000001</v>
       </c>
       <c r="P22" s="1">
-        <v>46.910631530000003</v>
+        <v>46.910621399999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>-91.051742759999996</v>
+        <v>-91.051757879999997</v>
       </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45098.558935185189</v>
+        <v>45098.558946759258</v>
       </c>
       <c r="B23" s="1">
-        <v>9.4870680000000007</v>
+        <v>9.5950120000000005</v>
       </c>
       <c r="C23" s="1">
-        <v>24.873819999999998</v>
+        <v>25.55198</v>
       </c>
       <c r="D23" s="1">
-        <v>58.235120000000002</v>
+        <v>61.262799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>80.676259999999999</v>
+        <v>84.870800000000003</v>
       </c>
       <c r="F23" s="1">
-        <v>3.7303780000000002E-2</v>
+        <v>3.924507E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>0.99967709999999999</v>
+        <v>0.99968440000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>5.2439569999999998E-2</v>
+        <v>5.5166020000000003E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>0.17057820000000001</v>
+        <v>8.4928740000000003E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>11.656969999999999</v>
+        <v>11.656459999999999</v>
       </c>
       <c r="K23" s="1">
-        <v>0.2066685</v>
+        <v>0.2069491</v>
       </c>
       <c r="L23" s="1">
-        <v>1.087148</v>
+        <v>1.095132</v>
       </c>
       <c r="M23" s="1">
-        <v>0.1411337</v>
+        <v>0.1425063</v>
       </c>
       <c r="N23" s="1">
-        <v>16.751650000000001</v>
+        <v>16.75224</v>
       </c>
       <c r="O23" s="1">
-        <v>999.00540000000001</v>
+        <v>999.00260000000003</v>
       </c>
       <c r="P23" s="1">
         <v>46.910621399999997</v>
@@ -1656,49 +1707,49 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>45098.558946759258</v>
+        <v>45098.558958333335</v>
       </c>
       <c r="B24" s="1">
-        <v>9.5950120000000005</v>
+        <v>9.7029549999999993</v>
       </c>
       <c r="C24" s="1">
-        <v>25.55198</v>
+        <v>26.230139999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>61.262799999999999</v>
+        <v>64.290490000000005</v>
       </c>
       <c r="E24" s="1">
-        <v>84.870800000000003</v>
+        <v>89.065349999999995</v>
       </c>
       <c r="F24" s="1">
-        <v>3.924507E-2</v>
+        <v>4.1186349999999997E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>0.99968440000000003</v>
+        <v>0.99969169999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>5.5166020000000003E-2</v>
+        <v>5.7892480000000003E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>8.4928740000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>11.656459999999999</v>
+        <v>11.655950000000001</v>
       </c>
       <c r="K24" s="1">
-        <v>0.2069491</v>
+        <v>0.20722979999999999</v>
       </c>
       <c r="L24" s="1">
-        <v>1.095132</v>
+        <v>1.103116</v>
       </c>
       <c r="M24" s="1">
-        <v>0.1425063</v>
+        <v>0.1438788</v>
       </c>
       <c r="N24" s="1">
-        <v>16.75224</v>
+        <v>16.752829999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>999.00260000000003</v>
+        <v>998.99980000000005</v>
       </c>
       <c r="P24" s="1">
         <v>46.910621399999997</v>
@@ -1710,103 +1761,103 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>45098.558958333335</v>
+        <v>45098.558969907404</v>
       </c>
       <c r="B25" s="1">
-        <v>9.7029549999999993</v>
+        <v>7.0566940000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>26.230139999999999</v>
+        <v>32.933439999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>64.290490000000005</v>
+        <v>66.691140000000004</v>
       </c>
       <c r="E25" s="1">
-        <v>89.065349999999995</v>
+        <v>93.445570000000004</v>
       </c>
       <c r="F25" s="1">
-        <v>4.1186349999999997E-2</v>
+        <v>4.3255410000000001E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>0.99969169999999996</v>
+        <v>0.99973109999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>5.7892480000000003E-2</v>
+        <v>6.0739630000000003E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>4.1271479999999999E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>11.655950000000001</v>
+        <v>10.59125</v>
       </c>
       <c r="K25" s="1">
-        <v>0.20722979999999999</v>
+        <v>0.1756644</v>
       </c>
       <c r="L25" s="1">
-        <v>1.103116</v>
+        <v>1.0278879999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>0.1438788</v>
+        <v>0.122445</v>
       </c>
       <c r="N25" s="1">
-        <v>16.752829999999999</v>
+        <v>16.798909999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>998.99980000000005</v>
+        <v>999.03549999999996</v>
       </c>
       <c r="P25" s="1">
-        <v>46.910621399999997</v>
+        <v>46.910612110000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>-91.051757879999997</v>
+        <v>-91.051759649999994</v>
       </c>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45098.558969907404</v>
+        <v>45098.558981481481</v>
       </c>
       <c r="B26" s="1">
-        <v>7.0566940000000002</v>
+        <v>6.9717279999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>32.933439999999997</v>
+        <v>33.561239999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>66.691140000000004</v>
+        <v>68.108530000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>93.445570000000004</v>
+        <v>95.463359999999994</v>
       </c>
       <c r="F26" s="1">
-        <v>4.3255410000000001E-2</v>
+        <v>4.419141E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>0.99973109999999998</v>
+        <v>0.99973619999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>6.0739630000000003E-2</v>
+        <v>6.2051179999999997E-2</v>
       </c>
       <c r="I26" s="1">
-        <v>4.1271479999999999E-2</v>
+        <v>2.7712049999999998E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>10.59125</v>
+        <v>10.53645</v>
       </c>
       <c r="K26" s="1">
-        <v>0.1756644</v>
+        <v>0.17397750000000001</v>
       </c>
       <c r="L26" s="1">
-        <v>1.0278879999999999</v>
+        <v>1.026759</v>
       </c>
       <c r="M26" s="1">
-        <v>0.122445</v>
+        <v>0.12213069999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>16.798909999999999</v>
+        <v>16.800650000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>999.03549999999996</v>
+        <v>999.03650000000005</v>
       </c>
       <c r="P26" s="1">
         <v>46.910612110000002</v>
@@ -1818,49 +1869,49 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45098.558981481481</v>
+        <v>45098.558993055558</v>
       </c>
       <c r="B27" s="1">
-        <v>6.9717279999999997</v>
+        <v>6.8867630000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>33.561239999999998</v>
+        <v>34.189050000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>68.108530000000002</v>
+        <v>69.525919999999999</v>
       </c>
       <c r="E27" s="1">
-        <v>95.463359999999994</v>
+        <v>97.481129999999993</v>
       </c>
       <c r="F27" s="1">
-        <v>4.419141E-2</v>
+        <v>4.512741E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>0.99973619999999996</v>
+        <v>0.99974130000000005</v>
       </c>
       <c r="H27" s="1">
-        <v>6.2051179999999997E-2</v>
+        <v>6.3362740000000001E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>2.7712049999999998E-2</v>
+        <v>1.4152619999999999E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>10.53645</v>
+        <v>10.48165</v>
       </c>
       <c r="K27" s="1">
-        <v>0.17397750000000001</v>
+        <v>0.17229059999999999</v>
       </c>
       <c r="L27" s="1">
-        <v>1.026759</v>
+        <v>1.025631</v>
       </c>
       <c r="M27" s="1">
-        <v>0.12213069999999999</v>
+        <v>0.12181640000000001</v>
       </c>
       <c r="N27" s="1">
-        <v>16.800650000000001</v>
+        <v>16.802379999999999</v>
       </c>
       <c r="O27" s="1">
-        <v>999.03650000000005</v>
+        <v>999.03750000000002</v>
       </c>
       <c r="P27" s="1">
         <v>46.910612110000002</v>
@@ -1872,103 +1923,103 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45098.558993055558</v>
+        <v>45098.559004629627</v>
       </c>
       <c r="B28" s="1">
-        <v>6.8867630000000002</v>
+        <v>7.5048519999999996</v>
       </c>
       <c r="C28" s="1">
-        <v>34.189050000000002</v>
+        <v>13.53782</v>
       </c>
       <c r="D28" s="1">
-        <v>69.525919999999999</v>
+        <v>57.768180000000001</v>
       </c>
       <c r="E28" s="1">
-        <v>97.481129999999993</v>
+        <v>81.463740000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>4.512741E-2</v>
+        <v>3.7439420000000001E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.99974130000000005</v>
+        <v>0.9997703</v>
       </c>
       <c r="H28" s="1">
-        <v>6.3362740000000001E-2</v>
+        <v>6.2761719999999993E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>1.4152619999999999E-2</v>
+        <v>9.2374320000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>10.48165</v>
+        <v>9.8439610000000002</v>
       </c>
       <c r="K28" s="1">
-        <v>0.17229059999999999</v>
+        <v>0.18855140000000001</v>
       </c>
       <c r="L28" s="1">
-        <v>1.025631</v>
+        <v>1.06145</v>
       </c>
       <c r="M28" s="1">
-        <v>0.12181640000000001</v>
+        <v>0.13256480000000001</v>
       </c>
       <c r="N28" s="1">
-        <v>16.802379999999999</v>
+        <v>16.803519999999999</v>
       </c>
       <c r="O28" s="1">
-        <v>999.03750000000002</v>
+        <v>998.97739999999999</v>
       </c>
       <c r="P28" s="1">
-        <v>46.910612110000002</v>
+        <v>46.910601679999999</v>
       </c>
       <c r="Q28" s="1">
-        <v>-91.051759649999994</v>
+        <v>-91.051746679999994</v>
       </c>
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>45098.559004629627</v>
+        <v>45098.559016203704</v>
       </c>
       <c r="B29" s="1">
-        <v>7.5048519999999996</v>
+        <v>7.4825049999999997</v>
       </c>
       <c r="C29" s="1">
-        <v>13.53782</v>
+        <v>12.610440000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>57.768180000000001</v>
+        <v>57.255209999999998</v>
       </c>
       <c r="E29" s="1">
-        <v>81.463740000000001</v>
+        <v>80.789860000000004</v>
       </c>
       <c r="F29" s="1">
-        <v>3.7439420000000001E-2</v>
+        <v>3.7114019999999998E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.9997703</v>
+        <v>0.99977280000000002</v>
       </c>
       <c r="H29" s="1">
-        <v>6.2761719999999993E-2</v>
+        <v>6.2837859999999995E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>9.2374320000000001</v>
+        <v>9.7202319999999993</v>
       </c>
       <c r="J29" s="1">
-        <v>9.8439610000000002</v>
+        <v>9.787763</v>
       </c>
       <c r="K29" s="1">
-        <v>0.18855140000000001</v>
+        <v>0.18873380000000001</v>
       </c>
       <c r="L29" s="1">
-        <v>1.06145</v>
+        <v>1.0618570000000001</v>
       </c>
       <c r="M29" s="1">
-        <v>0.13256480000000001</v>
+        <v>0.13269310000000001</v>
       </c>
       <c r="N29" s="1">
-        <v>16.803519999999999</v>
+        <v>16.804580000000001</v>
       </c>
       <c r="O29" s="1">
-        <v>998.97739999999999</v>
+        <v>998.97490000000005</v>
       </c>
       <c r="P29" s="1">
         <v>46.910601679999999</v>
@@ -1980,49 +2031,49 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>45098.559016203704</v>
+        <v>45098.559027777781</v>
       </c>
       <c r="B30" s="1">
-        <v>7.4825049999999997</v>
+        <v>7.460159</v>
       </c>
       <c r="C30" s="1">
-        <v>12.610440000000001</v>
+        <v>11.683059999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>57.255209999999998</v>
+        <v>56.742229999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>80.789860000000004</v>
+        <v>80.115970000000004</v>
       </c>
       <c r="F30" s="1">
-        <v>3.7114019999999998E-2</v>
+        <v>3.6788620000000001E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.99977280000000002</v>
+        <v>0.99977530000000003</v>
       </c>
       <c r="H30" s="1">
-        <v>6.2837859999999995E-2</v>
+        <v>6.2914010000000006E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>9.7202319999999993</v>
+        <v>10.20303</v>
       </c>
       <c r="J30" s="1">
-        <v>9.787763</v>
+        <v>9.7315649999999998</v>
       </c>
       <c r="K30" s="1">
-        <v>0.18873380000000001</v>
+        <v>0.18891620000000001</v>
       </c>
       <c r="L30" s="1">
-        <v>1.0618570000000001</v>
+        <v>1.062263</v>
       </c>
       <c r="M30" s="1">
-        <v>0.13269310000000001</v>
+        <v>0.1328213</v>
       </c>
       <c r="N30" s="1">
-        <v>16.804580000000001</v>
+        <v>16.80564</v>
       </c>
       <c r="O30" s="1">
-        <v>998.97490000000005</v>
+        <v>998.97249999999997</v>
       </c>
       <c r="P30" s="1">
         <v>46.910601679999999</v>
@@ -2034,103 +2085,103 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>45098.559027777781</v>
+        <v>45098.559039351851</v>
       </c>
       <c r="B31" s="1">
-        <v>7.460159</v>
+        <v>6.4604749999999997</v>
       </c>
       <c r="C31" s="1">
-        <v>11.683059999999999</v>
+        <v>31.242380000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>56.742229999999999</v>
+        <v>65.551550000000006</v>
       </c>
       <c r="E31" s="1">
-        <v>80.115970000000004</v>
+        <v>93.023250000000004</v>
       </c>
       <c r="F31" s="1">
-        <v>3.6788620000000001E-2</v>
+        <v>4.2972099999999999E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>0.99977530000000003</v>
+        <v>0.99977729999999998</v>
       </c>
       <c r="H31" s="1">
-        <v>6.2914010000000006E-2</v>
+        <v>6.1665930000000001E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>10.20303</v>
+        <v>8.9994580000000006</v>
       </c>
       <c r="J31" s="1">
-        <v>9.7315649999999998</v>
+        <v>9.5908160000000002</v>
       </c>
       <c r="K31" s="1">
-        <v>0.18891620000000001</v>
+        <v>0.19748250000000001</v>
       </c>
       <c r="L31" s="1">
-        <v>1.062263</v>
+        <v>1.0834699999999999</v>
       </c>
       <c r="M31" s="1">
-        <v>0.1328213</v>
+        <v>0.138844</v>
       </c>
       <c r="N31" s="1">
-        <v>16.80564</v>
+        <v>16.65616</v>
       </c>
       <c r="O31" s="1">
-        <v>998.97249999999997</v>
+        <v>998.95429999999999</v>
       </c>
       <c r="P31" s="1">
-        <v>46.910601679999999</v>
+        <v>46.910592270000002</v>
       </c>
       <c r="Q31" s="1">
-        <v>-91.051746679999994</v>
+        <v>-91.051743009999996</v>
       </c>
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>45098.559039351851</v>
+        <v>45098.559050925927</v>
       </c>
       <c r="B32" s="1">
-        <v>6.4604749999999997</v>
+        <v>6.422072</v>
       </c>
       <c r="C32" s="1">
-        <v>31.242380000000001</v>
+        <v>31.807839999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>65.551550000000006</v>
+        <v>65.771940000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>93.023250000000004</v>
+        <v>93.371480000000005</v>
       </c>
       <c r="F32" s="1">
-        <v>4.2972099999999999E-2</v>
+        <v>4.3138080000000002E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>0.99977729999999998</v>
+        <v>0.99977800000000006</v>
       </c>
       <c r="H32" s="1">
-        <v>6.1665930000000001E-2</v>
+        <v>6.160939E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>8.9994580000000006</v>
+        <v>9.1405940000000001</v>
       </c>
       <c r="J32" s="1">
-        <v>9.5908160000000002</v>
+        <v>9.5689759999999993</v>
       </c>
       <c r="K32" s="1">
-        <v>0.19748250000000001</v>
+        <v>0.198271</v>
       </c>
       <c r="L32" s="1">
-        <v>1.0834699999999999</v>
+        <v>1.0853759999999999</v>
       </c>
       <c r="M32" s="1">
-        <v>0.138844</v>
+        <v>0.13939840000000001</v>
       </c>
       <c r="N32" s="1">
-        <v>16.65616</v>
+        <v>16.648440000000001</v>
       </c>
       <c r="O32" s="1">
-        <v>998.95429999999999</v>
+        <v>998.952</v>
       </c>
       <c r="P32" s="1">
         <v>46.910592270000002</v>
@@ -2142,49 +2193,49 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>45098.559050925927</v>
+        <v>45098.559062499997</v>
       </c>
       <c r="B33" s="1">
-        <v>6.422072</v>
+        <v>6.3836680000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>31.807839999999999</v>
+        <v>32.3733</v>
       </c>
       <c r="D33" s="1">
-        <v>65.771940000000001</v>
+        <v>65.992339999999999</v>
       </c>
       <c r="E33" s="1">
-        <v>93.371480000000005</v>
+        <v>93.719700000000003</v>
       </c>
       <c r="F33" s="1">
-        <v>4.3138080000000002E-2</v>
+        <v>4.330407E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.99977800000000006</v>
+        <v>0.99977890000000003</v>
       </c>
       <c r="H33" s="1">
-        <v>6.160939E-2</v>
+        <v>6.1552860000000001E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>9.1405940000000001</v>
+        <v>9.2817299999999996</v>
       </c>
       <c r="J33" s="1">
-        <v>9.5689759999999993</v>
+        <v>9.5471369999999993</v>
       </c>
       <c r="K33" s="1">
-        <v>0.198271</v>
+        <v>0.1990596</v>
       </c>
       <c r="L33" s="1">
-        <v>1.0853759999999999</v>
+        <v>1.0872809999999999</v>
       </c>
       <c r="M33" s="1">
-        <v>0.13939840000000001</v>
+        <v>0.13995279999999999</v>
       </c>
       <c r="N33" s="1">
-        <v>16.648440000000001</v>
+        <v>16.640720000000002</v>
       </c>
       <c r="O33" s="1">
-        <v>998.952</v>
+        <v>998.94979999999998</v>
       </c>
       <c r="P33" s="1">
         <v>46.910592270000002</v>
@@ -2196,103 +2247,103 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>45098.559062499997</v>
+        <v>45098.559074074074</v>
       </c>
       <c r="B34" s="1">
-        <v>6.3836680000000001</v>
+        <v>6.0644359999999997</v>
       </c>
       <c r="C34" s="1">
-        <v>32.3733</v>
+        <v>14.230169999999999</v>
       </c>
       <c r="D34" s="1">
-        <v>65.992339999999999</v>
+        <v>68.274640000000005</v>
       </c>
       <c r="E34" s="1">
-        <v>93.719700000000003</v>
+        <v>97.263549999999995</v>
       </c>
       <c r="F34" s="1">
-        <v>4.330407E-2</v>
+        <v>4.4993579999999998E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>0.99977890000000003</v>
+        <v>0.99978889999999998</v>
       </c>
       <c r="H34" s="1">
-        <v>6.1552860000000001E-2</v>
+        <v>6.3557379999999997E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>9.2817299999999996</v>
+        <v>1.510634</v>
       </c>
       <c r="J34" s="1">
-        <v>9.5471369999999993</v>
+        <v>9.4021559999999997</v>
       </c>
       <c r="K34" s="1">
-        <v>0.1990596</v>
+        <v>0.44648310000000002</v>
       </c>
       <c r="L34" s="1">
-        <v>1.0872809999999999</v>
+        <v>1.6529799999999999</v>
       </c>
       <c r="M34" s="1">
-        <v>0.13995279999999999</v>
+        <v>0.31390889999999999</v>
       </c>
       <c r="N34" s="1">
-        <v>16.640720000000002</v>
+        <v>16.66939</v>
       </c>
       <c r="O34" s="1">
-        <v>998.94979999999998</v>
+        <v>999.02829999999994</v>
       </c>
       <c r="P34" s="1">
-        <v>46.910592270000002</v>
+        <v>46.910581870000001</v>
       </c>
       <c r="Q34" s="1">
-        <v>-91.051743009999996</v>
+        <v>-91.051748700000005</v>
       </c>
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45098.559074074074</v>
+        <v>45098.55908564815</v>
       </c>
       <c r="B35" s="1">
-        <v>6.0644359999999997</v>
+        <v>6.0258500000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>14.230169999999999</v>
+        <v>13.675230000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>68.274640000000005</v>
+        <v>68.577950000000001</v>
       </c>
       <c r="E35" s="1">
-        <v>97.263549999999995</v>
+        <v>97.719430000000003</v>
       </c>
       <c r="F35" s="1">
-        <v>4.4993579999999998E-2</v>
+        <v>4.5211510000000003E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.99978889999999998</v>
+        <v>0.9997895</v>
       </c>
       <c r="H35" s="1">
-        <v>6.3557379999999997E-2</v>
+        <v>6.3638029999999998E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>1.510634</v>
+        <v>1.078079</v>
       </c>
       <c r="J35" s="1">
-        <v>9.4021559999999997</v>
+        <v>9.3908210000000008</v>
       </c>
       <c r="K35" s="1">
-        <v>0.44648310000000002</v>
+        <v>0.45978530000000001</v>
       </c>
       <c r="L35" s="1">
-        <v>1.6529799999999999</v>
+        <v>1.683427</v>
       </c>
       <c r="M35" s="1">
-        <v>0.31390889999999999</v>
+        <v>0.32326129999999997</v>
       </c>
       <c r="N35" s="1">
-        <v>16.66939</v>
+        <v>16.667739999999998</v>
       </c>
       <c r="O35" s="1">
-        <v>999.02829999999994</v>
+        <v>999.03200000000004</v>
       </c>
       <c r="P35" s="1">
         <v>46.910581870000001</v>
@@ -2304,49 +2355,49 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45098.55908564815</v>
+        <v>45098.55909722222</v>
       </c>
       <c r="B36" s="1">
-        <v>6.0258500000000002</v>
+        <v>5.9872629999999996</v>
       </c>
       <c r="C36" s="1">
-        <v>13.675230000000001</v>
+        <v>13.1203</v>
       </c>
       <c r="D36" s="1">
-        <v>68.577950000000001</v>
+        <v>68.881259999999997</v>
       </c>
       <c r="E36" s="1">
-        <v>97.719430000000003</v>
+        <v>98.175309999999996</v>
       </c>
       <c r="F36" s="1">
-        <v>4.5211510000000003E-2</v>
+        <v>4.5429440000000001E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.9997895</v>
+        <v>0.99979010000000001</v>
       </c>
       <c r="H36" s="1">
-        <v>6.3638029999999998E-2</v>
+        <v>6.371868E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>1.078079</v>
+        <v>0.6455246</v>
       </c>
       <c r="J36" s="1">
-        <v>9.3908210000000008</v>
+        <v>9.3794869999999992</v>
       </c>
       <c r="K36" s="1">
-        <v>0.45978530000000001</v>
+        <v>0.47308749999999999</v>
       </c>
       <c r="L36" s="1">
-        <v>1.683427</v>
+        <v>1.713875</v>
       </c>
       <c r="M36" s="1">
-        <v>0.32326129999999997</v>
+        <v>0.33261360000000001</v>
       </c>
       <c r="N36" s="1">
-        <v>16.667739999999998</v>
+        <v>16.666090000000001</v>
       </c>
       <c r="O36" s="1">
-        <v>999.03200000000004</v>
+        <v>999.03579999999999</v>
       </c>
       <c r="P36" s="1">
         <v>46.910581870000001</v>
@@ -2358,49 +2409,49 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45098.55909722222</v>
+        <v>45098.559108796297</v>
       </c>
       <c r="B37" s="1">
-        <v>5.9872629999999996</v>
+        <v>7.7810280000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>13.1203</v>
+        <v>9.5418140000000005</v>
       </c>
       <c r="D37" s="1">
-        <v>68.881259999999997</v>
+        <v>68.546369999999996</v>
       </c>
       <c r="E37" s="1">
-        <v>98.175309999999996</v>
+        <v>98.071209999999994</v>
       </c>
       <c r="F37" s="1">
-        <v>4.5429440000000001E-2</v>
+        <v>4.549363E-2</v>
       </c>
       <c r="G37" s="1">
-        <v>0.99979010000000001</v>
+        <v>0.99980800000000003</v>
       </c>
       <c r="H37" s="1">
-        <v>6.371868E-2</v>
+        <v>6.3931479999999999E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>0.6455246</v>
+        <v>0.5740885</v>
       </c>
       <c r="J37" s="1">
-        <v>9.3794869999999992</v>
+        <v>9.2394689999999997</v>
       </c>
       <c r="K37" s="1">
-        <v>0.47308749999999999</v>
+        <v>1.2160409999999999</v>
       </c>
       <c r="L37" s="1">
-        <v>1.713875</v>
+        <v>3.4086759999999998</v>
       </c>
       <c r="M37" s="1">
-        <v>0.33261360000000001</v>
+        <v>0.854962</v>
       </c>
       <c r="N37" s="1">
-        <v>16.666090000000001</v>
+        <v>16.808959999999999</v>
       </c>
       <c r="O37" s="1">
-        <v>999.03579999999999</v>
+        <v>999.05439999999999</v>
       </c>
       <c r="P37" s="1">
         <v>46.910581870000001</v>
@@ -2412,49 +2463,49 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>45098.559108796297</v>
+        <v>45098.559120370373</v>
       </c>
       <c r="B38" s="1">
-        <v>7.7810280000000001</v>
+        <v>7.8692700000000002</v>
       </c>
       <c r="C38" s="1">
-        <v>9.5418140000000005</v>
+        <v>8.9487939999999995</v>
       </c>
       <c r="D38" s="1">
-        <v>68.546369999999996</v>
+        <v>68.57696</v>
       </c>
       <c r="E38" s="1">
-        <v>98.071209999999994</v>
+        <v>98.141279999999995</v>
       </c>
       <c r="F38" s="1">
-        <v>4.549363E-2</v>
+        <v>4.5533070000000002E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.99980800000000003</v>
+        <v>0.99980910000000001</v>
       </c>
       <c r="H38" s="1">
-        <v>6.3931479999999999E-2</v>
+        <v>6.3986860000000007E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>0.5740885</v>
+        <v>0.40159470000000003</v>
       </c>
       <c r="J38" s="1">
-        <v>9.2394689999999997</v>
+        <v>9.2286359999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>1.2160409999999999</v>
+        <v>1.2609379999999999</v>
       </c>
       <c r="L38" s="1">
-        <v>3.4086759999999998</v>
+        <v>3.5111219999999999</v>
       </c>
       <c r="M38" s="1">
-        <v>0.854962</v>
+        <v>0.88652739999999997</v>
       </c>
       <c r="N38" s="1">
-        <v>16.808959999999999</v>
+        <v>16.817150000000002</v>
       </c>
       <c r="O38" s="1">
-        <v>999.05439999999999</v>
+        <v>999.05709999999999</v>
       </c>
       <c r="P38" s="1">
         <v>46.910581870000001</v>
@@ -2466,49 +2517,49 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>45098.559120370373</v>
+        <v>45098.559131944443</v>
       </c>
       <c r="B39" s="1">
-        <v>7.8692700000000002</v>
+        <v>7.9575120000000004</v>
       </c>
       <c r="C39" s="1">
-        <v>8.9487939999999995</v>
+        <v>8.3557749999999995</v>
       </c>
       <c r="D39" s="1">
-        <v>68.57696</v>
+        <v>68.607550000000003</v>
       </c>
       <c r="E39" s="1">
-        <v>98.141279999999995</v>
+        <v>98.211359999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>4.5533070000000002E-2</v>
+        <v>4.5572500000000002E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.99980910000000001</v>
+        <v>0.99981030000000004</v>
       </c>
       <c r="H39" s="1">
-        <v>6.3986860000000007E-2</v>
+        <v>6.404224E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>0.40159470000000003</v>
+        <v>0.2291009</v>
       </c>
       <c r="J39" s="1">
-        <v>9.2286359999999998</v>
+        <v>9.217803</v>
       </c>
       <c r="K39" s="1">
-        <v>1.2609379999999999</v>
+        <v>1.3058339999999999</v>
       </c>
       <c r="L39" s="1">
-        <v>3.5111219999999999</v>
+        <v>3.6135660000000001</v>
       </c>
       <c r="M39" s="1">
-        <v>0.88652739999999997</v>
+        <v>0.91809269999999998</v>
       </c>
       <c r="N39" s="1">
-        <v>16.817150000000002</v>
+        <v>16.82535</v>
       </c>
       <c r="O39" s="1">
-        <v>999.05709999999999</v>
+        <v>999.0598</v>
       </c>
       <c r="P39" s="1">
         <v>46.910581870000001</v>
@@ -2520,103 +2571,103 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45098.559131944443</v>
+        <v>45098.55914351852</v>
       </c>
       <c r="B40" s="1">
-        <v>7.9575120000000004</v>
+        <v>7.4997210000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>8.3557749999999995</v>
+        <v>8.3774069999999998</v>
       </c>
       <c r="D40" s="1">
-        <v>68.607550000000003</v>
+        <v>68.526989999999998</v>
       </c>
       <c r="E40" s="1">
-        <v>98.211359999999999</v>
+        <v>98.563869999999994</v>
       </c>
       <c r="F40" s="1">
-        <v>4.5572500000000002E-2</v>
+        <v>4.5597739999999998E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.99981030000000004</v>
+        <v>0.99981690000000001</v>
       </c>
       <c r="H40" s="1">
-        <v>6.404224E-2</v>
+        <v>6.4088569999999997E-2</v>
       </c>
       <c r="I40" s="1">
-        <v>0.2291009</v>
+        <v>0.16561799999999999</v>
       </c>
       <c r="J40" s="1">
-        <v>9.217803</v>
+        <v>9.1301129999999997</v>
       </c>
       <c r="K40" s="1">
-        <v>1.3058339999999999</v>
+        <v>1.585555</v>
       </c>
       <c r="L40" s="1">
-        <v>3.6135660000000001</v>
+        <v>4.2566819999999996</v>
       </c>
       <c r="M40" s="1">
-        <v>0.91809269999999998</v>
+        <v>1.1147560000000001</v>
       </c>
       <c r="N40" s="1">
-        <v>16.82535</v>
+        <v>16.701409999999999</v>
       </c>
       <c r="O40" s="1">
-        <v>999.0598</v>
+        <v>998.99839999999995</v>
       </c>
       <c r="P40" s="1">
-        <v>46.910581870000001</v>
+        <v>46.910572760000001</v>
       </c>
       <c r="Q40" s="1">
-        <v>-91.051748700000005</v>
+        <v>-91.051750929999997</v>
       </c>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45098.55914351852</v>
+        <v>45098.559155092589</v>
       </c>
       <c r="B41" s="1">
-        <v>7.4997210000000001</v>
+        <v>7.5140380000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>8.3774069999999998</v>
+        <v>8.2978480000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>68.526989999999998</v>
+        <v>68.517949999999999</v>
       </c>
       <c r="E41" s="1">
-        <v>98.563869999999994</v>
+        <v>98.584469999999996</v>
       </c>
       <c r="F41" s="1">
-        <v>4.5597739999999998E-2</v>
+        <v>4.5602379999999998E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.99981690000000001</v>
+        <v>0.99981770000000003</v>
       </c>
       <c r="H41" s="1">
-        <v>6.4088569999999997E-2</v>
+        <v>6.4096180000000003E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>0.16561799999999999</v>
+        <v>0.15766620000000001</v>
       </c>
       <c r="J41" s="1">
-        <v>9.1301129999999997</v>
+        <v>9.1222469999999998</v>
       </c>
       <c r="K41" s="1">
-        <v>1.585555</v>
+        <v>1.616951</v>
       </c>
       <c r="L41" s="1">
-        <v>4.2566819999999996</v>
+        <v>4.3285720000000003</v>
       </c>
       <c r="M41" s="1">
-        <v>1.1147560000000001</v>
+        <v>1.13683</v>
       </c>
       <c r="N41" s="1">
-        <v>16.701409999999999</v>
+        <v>16.697849999999999</v>
       </c>
       <c r="O41" s="1">
-        <v>998.99839999999995</v>
+        <v>998.99549999999999</v>
       </c>
       <c r="P41" s="1">
         <v>46.910572760000001</v>
@@ -2628,49 +2679,49 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45098.559155092589</v>
+        <v>45098.559166666666</v>
       </c>
       <c r="B42" s="1">
-        <v>7.5140380000000002</v>
+        <v>7.5283540000000002</v>
       </c>
       <c r="C42" s="1">
-        <v>8.2978480000000001</v>
+        <v>8.2182879999999994</v>
       </c>
       <c r="D42" s="1">
-        <v>68.517949999999999</v>
+        <v>68.508899999999997</v>
       </c>
       <c r="E42" s="1">
-        <v>98.584469999999996</v>
+        <v>98.605059999999995</v>
       </c>
       <c r="F42" s="1">
-        <v>4.5602379999999998E-2</v>
+        <v>4.5607010000000003E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.99981770000000003</v>
+        <v>0.9998184</v>
       </c>
       <c r="H42" s="1">
-        <v>6.4096180000000003E-2</v>
+        <v>6.4103789999999994E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>0.15766620000000001</v>
+        <v>0.1497144</v>
       </c>
       <c r="J42" s="1">
-        <v>9.1222469999999998</v>
+        <v>9.1143800000000006</v>
       </c>
       <c r="K42" s="1">
-        <v>1.616951</v>
+        <v>1.648347</v>
       </c>
       <c r="L42" s="1">
-        <v>4.3285720000000003</v>
+        <v>4.4004620000000001</v>
       </c>
       <c r="M42" s="1">
-        <v>1.13683</v>
+        <v>1.158903</v>
       </c>
       <c r="N42" s="1">
-        <v>16.697849999999999</v>
+        <v>16.694289999999999</v>
       </c>
       <c r="O42" s="1">
-        <v>998.99549999999999</v>
+        <v>998.99260000000004</v>
       </c>
       <c r="P42" s="1">
         <v>46.910572760000001</v>
@@ -2682,49 +2733,49 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>45098.559166666666</v>
+        <v>45098.559178240743</v>
       </c>
       <c r="B43" s="1">
-        <v>7.5283540000000002</v>
+        <v>7.866854</v>
       </c>
       <c r="C43" s="1">
-        <v>8.2182879999999994</v>
+        <v>8.3360690000000002</v>
       </c>
       <c r="D43" s="1">
-        <v>68.508899999999997</v>
+        <v>68.396479999999997</v>
       </c>
       <c r="E43" s="1">
-        <v>98.605059999999995</v>
+        <v>98.697109999999995</v>
       </c>
       <c r="F43" s="1">
-        <v>4.5607010000000003E-2</v>
+        <v>4.5638190000000002E-2</v>
       </c>
       <c r="G43" s="1">
-        <v>0.9998184</v>
+        <v>0.99982519999999997</v>
       </c>
       <c r="H43" s="1">
-        <v>6.4103789999999994E-2</v>
+        <v>6.4158859999999998E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>0.1497144</v>
+        <v>0.19826350000000001</v>
       </c>
       <c r="J43" s="1">
-        <v>9.1143800000000006</v>
+        <v>8.9361169999999994</v>
       </c>
       <c r="K43" s="1">
-        <v>1.648347</v>
+        <v>1.6453580000000001</v>
       </c>
       <c r="L43" s="1">
-        <v>4.4004620000000001</v>
+        <v>4.3890650000000004</v>
       </c>
       <c r="M43" s="1">
-        <v>1.158903</v>
+        <v>1.275058</v>
       </c>
       <c r="N43" s="1">
-        <v>16.694289999999999</v>
+        <v>16.69876</v>
       </c>
       <c r="O43" s="1">
-        <v>998.99260000000004</v>
+        <v>999.00019999999995</v>
       </c>
       <c r="P43" s="1">
         <v>46.910572760000001</v>
@@ -2736,49 +2787,49 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45098.559178240743</v>
+        <v>45098.559189814812</v>
       </c>
       <c r="B44" s="1">
-        <v>7.866854</v>
+        <v>7.8755329999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>8.3360690000000002</v>
+        <v>8.3371320000000004</v>
       </c>
       <c r="D44" s="1">
-        <v>68.396479999999997</v>
+        <v>68.388990000000007</v>
       </c>
       <c r="E44" s="1">
-        <v>98.697109999999995</v>
+        <v>98.710809999999995</v>
       </c>
       <c r="F44" s="1">
-        <v>4.5638190000000002E-2</v>
+        <v>4.564087E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>0.99982519999999997</v>
+        <v>0.99982570000000004</v>
       </c>
       <c r="H44" s="1">
-        <v>6.4158859999999998E-2</v>
+        <v>6.4163490000000004E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>0.19826350000000001</v>
+        <v>0.19748289999999999</v>
       </c>
       <c r="J44" s="1">
-        <v>8.9361169999999994</v>
+        <v>8.9243620000000004</v>
       </c>
       <c r="K44" s="1">
-        <v>1.6453580000000001</v>
+        <v>1.651702</v>
       </c>
       <c r="L44" s="1">
-        <v>4.3890650000000004</v>
+        <v>4.4034009999999997</v>
       </c>
       <c r="M44" s="1">
-        <v>1.275058</v>
+        <v>1.2859670000000001</v>
       </c>
       <c r="N44" s="1">
-        <v>16.69876</v>
+        <v>16.696290000000001</v>
       </c>
       <c r="O44" s="1">
-        <v>999.00019999999995</v>
+        <v>998.99929999999995</v>
       </c>
       <c r="P44" s="1">
         <v>46.910572760000001</v>
@@ -2790,103 +2841,103 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45098.559189814812</v>
+        <v>45098.559201388889</v>
       </c>
       <c r="B45" s="1">
-        <v>7.8755329999999999</v>
+        <v>7.8842119999999998</v>
       </c>
       <c r="C45" s="1">
-        <v>8.3371320000000004</v>
+        <v>8.3381959999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>68.388990000000007</v>
+        <v>68.381519999999995</v>
       </c>
       <c r="E45" s="1">
-        <v>98.710809999999995</v>
+        <v>98.724509999999995</v>
       </c>
       <c r="F45" s="1">
-        <v>4.564087E-2</v>
+        <v>4.564356E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.99982570000000004</v>
+        <v>0.99982629999999995</v>
       </c>
       <c r="H45" s="1">
-        <v>6.4163490000000004E-2</v>
+        <v>6.416811E-2</v>
       </c>
       <c r="I45" s="1">
-        <v>0.19748289999999999</v>
+        <v>0.1967023</v>
       </c>
       <c r="J45" s="1">
-        <v>8.9243620000000004</v>
+        <v>8.9126080000000005</v>
       </c>
       <c r="K45" s="1">
-        <v>1.651702</v>
+        <v>1.658047</v>
       </c>
       <c r="L45" s="1">
-        <v>4.4034009999999997</v>
+        <v>4.4177359999999997</v>
       </c>
       <c r="M45" s="1">
-        <v>1.2859670000000001</v>
+        <v>1.2968770000000001</v>
       </c>
       <c r="N45" s="1">
-        <v>16.696290000000001</v>
+        <v>16.693819999999999</v>
       </c>
       <c r="O45" s="1">
-        <v>998.99929999999995</v>
+        <v>998.99839999999995</v>
       </c>
       <c r="P45" s="1">
-        <v>46.910572760000001</v>
+        <v>46.91056253</v>
       </c>
       <c r="Q45" s="1">
-        <v>-91.051750929999997</v>
+        <v>-91.051752250000007</v>
       </c>
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45098.559201388889</v>
+        <v>45098.559212962966</v>
       </c>
       <c r="B46" s="1">
-        <v>7.8842119999999998</v>
+        <v>8.0699419999999993</v>
       </c>
       <c r="C46" s="1">
-        <v>8.3381959999999999</v>
+        <v>8.4864029999999993</v>
       </c>
       <c r="D46" s="1">
-        <v>68.381519999999995</v>
+        <v>68.464879999999994</v>
       </c>
       <c r="E46" s="1">
-        <v>98.724509999999995</v>
+        <v>99.072720000000004</v>
       </c>
       <c r="F46" s="1">
-        <v>4.564356E-2</v>
+        <v>4.580265E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.99982629999999995</v>
+        <v>0.99983310000000003</v>
       </c>
       <c r="H46" s="1">
-        <v>6.416811E-2</v>
+        <v>6.4397270000000006E-2</v>
       </c>
       <c r="I46" s="1">
-        <v>0.1967023</v>
+        <v>0.23747960000000001</v>
       </c>
       <c r="J46" s="1">
-        <v>8.9126080000000005</v>
+        <v>8.8848610000000008</v>
       </c>
       <c r="K46" s="1">
-        <v>1.658047</v>
+        <v>2.0456560000000001</v>
       </c>
       <c r="L46" s="1">
-        <v>4.4177359999999997</v>
+        <v>5.3065720000000001</v>
       </c>
       <c r="M46" s="1">
-        <v>1.2968770000000001</v>
+        <v>1.453144</v>
       </c>
       <c r="N46" s="1">
-        <v>16.693819999999999</v>
+        <v>16.813130000000001</v>
       </c>
       <c r="O46" s="1">
-        <v>998.99839999999995</v>
+        <v>998.97349999999994</v>
       </c>
       <c r="P46" s="1">
         <v>46.91056253</v>
@@ -2898,49 +2949,49 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45098.559212962966</v>
+        <v>45098.559224537035</v>
       </c>
       <c r="B47" s="1">
-        <v>8.0699419999999993</v>
+        <v>8.087828</v>
       </c>
       <c r="C47" s="1">
-        <v>8.4864029999999993</v>
+        <v>8.4960249999999995</v>
       </c>
       <c r="D47" s="1">
-        <v>68.464879999999994</v>
+        <v>68.466579999999993</v>
       </c>
       <c r="E47" s="1">
-        <v>99.072720000000004</v>
+        <v>99.093389999999999</v>
       </c>
       <c r="F47" s="1">
-        <v>4.580265E-2</v>
+        <v>4.5811810000000001E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>0.99983310000000003</v>
+        <v>0.99983359999999999</v>
       </c>
       <c r="H47" s="1">
-        <v>6.4397270000000006E-2</v>
+        <v>6.4410709999999996E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>0.23747960000000001</v>
+        <v>0.24068490000000001</v>
       </c>
       <c r="J47" s="1">
-        <v>8.8848610000000008</v>
+        <v>8.8791890000000002</v>
       </c>
       <c r="K47" s="1">
-        <v>2.0456560000000001</v>
+        <v>2.0663529999999999</v>
       </c>
       <c r="L47" s="1">
-        <v>5.3065720000000001</v>
+        <v>5.3539279999999998</v>
       </c>
       <c r="M47" s="1">
-        <v>1.453144</v>
+        <v>1.4643060000000001</v>
       </c>
       <c r="N47" s="1">
-        <v>16.813130000000001</v>
+        <v>16.819500000000001</v>
       </c>
       <c r="O47" s="1">
-        <v>998.97349999999994</v>
+        <v>998.97239999999999</v>
       </c>
       <c r="P47" s="1">
         <v>46.91056253</v>
@@ -2952,103 +3003,103 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45098.559224537035</v>
+        <v>45098.559236111112</v>
       </c>
       <c r="B48" s="1">
-        <v>8.087828</v>
+        <v>8.1057129999999997</v>
       </c>
       <c r="C48" s="1">
-        <v>8.4960249999999995</v>
+        <v>8.5056469999999997</v>
       </c>
       <c r="D48" s="1">
-        <v>68.466579999999993</v>
+        <v>68.468260000000001</v>
       </c>
       <c r="E48" s="1">
-        <v>99.093389999999999</v>
+        <v>99.114069999999998</v>
       </c>
       <c r="F48" s="1">
-        <v>4.5811810000000001E-2</v>
+        <v>4.5820960000000001E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>0.99983359999999999</v>
+        <v>0.99983420000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>6.4410709999999996E-2</v>
+        <v>6.4424140000000005E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>0.24068490000000001</v>
+        <v>0.2438901</v>
       </c>
       <c r="J48" s="1">
-        <v>8.8791890000000002</v>
+        <v>8.8735149999999994</v>
       </c>
       <c r="K48" s="1">
-        <v>2.0663529999999999</v>
+        <v>2.0870510000000002</v>
       </c>
       <c r="L48" s="1">
-        <v>5.3539279999999998</v>
+        <v>5.4012830000000003</v>
       </c>
       <c r="M48" s="1">
-        <v>1.4643060000000001</v>
+        <v>1.4754689999999999</v>
       </c>
       <c r="N48" s="1">
-        <v>16.819500000000001</v>
+        <v>16.825869999999998</v>
       </c>
       <c r="O48" s="1">
-        <v>998.97239999999999</v>
+        <v>998.97119999999995</v>
       </c>
       <c r="P48" s="1">
-        <v>46.91056253</v>
+        <v>46.910553210000003</v>
       </c>
       <c r="Q48" s="1">
-        <v>-91.051752250000007</v>
+        <v>-91.051761880000001</v>
       </c>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45098.559236111112</v>
+        <v>45098.559247685182</v>
       </c>
       <c r="B49" s="1">
-        <v>8.1057129999999997</v>
+        <v>7.7701739999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>8.5056469999999997</v>
+        <v>8.4182170000000003</v>
       </c>
       <c r="D49" s="1">
-        <v>68.468260000000001</v>
+        <v>68.483289999999997</v>
       </c>
       <c r="E49" s="1">
-        <v>99.114069999999998</v>
+        <v>99.272959999999998</v>
       </c>
       <c r="F49" s="1">
-        <v>4.5820960000000001E-2</v>
+        <v>4.5892670000000003E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.99983420000000001</v>
+        <v>0.99983719999999998</v>
       </c>
       <c r="H49" s="1">
-        <v>6.4424140000000005E-2</v>
+        <v>6.4527429999999997E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>0.2438901</v>
+        <v>0.30033470000000001</v>
       </c>
       <c r="J49" s="1">
-        <v>8.8735149999999994</v>
+        <v>8.8097969999999997</v>
       </c>
       <c r="K49" s="1">
-        <v>2.0870510000000002</v>
+        <v>2.6287690000000001</v>
       </c>
       <c r="L49" s="1">
-        <v>5.4012830000000003</v>
+        <v>6.6420899999999996</v>
       </c>
       <c r="M49" s="1">
-        <v>1.4754689999999999</v>
+        <v>1.852325</v>
       </c>
       <c r="N49" s="1">
-        <v>16.825869999999998</v>
+        <v>16.812280000000001</v>
       </c>
       <c r="O49" s="1">
-        <v>998.97119999999995</v>
+        <v>998.95330000000001</v>
       </c>
       <c r="P49" s="1">
         <v>46.910553210000003</v>
@@ -3060,103 +3111,103 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45098.559247685182</v>
+        <v>45098.559259259258</v>
       </c>
       <c r="B50" s="1">
-        <v>7.7701739999999999</v>
+        <v>7.7563190000000004</v>
       </c>
       <c r="C50" s="1">
-        <v>8.4182170000000003</v>
+        <v>8.4167480000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>68.483289999999997</v>
+        <v>68.485789999999994</v>
       </c>
       <c r="E50" s="1">
-        <v>99.272959999999998</v>
+        <v>99.28922</v>
       </c>
       <c r="F50" s="1">
-        <v>4.5892670000000003E-2</v>
+        <v>4.5899990000000002E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>0.99983719999999998</v>
+        <v>0.99983750000000005</v>
       </c>
       <c r="H50" s="1">
-        <v>6.4527429999999997E-2</v>
+        <v>6.4537990000000003E-2</v>
       </c>
       <c r="I50" s="1">
-        <v>0.30033470000000001</v>
+        <v>0.30423329999999998</v>
       </c>
       <c r="J50" s="1">
-        <v>8.8097969999999997</v>
+        <v>8.805612</v>
       </c>
       <c r="K50" s="1">
-        <v>2.6287690000000001</v>
+        <v>2.6663000000000001</v>
       </c>
       <c r="L50" s="1">
-        <v>6.6420899999999996</v>
+        <v>6.7280740000000003</v>
       </c>
       <c r="M50" s="1">
-        <v>1.852325</v>
+        <v>1.8760749999999999</v>
       </c>
       <c r="N50" s="1">
-        <v>16.812280000000001</v>
+        <v>16.81409</v>
       </c>
       <c r="O50" s="1">
-        <v>998.95330000000001</v>
+        <v>998.95180000000005</v>
       </c>
       <c r="P50" s="1">
-        <v>46.910553210000003</v>
+        <v>46.910544209999998</v>
       </c>
       <c r="Q50" s="1">
-        <v>-91.051761880000001</v>
+        <v>-91.051766860000001</v>
       </c>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45098.559259259258</v>
+        <v>45098.559270833335</v>
       </c>
       <c r="B51" s="1">
-        <v>7.7563190000000004</v>
+        <v>7.742464</v>
       </c>
       <c r="C51" s="1">
-        <v>8.4167480000000001</v>
+        <v>8.415279</v>
       </c>
       <c r="D51" s="1">
-        <v>68.485789999999994</v>
+        <v>68.488299999999995</v>
       </c>
       <c r="E51" s="1">
-        <v>99.28922</v>
+        <v>99.30547</v>
       </c>
       <c r="F51" s="1">
-        <v>4.5899990000000002E-2</v>
+        <v>4.5907320000000001E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>0.99983750000000005</v>
+        <v>0.9998378</v>
       </c>
       <c r="H51" s="1">
-        <v>6.4537990000000003E-2</v>
+        <v>6.4548560000000005E-2</v>
       </c>
       <c r="I51" s="1">
-        <v>0.30423329999999998</v>
+        <v>0.30813200000000002</v>
       </c>
       <c r="J51" s="1">
-        <v>8.805612</v>
+        <v>8.8014250000000001</v>
       </c>
       <c r="K51" s="1">
-        <v>2.6663000000000001</v>
+        <v>2.7038310000000001</v>
       </c>
       <c r="L51" s="1">
-        <v>6.7280740000000003</v>
+        <v>6.8140580000000002</v>
       </c>
       <c r="M51" s="1">
-        <v>1.8760749999999999</v>
+        <v>1.8998250000000001</v>
       </c>
       <c r="N51" s="1">
-        <v>16.81409</v>
+        <v>16.815909999999999</v>
       </c>
       <c r="O51" s="1">
-        <v>998.95180000000005</v>
+        <v>998.95029999999997</v>
       </c>
       <c r="P51" s="1">
         <v>46.910544209999998</v>
@@ -3168,49 +3219,49 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45098.559270833335</v>
+        <v>45098.559282407405</v>
       </c>
       <c r="B52" s="1">
-        <v>7.742464</v>
+        <v>8.1866590000000006</v>
       </c>
       <c r="C52" s="1">
-        <v>8.415279</v>
+        <v>8.6203909999999997</v>
       </c>
       <c r="D52" s="1">
-        <v>68.488299999999995</v>
+        <v>67.759860000000003</v>
       </c>
       <c r="E52" s="1">
-        <v>99.30547</v>
+        <v>98.594849999999994</v>
       </c>
       <c r="F52" s="1">
-        <v>4.5907320000000001E-2</v>
+        <v>4.5553499999999997E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>0.9998378</v>
+        <v>0.99984640000000002</v>
       </c>
       <c r="H52" s="1">
-        <v>6.4548560000000005E-2</v>
+        <v>6.4069319999999999E-2</v>
       </c>
       <c r="I52" s="1">
-        <v>0.30813200000000002</v>
+        <v>0.22487299999999999</v>
       </c>
       <c r="J52" s="1">
-        <v>8.8014250000000001</v>
+        <v>8.6329309999999992</v>
       </c>
       <c r="K52" s="1">
-        <v>2.7038310000000001</v>
+        <v>3.4771779999999999</v>
       </c>
       <c r="L52" s="1">
-        <v>6.8140580000000002</v>
+        <v>9.6096380000000003</v>
       </c>
       <c r="M52" s="1">
-        <v>1.8998250000000001</v>
+        <v>2.744637</v>
       </c>
       <c r="N52" s="1">
-        <v>16.815909999999999</v>
+        <v>16.814540000000001</v>
       </c>
       <c r="O52" s="1">
-        <v>998.95029999999997</v>
+        <v>998.97609999999997</v>
       </c>
       <c r="P52" s="1">
         <v>46.910544209999998</v>
@@ -3222,49 +3273,49 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45098.559282407405</v>
+        <v>45098.559293981481</v>
       </c>
       <c r="B53" s="1">
-        <v>8.1866590000000006</v>
+        <v>8.2030329999999996</v>
       </c>
       <c r="C53" s="1">
-        <v>8.6203909999999997</v>
+        <v>8.6294330000000006</v>
       </c>
       <c r="D53" s="1">
-        <v>67.759860000000003</v>
+        <v>67.721310000000003</v>
       </c>
       <c r="E53" s="1">
-        <v>98.594849999999994</v>
+        <v>98.560559999999995</v>
       </c>
       <c r="F53" s="1">
-        <v>4.5553499999999997E-2</v>
+        <v>4.5536260000000002E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>0.99984640000000002</v>
+        <v>0.99984689999999998</v>
       </c>
       <c r="H53" s="1">
-        <v>6.4069319999999999E-2</v>
+        <v>6.4046099999999995E-2</v>
       </c>
       <c r="I53" s="1">
-        <v>0.22487299999999999</v>
+        <v>0.2217122</v>
       </c>
       <c r="J53" s="1">
-        <v>8.6329309999999992</v>
+        <v>8.6224570000000007</v>
       </c>
       <c r="K53" s="1">
-        <v>3.4771779999999999</v>
+        <v>3.5305439999999999</v>
       </c>
       <c r="L53" s="1">
-        <v>9.6096380000000003</v>
+        <v>9.7865059999999993</v>
       </c>
       <c r="M53" s="1">
-        <v>2.744637</v>
+        <v>2.7981560000000001</v>
       </c>
       <c r="N53" s="1">
-        <v>16.814540000000001</v>
+        <v>16.81418</v>
       </c>
       <c r="O53" s="1">
-        <v>998.97609999999997</v>
+        <v>998.97709999999995</v>
       </c>
       <c r="P53" s="1">
         <v>46.910544209999998</v>
@@ -3276,49 +3327,49 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45098.559293981481</v>
+        <v>45098.559305555558</v>
       </c>
       <c r="B54" s="1">
-        <v>8.2030329999999996</v>
+        <v>8.2194079999999996</v>
       </c>
       <c r="C54" s="1">
-        <v>8.6294330000000006</v>
+        <v>8.6384740000000004</v>
       </c>
       <c r="D54" s="1">
-        <v>67.721310000000003</v>
+        <v>67.682760000000002</v>
       </c>
       <c r="E54" s="1">
-        <v>98.560559999999995</v>
+        <v>98.526269999999997</v>
       </c>
       <c r="F54" s="1">
-        <v>4.5536260000000002E-2</v>
+        <v>4.5519009999999999E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>0.99984689999999998</v>
+        <v>0.9998475</v>
       </c>
       <c r="H54" s="1">
-        <v>6.4046099999999995E-2</v>
+        <v>6.4022889999999999E-2</v>
       </c>
       <c r="I54" s="1">
-        <v>0.2217122</v>
+        <v>0.21855140000000001</v>
       </c>
       <c r="J54" s="1">
-        <v>8.6224570000000007</v>
+        <v>8.6119819999999994</v>
       </c>
       <c r="K54" s="1">
-        <v>3.5305439999999999</v>
+        <v>3.5839099999999999</v>
       </c>
       <c r="L54" s="1">
-        <v>9.7865059999999993</v>
+        <v>9.9633719999999997</v>
       </c>
       <c r="M54" s="1">
-        <v>2.7981560000000001</v>
+        <v>2.8516750000000002</v>
       </c>
       <c r="N54" s="1">
-        <v>16.81418</v>
+        <v>16.81382</v>
       </c>
       <c r="O54" s="1">
-        <v>998.97709999999995</v>
+        <v>998.97810000000004</v>
       </c>
       <c r="P54" s="1">
         <v>46.910544209999998</v>
@@ -3330,103 +3381,103 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45098.559305555558</v>
+        <v>45098.559317129628</v>
       </c>
       <c r="B55" s="1">
-        <v>8.2194079999999996</v>
+        <v>7.9573390000000002</v>
       </c>
       <c r="C55" s="1">
-        <v>8.6384740000000004</v>
+        <v>8.8926850000000002</v>
       </c>
       <c r="D55" s="1">
-        <v>67.682760000000002</v>
+        <v>66.959329999999994</v>
       </c>
       <c r="E55" s="1">
-        <v>98.526269999999997</v>
+        <v>98.21284</v>
       </c>
       <c r="F55" s="1">
-        <v>4.5519009999999999E-2</v>
+        <v>4.5339249999999998E-2</v>
       </c>
       <c r="G55" s="1">
-        <v>0.9998475</v>
+        <v>0.99986540000000002</v>
       </c>
       <c r="H55" s="1">
-        <v>6.4022889999999999E-2</v>
+        <v>6.3836190000000001E-2</v>
       </c>
       <c r="I55" s="1">
-        <v>0.21855140000000001</v>
+        <v>0.24605569999999999</v>
       </c>
       <c r="J55" s="1">
-        <v>8.6119819999999994</v>
+        <v>8.4533310000000004</v>
       </c>
       <c r="K55" s="1">
-        <v>3.5839099999999999</v>
+        <v>4.8353770000000003</v>
       </c>
       <c r="L55" s="1">
-        <v>9.9633719999999997</v>
+        <v>11.888159999999999</v>
       </c>
       <c r="M55" s="1">
-        <v>2.8516750000000002</v>
+        <v>3.4370240000000001</v>
       </c>
       <c r="N55" s="1">
-        <v>16.81382</v>
+        <v>16.71237</v>
       </c>
       <c r="O55" s="1">
-        <v>998.97810000000004</v>
+        <v>998.9701</v>
       </c>
       <c r="P55" s="1">
-        <v>46.910544209999998</v>
+        <v>46.910538279999997</v>
       </c>
       <c r="Q55" s="1">
-        <v>-91.051766860000001</v>
+        <v>-91.051779210000007</v>
       </c>
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45098.559317129628</v>
+        <v>45098.559328703705</v>
       </c>
       <c r="B56" s="1">
-        <v>7.9573390000000002</v>
+        <v>7.9529569999999996</v>
       </c>
       <c r="C56" s="1">
-        <v>8.8926850000000002</v>
+        <v>8.9108219999999996</v>
       </c>
       <c r="D56" s="1">
-        <v>66.959329999999994</v>
+        <v>66.904570000000007</v>
       </c>
       <c r="E56" s="1">
-        <v>98.21284</v>
+        <v>98.180570000000003</v>
       </c>
       <c r="F56" s="1">
-        <v>4.5339249999999998E-2</v>
+        <v>4.532191E-2</v>
       </c>
       <c r="G56" s="1">
-        <v>0.99986540000000002</v>
+        <v>0.99986660000000005</v>
       </c>
       <c r="H56" s="1">
-        <v>6.3836190000000001E-2</v>
+        <v>6.3815739999999996E-2</v>
       </c>
       <c r="I56" s="1">
-        <v>0.24605569999999999</v>
+        <v>0.24573130000000001</v>
       </c>
       <c r="J56" s="1">
-        <v>8.4533310000000004</v>
+        <v>8.4410989999999995</v>
       </c>
       <c r="K56" s="1">
-        <v>4.8353770000000003</v>
+        <v>4.9197160000000002</v>
       </c>
       <c r="L56" s="1">
-        <v>11.888159999999999</v>
+        <v>12.053290000000001</v>
       </c>
       <c r="M56" s="1">
-        <v>3.4370240000000001</v>
+        <v>3.487101</v>
       </c>
       <c r="N56" s="1">
-        <v>16.71237</v>
+        <v>16.70692</v>
       </c>
       <c r="O56" s="1">
-        <v>998.9701</v>
+        <v>998.97029999999995</v>
       </c>
       <c r="P56" s="1">
         <v>46.910538279999997</v>
@@ -3438,49 +3489,49 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45098.559328703705</v>
+        <v>45098.559340277781</v>
       </c>
       <c r="B57" s="1">
-        <v>7.9529569999999996</v>
+        <v>7.9485749999999999</v>
       </c>
       <c r="C57" s="1">
-        <v>8.9108219999999996</v>
+        <v>8.9289590000000008</v>
       </c>
       <c r="D57" s="1">
-        <v>66.904570000000007</v>
+        <v>66.849819999999994</v>
       </c>
       <c r="E57" s="1">
-        <v>98.180570000000003</v>
+        <v>98.148309999999995</v>
       </c>
       <c r="F57" s="1">
-        <v>4.532191E-2</v>
+        <v>4.5304560000000001E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>0.99986660000000005</v>
+        <v>0.99986770000000003</v>
       </c>
       <c r="H57" s="1">
-        <v>6.3815739999999996E-2</v>
+        <v>6.3795299999999999E-2</v>
       </c>
       <c r="I57" s="1">
-        <v>0.24573130000000001</v>
+        <v>0.24540690000000001</v>
       </c>
       <c r="J57" s="1">
-        <v>8.4410989999999995</v>
+        <v>8.4288670000000003</v>
       </c>
       <c r="K57" s="1">
-        <v>4.9197160000000002</v>
+        <v>5.0040560000000003</v>
       </c>
       <c r="L57" s="1">
-        <v>12.053290000000001</v>
+        <v>12.21842</v>
       </c>
       <c r="M57" s="1">
-        <v>3.487101</v>
+        <v>3.5371790000000001</v>
       </c>
       <c r="N57" s="1">
-        <v>16.70692</v>
+        <v>16.70147</v>
       </c>
       <c r="O57" s="1">
-        <v>998.97029999999995</v>
+        <v>998.97040000000004</v>
       </c>
       <c r="P57" s="1">
         <v>46.910538279999997</v>
@@ -3492,49 +3543,49 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45098.559340277781</v>
+        <v>45098.559351851851</v>
       </c>
       <c r="B58" s="1">
-        <v>7.9485749999999999</v>
+        <v>7.6285819999999998</v>
       </c>
       <c r="C58" s="1">
-        <v>8.9289590000000008</v>
+        <v>8.9595859999999998</v>
       </c>
       <c r="D58" s="1">
-        <v>66.849819999999994</v>
+        <v>66.502200000000002</v>
       </c>
       <c r="E58" s="1">
-        <v>98.148309999999995</v>
+        <v>98.093800000000002</v>
       </c>
       <c r="F58" s="1">
-        <v>4.5304560000000001E-2</v>
+        <v>4.5259760000000003E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>0.99986770000000003</v>
+        <v>0.9998783</v>
       </c>
       <c r="H58" s="1">
-        <v>6.3795299999999999E-2</v>
+        <v>6.3760360000000002E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>0.24540690000000001</v>
+        <v>0.21953059999999999</v>
       </c>
       <c r="J58" s="1">
-        <v>8.4288670000000003</v>
+        <v>8.3139699999999994</v>
       </c>
       <c r="K58" s="1">
-        <v>5.0040560000000003</v>
+        <v>5.6719780000000002</v>
       </c>
       <c r="L58" s="1">
-        <v>12.21842</v>
+        <v>13.73146</v>
       </c>
       <c r="M58" s="1">
-        <v>3.5371790000000001</v>
+        <v>3.9983369999999998</v>
       </c>
       <c r="N58" s="1">
-        <v>16.70147</v>
+        <v>16.817350000000001</v>
       </c>
       <c r="O58" s="1">
-        <v>998.97040000000004</v>
+        <v>998.95270000000005</v>
       </c>
       <c r="P58" s="1">
         <v>46.910538279999997</v>
@@ -3546,49 +3597,49 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45098.559351851851</v>
+        <v>45098.559363425928</v>
       </c>
       <c r="B59" s="1">
-        <v>7.6285819999999998</v>
+        <v>7.6053810000000004</v>
       </c>
       <c r="C59" s="1">
-        <v>8.9595859999999998</v>
+        <v>8.9668449999999993</v>
       </c>
       <c r="D59" s="1">
-        <v>66.502200000000002</v>
+        <v>66.467290000000006</v>
       </c>
       <c r="E59" s="1">
-        <v>98.093800000000002</v>
+        <v>98.083889999999997</v>
       </c>
       <c r="F59" s="1">
-        <v>4.5259760000000003E-2</v>
+        <v>4.5253340000000003E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>0.9998783</v>
+        <v>0.99987919999999997</v>
       </c>
       <c r="H59" s="1">
-        <v>6.3760360000000002E-2</v>
+        <v>6.3754309999999995E-2</v>
       </c>
       <c r="I59" s="1">
-        <v>0.21953059999999999</v>
+        <v>0.21872900000000001</v>
       </c>
       <c r="J59" s="1">
-        <v>8.3139699999999994</v>
+        <v>8.3041900000000002</v>
       </c>
       <c r="K59" s="1">
-        <v>5.6719780000000002</v>
+        <v>5.7360749999999996</v>
       </c>
       <c r="L59" s="1">
-        <v>13.73146</v>
+        <v>13.8568</v>
       </c>
       <c r="M59" s="1">
-        <v>3.9983369999999998</v>
+        <v>4.036511</v>
       </c>
       <c r="N59" s="1">
-        <v>16.817350000000001</v>
+        <v>16.821429999999999</v>
       </c>
       <c r="O59" s="1">
-        <v>998.95270000000005</v>
+        <v>998.95150000000001</v>
       </c>
       <c r="P59" s="1">
         <v>46.910538279999997</v>
@@ -3600,103 +3651,103 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45098.559363425928</v>
+        <v>45098.559374999997</v>
       </c>
       <c r="B60" s="1">
-        <v>7.6053810000000004</v>
+        <v>7.5821810000000003</v>
       </c>
       <c r="C60" s="1">
-        <v>8.9668449999999993</v>
+        <v>8.9741040000000005</v>
       </c>
       <c r="D60" s="1">
-        <v>66.467290000000006</v>
+        <v>66.432370000000006</v>
       </c>
       <c r="E60" s="1">
-        <v>98.083889999999997</v>
+        <v>98.073970000000003</v>
       </c>
       <c r="F60" s="1">
-        <v>4.5253340000000003E-2</v>
+        <v>4.5246920000000003E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>0.99987919999999997</v>
+        <v>0.9998802</v>
       </c>
       <c r="H60" s="1">
-        <v>6.3754309999999995E-2</v>
+        <v>6.3748260000000001E-2</v>
       </c>
       <c r="I60" s="1">
-        <v>0.21872900000000001</v>
+        <v>0.21792739999999999</v>
       </c>
       <c r="J60" s="1">
-        <v>8.3041900000000002</v>
+        <v>8.2944099999999992</v>
       </c>
       <c r="K60" s="1">
-        <v>5.7360749999999996</v>
+        <v>5.8001719999999999</v>
       </c>
       <c r="L60" s="1">
-        <v>13.8568</v>
+        <v>13.982150000000001</v>
       </c>
       <c r="M60" s="1">
-        <v>4.036511</v>
+        <v>4.0746869999999999</v>
       </c>
       <c r="N60" s="1">
-        <v>16.821429999999999</v>
+        <v>16.825500000000002</v>
       </c>
       <c r="O60" s="1">
-        <v>998.95150000000001</v>
+        <v>998.95039999999995</v>
       </c>
       <c r="P60" s="1">
-        <v>46.910538279999997</v>
+        <v>46.91052775</v>
       </c>
       <c r="Q60" s="1">
-        <v>-91.051779210000007</v>
+        <v>-91.051781849999998</v>
       </c>
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45098.559374999997</v>
+        <v>45098.559386574074</v>
       </c>
       <c r="B61" s="1">
-        <v>7.5821810000000003</v>
+        <v>7.7869210000000004</v>
       </c>
       <c r="C61" s="1">
-        <v>8.9741040000000005</v>
+        <v>9.1332240000000002</v>
       </c>
       <c r="D61" s="1">
-        <v>66.432370000000006</v>
+        <v>66.091340000000002</v>
       </c>
       <c r="E61" s="1">
-        <v>98.073970000000003</v>
+        <v>97.898690000000002</v>
       </c>
       <c r="F61" s="1">
-        <v>4.5246920000000003E-2</v>
+        <v>4.5149410000000001E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>0.9998802</v>
+        <v>0.99988739999999998</v>
       </c>
       <c r="H61" s="1">
-        <v>6.3748260000000001E-2</v>
+        <v>6.3659430000000003E-2</v>
       </c>
       <c r="I61" s="1">
-        <v>0.21792739999999999</v>
+        <v>0.40158929999999998</v>
       </c>
       <c r="J61" s="1">
-        <v>8.2944099999999992</v>
+        <v>8.0126449999999991</v>
       </c>
       <c r="K61" s="1">
-        <v>5.8001719999999999</v>
+        <v>6.4734319999999999</v>
       </c>
       <c r="L61" s="1">
-        <v>13.982150000000001</v>
+        <v>15.545949999999999</v>
       </c>
       <c r="M61" s="1">
-        <v>4.0746869999999999</v>
+        <v>5.1088680000000002</v>
       </c>
       <c r="N61" s="1">
-        <v>16.825500000000002</v>
+        <v>16.82816</v>
       </c>
       <c r="O61" s="1">
-        <v>998.95039999999995</v>
+        <v>998.99360000000001</v>
       </c>
       <c r="P61" s="1">
         <v>46.91052775</v>
@@ -3708,49 +3759,49 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45098.559386574074</v>
+        <v>45098.559398148151</v>
       </c>
       <c r="B62" s="1">
-        <v>7.7869210000000004</v>
+        <v>7.7908650000000002</v>
       </c>
       <c r="C62" s="1">
-        <v>9.1332240000000002</v>
+        <v>9.1426510000000007</v>
       </c>
       <c r="D62" s="1">
-        <v>66.091340000000002</v>
+        <v>66.064670000000007</v>
       </c>
       <c r="E62" s="1">
-        <v>97.898690000000002</v>
+        <v>97.887730000000005</v>
       </c>
       <c r="F62" s="1">
-        <v>4.5149410000000001E-2</v>
+        <v>4.5142990000000001E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.99988739999999998</v>
+        <v>0.999888</v>
       </c>
       <c r="H62" s="1">
-        <v>6.3659430000000003E-2</v>
+        <v>6.3653680000000004E-2</v>
       </c>
       <c r="I62" s="1">
-        <v>0.40158929999999998</v>
+        <v>0.41097410000000001</v>
       </c>
       <c r="J62" s="1">
-        <v>8.0126449999999991</v>
+        <v>7.994669</v>
       </c>
       <c r="K62" s="1">
-        <v>6.4734319999999999</v>
+        <v>6.5255000000000001</v>
       </c>
       <c r="L62" s="1">
-        <v>15.545949999999999</v>
+        <v>15.666069999999999</v>
       </c>
       <c r="M62" s="1">
-        <v>5.1088680000000002</v>
+        <v>5.175783</v>
       </c>
       <c r="N62" s="1">
-        <v>16.82816</v>
+        <v>16.830909999999999</v>
       </c>
       <c r="O62" s="1">
-        <v>998.99360000000001</v>
+        <v>998.99549999999999</v>
       </c>
       <c r="P62" s="1">
         <v>46.91052775</v>
@@ -3762,103 +3813,103 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45098.559398148151</v>
+        <v>45098.55940972222</v>
       </c>
       <c r="B63" s="1">
-        <v>7.7908650000000002</v>
+        <v>7.79481</v>
       </c>
       <c r="C63" s="1">
-        <v>9.1426510000000007</v>
+        <v>9.1520790000000005</v>
       </c>
       <c r="D63" s="1">
-        <v>66.064670000000007</v>
+        <v>66.037989999999994</v>
       </c>
       <c r="E63" s="1">
-        <v>97.887730000000005</v>
+        <v>97.876760000000004</v>
       </c>
       <c r="F63" s="1">
-        <v>4.5142990000000001E-2</v>
+        <v>4.5136570000000001E-2</v>
       </c>
       <c r="G63" s="1">
-        <v>0.999888</v>
+        <v>0.99988869999999996</v>
       </c>
       <c r="H63" s="1">
-        <v>6.3653680000000004E-2</v>
+        <v>6.3647930000000005E-2</v>
       </c>
       <c r="I63" s="1">
-        <v>0.41097410000000001</v>
+        <v>0.42035889999999998</v>
       </c>
       <c r="J63" s="1">
-        <v>7.994669</v>
+        <v>7.9766940000000002</v>
       </c>
       <c r="K63" s="1">
-        <v>6.5255000000000001</v>
+        <v>6.5775690000000004</v>
       </c>
       <c r="L63" s="1">
-        <v>15.666069999999999</v>
+        <v>15.786199999999999</v>
       </c>
       <c r="M63" s="1">
-        <v>5.175783</v>
+        <v>5.242699</v>
       </c>
       <c r="N63" s="1">
-        <v>16.830909999999999</v>
+        <v>16.833659999999998</v>
       </c>
       <c r="O63" s="1">
-        <v>998.99549999999999</v>
+        <v>998.99749999999995</v>
       </c>
       <c r="P63" s="1">
-        <v>46.91052775</v>
+        <v>46.910517859999999</v>
       </c>
       <c r="Q63" s="1">
-        <v>-91.051781849999998</v>
+        <v>-91.051788340000002</v>
       </c>
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45098.55940972222</v>
+        <v>45098.559421296297</v>
       </c>
       <c r="B64" s="1">
-        <v>7.79481</v>
+        <v>7.6795859999999996</v>
       </c>
       <c r="C64" s="1">
-        <v>9.1520790000000005</v>
+        <v>9.4939440000000008</v>
       </c>
       <c r="D64" s="1">
-        <v>66.037989999999994</v>
+        <v>65.80489</v>
       </c>
       <c r="E64" s="1">
-        <v>97.876760000000004</v>
+        <v>97.733500000000006</v>
       </c>
       <c r="F64" s="1">
-        <v>4.5136570000000001E-2</v>
+        <v>4.5033419999999998E-2</v>
       </c>
       <c r="G64" s="1">
-        <v>0.99988869999999996</v>
+        <v>0.9999055</v>
       </c>
       <c r="H64" s="1">
-        <v>6.3647930000000005E-2</v>
+        <v>6.3529799999999997E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>0.42035889999999998</v>
+        <v>0.37689020000000001</v>
       </c>
       <c r="J64" s="1">
-        <v>7.9766940000000002</v>
+        <v>7.8358359999999996</v>
       </c>
       <c r="K64" s="1">
-        <v>6.5775690000000004</v>
+        <v>8.5294299999999996</v>
       </c>
       <c r="L64" s="1">
-        <v>15.786199999999999</v>
+        <v>20.29871</v>
       </c>
       <c r="M64" s="1">
-        <v>5.242699</v>
+        <v>6.0633939999999997</v>
       </c>
       <c r="N64" s="1">
-        <v>16.833659999999998</v>
+        <v>16.706029999999998</v>
       </c>
       <c r="O64" s="1">
-        <v>998.99749999999995</v>
+        <v>998.90279999999996</v>
       </c>
       <c r="P64" s="1">
         <v>46.910517859999999</v>
@@ -3870,49 +3921,49 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45098.559421296297</v>
+        <v>45098.559432870374</v>
       </c>
       <c r="B65" s="1">
-        <v>7.6795859999999996</v>
+        <v>7.6777600000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>9.4939440000000008</v>
+        <v>9.5161630000000006</v>
       </c>
       <c r="D65" s="1">
-        <v>65.80489</v>
+        <v>65.784189999999995</v>
       </c>
       <c r="E65" s="1">
-        <v>97.733500000000006</v>
+        <v>97.72166</v>
       </c>
       <c r="F65" s="1">
-        <v>4.5033419999999998E-2</v>
+        <v>4.5025559999999999E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>0.9999055</v>
+        <v>0.99990659999999998</v>
       </c>
       <c r="H65" s="1">
-        <v>6.3529799999999997E-2</v>
+        <v>6.3521320000000006E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>0.37689020000000001</v>
+        <v>0.37868429999999997</v>
       </c>
       <c r="J65" s="1">
-        <v>7.8358359999999996</v>
+        <v>7.8217270000000001</v>
       </c>
       <c r="K65" s="1">
-        <v>8.5294299999999996</v>
+        <v>8.6511429999999994</v>
       </c>
       <c r="L65" s="1">
-        <v>20.29871</v>
+        <v>20.580020000000001</v>
       </c>
       <c r="M65" s="1">
-        <v>6.0633939999999997</v>
+        <v>6.1316689999999996</v>
       </c>
       <c r="N65" s="1">
-        <v>16.706029999999998</v>
+        <v>16.699200000000001</v>
       </c>
       <c r="O65" s="1">
-        <v>998.90279999999996</v>
+        <v>998.89859999999999</v>
       </c>
       <c r="P65" s="1">
         <v>46.910517859999999</v>
@@ -3924,103 +3975,103 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45098.559432870374</v>
+        <v>45098.559444444443</v>
       </c>
       <c r="B66" s="1">
-        <v>7.6777600000000001</v>
+        <v>7.6759339999999998</v>
       </c>
       <c r="C66" s="1">
-        <v>9.5161630000000006</v>
+        <v>9.5383809999999993</v>
       </c>
       <c r="D66" s="1">
-        <v>65.784189999999995</v>
+        <v>65.763499999999993</v>
       </c>
       <c r="E66" s="1">
-        <v>97.72166</v>
+        <v>97.709819999999993</v>
       </c>
       <c r="F66" s="1">
-        <v>4.5025559999999999E-2</v>
+        <v>4.5017689999999999E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>0.99990659999999998</v>
+        <v>0.99990769999999995</v>
       </c>
       <c r="H66" s="1">
-        <v>6.3521320000000006E-2</v>
+        <v>6.3512840000000001E-2</v>
       </c>
       <c r="I66" s="1">
-        <v>0.37868429999999997</v>
+        <v>0.38047819999999999</v>
       </c>
       <c r="J66" s="1">
-        <v>7.8217270000000001</v>
+        <v>7.8076189999999999</v>
       </c>
       <c r="K66" s="1">
-        <v>8.6511429999999994</v>
+        <v>8.7728560000000009</v>
       </c>
       <c r="L66" s="1">
-        <v>20.580020000000001</v>
+        <v>20.861329999999999</v>
       </c>
       <c r="M66" s="1">
-        <v>6.1316689999999996</v>
+        <v>6.1999440000000003</v>
       </c>
       <c r="N66" s="1">
-        <v>16.699200000000001</v>
+        <v>16.69237</v>
       </c>
       <c r="O66" s="1">
-        <v>998.89859999999999</v>
+        <v>998.89440000000002</v>
       </c>
       <c r="P66" s="1">
-        <v>46.910517859999999</v>
+        <v>46.910509910000002</v>
       </c>
       <c r="Q66" s="1">
-        <v>-91.051788340000002</v>
+        <v>-91.051795499999997</v>
       </c>
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45098.559444444443</v>
+        <v>45098.55945601852</v>
       </c>
       <c r="B67" s="1">
-        <v>7.6759339999999998</v>
+        <v>7.7342269999999997</v>
       </c>
       <c r="C67" s="1">
-        <v>9.5383809999999993</v>
+        <v>9.6036429999999999</v>
       </c>
       <c r="D67" s="1">
-        <v>65.763499999999993</v>
+        <v>64.510149999999996</v>
       </c>
       <c r="E67" s="1">
-        <v>97.709819999999993</v>
+        <v>97.047200000000004</v>
       </c>
       <c r="F67" s="1">
-        <v>4.5017689999999999E-2</v>
+        <v>4.467459E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>0.99990769999999995</v>
+        <v>0.99991909999999995</v>
       </c>
       <c r="H67" s="1">
-        <v>6.3512840000000001E-2</v>
+        <v>6.3081470000000001E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>0.38047819999999999</v>
+        <v>0.52024780000000004</v>
       </c>
       <c r="J67" s="1">
-        <v>7.8076189999999999</v>
+        <v>7.6554820000000001</v>
       </c>
       <c r="K67" s="1">
-        <v>8.7728560000000009</v>
+        <v>9.3924129999999995</v>
       </c>
       <c r="L67" s="1">
-        <v>20.861329999999999</v>
+        <v>22.286069999999999</v>
       </c>
       <c r="M67" s="1">
-        <v>6.1999440000000003</v>
+        <v>6.620933</v>
       </c>
       <c r="N67" s="1">
-        <v>16.69237</v>
+        <v>16.785779999999999</v>
       </c>
       <c r="O67" s="1">
-        <v>998.89440000000002</v>
+        <v>998.97090000000003</v>
       </c>
       <c r="P67" s="1">
         <v>46.910509910000002</v>
@@ -4032,49 +4083,49 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45098.55945601852</v>
+        <v>45098.559467592589</v>
       </c>
       <c r="B68" s="1">
-        <v>7.7342269999999997</v>
+        <v>7.7347869999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>9.6036429999999999</v>
+        <v>9.6150059999999993</v>
       </c>
       <c r="D68" s="1">
-        <v>64.510149999999996</v>
+        <v>64.436710000000005</v>
       </c>
       <c r="E68" s="1">
-        <v>97.047200000000004</v>
+        <v>97.007959999999997</v>
       </c>
       <c r="F68" s="1">
-        <v>4.467459E-2</v>
+        <v>4.4653610000000003E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>0.99991909999999995</v>
+        <v>0.99992009999999998</v>
       </c>
       <c r="H68" s="1">
-        <v>6.3081470000000001E-2</v>
+        <v>6.3055369999999999E-2</v>
       </c>
       <c r="I68" s="1">
-        <v>0.52024780000000004</v>
+        <v>0.52692240000000001</v>
       </c>
       <c r="J68" s="1">
-        <v>7.6554820000000001</v>
+        <v>7.6438709999999999</v>
       </c>
       <c r="K68" s="1">
-        <v>9.3924129999999995</v>
+        <v>9.4706949999999992</v>
       </c>
       <c r="L68" s="1">
-        <v>22.286069999999999</v>
+        <v>22.466629999999999</v>
       </c>
       <c r="M68" s="1">
-        <v>6.620933</v>
+        <v>6.6629899999999997</v>
       </c>
       <c r="N68" s="1">
-        <v>16.785779999999999</v>
+        <v>16.787990000000001</v>
       </c>
       <c r="O68" s="1">
-        <v>998.97090000000003</v>
+        <v>998.97299999999996</v>
       </c>
       <c r="P68" s="1">
         <v>46.910509910000002</v>
@@ -4086,49 +4137,49 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45098.559467592589</v>
+        <v>45098.559479166666</v>
       </c>
       <c r="B69" s="1">
-        <v>7.7347869999999999</v>
+        <v>7.7353449999999997</v>
       </c>
       <c r="C69" s="1">
-        <v>9.6150059999999993</v>
+        <v>9.6263690000000004</v>
       </c>
       <c r="D69" s="1">
-        <v>64.436710000000005</v>
+        <v>64.363249999999994</v>
       </c>
       <c r="E69" s="1">
-        <v>97.007959999999997</v>
+        <v>96.968710000000002</v>
       </c>
       <c r="F69" s="1">
-        <v>4.4653610000000003E-2</v>
+        <v>4.463263E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>0.99992009999999998</v>
+        <v>0.99992110000000001</v>
       </c>
       <c r="H69" s="1">
-        <v>6.3055369999999999E-2</v>
+        <v>6.3029279999999993E-2</v>
       </c>
       <c r="I69" s="1">
-        <v>0.52692240000000001</v>
+        <v>0.53359710000000005</v>
       </c>
       <c r="J69" s="1">
-        <v>7.6438709999999999</v>
+        <v>7.6322599999999996</v>
       </c>
       <c r="K69" s="1">
-        <v>9.4706949999999992</v>
+        <v>9.548978</v>
       </c>
       <c r="L69" s="1">
-        <v>22.466629999999999</v>
+        <v>22.647200000000002</v>
       </c>
       <c r="M69" s="1">
-        <v>6.6629899999999997</v>
+        <v>6.7050479999999997</v>
       </c>
       <c r="N69" s="1">
-        <v>16.787990000000001</v>
+        <v>16.790199999999999</v>
       </c>
       <c r="O69" s="1">
-        <v>998.97299999999996</v>
+        <v>998.97500000000002</v>
       </c>
       <c r="P69" s="1">
         <v>46.910509910000002</v>
@@ -4140,49 +4191,49 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45098.559479166666</v>
+        <v>45098.559490740743</v>
       </c>
       <c r="B70" s="1">
-        <v>7.7353449999999997</v>
+        <v>7.9213430000000002</v>
       </c>
       <c r="C70" s="1">
-        <v>9.6263690000000004</v>
+        <v>10.195930000000001</v>
       </c>
       <c r="D70" s="1">
-        <v>64.363249999999994</v>
+        <v>64.188760000000002</v>
       </c>
       <c r="E70" s="1">
-        <v>96.968710000000002</v>
+        <v>97.265450000000001</v>
       </c>
       <c r="F70" s="1">
-        <v>4.463263E-2</v>
+        <v>4.4749810000000001E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.99992110000000001</v>
+        <v>0.99993100000000001</v>
       </c>
       <c r="H70" s="1">
-        <v>6.3029279999999993E-2</v>
+        <v>6.3222550000000002E-2</v>
       </c>
       <c r="I70" s="1">
-        <v>0.53359710000000005</v>
+        <v>0.53452449999999996</v>
       </c>
       <c r="J70" s="1">
-        <v>7.6322599999999996</v>
+        <v>7.2179929999999999</v>
       </c>
       <c r="K70" s="1">
-        <v>9.548978</v>
+        <v>10.766730000000001</v>
       </c>
       <c r="L70" s="1">
-        <v>22.647200000000002</v>
+        <v>25.456710000000001</v>
       </c>
       <c r="M70" s="1">
-        <v>6.7050479999999997</v>
+        <v>7.5697619999999999</v>
       </c>
       <c r="N70" s="1">
-        <v>16.790199999999999</v>
+        <v>16.777439999999999</v>
       </c>
       <c r="O70" s="1">
-        <v>998.97500000000002</v>
+        <v>998.99490000000003</v>
       </c>
       <c r="P70" s="1">
         <v>46.910509910000002</v>
@@ -4194,103 +4245,103 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45098.559490740743</v>
+        <v>45098.559502314813</v>
       </c>
       <c r="B71" s="1">
-        <v>7.9213430000000002</v>
+        <v>7.932817</v>
       </c>
       <c r="C71" s="1">
-        <v>10.195930000000001</v>
+        <v>10.228770000000001</v>
       </c>
       <c r="D71" s="1">
-        <v>64.188760000000002</v>
+        <v>64.150670000000005</v>
       </c>
       <c r="E71" s="1">
-        <v>97.265450000000001</v>
+        <v>97.266559999999998</v>
       </c>
       <c r="F71" s="1">
-        <v>4.4749810000000001E-2</v>
+        <v>4.4748370000000003E-2</v>
       </c>
       <c r="G71" s="1">
-        <v>0.99993100000000001</v>
+        <v>0.99993180000000004</v>
       </c>
       <c r="H71" s="1">
-        <v>6.3222550000000002E-2</v>
+        <v>6.3223269999999998E-2</v>
       </c>
       <c r="I71" s="1">
-        <v>0.53452449999999996</v>
+        <v>0.53776630000000003</v>
       </c>
       <c r="J71" s="1">
-        <v>7.2179929999999999</v>
+        <v>7.1917530000000003</v>
       </c>
       <c r="K71" s="1">
-        <v>10.766730000000001</v>
+        <v>10.84859</v>
       </c>
       <c r="L71" s="1">
-        <v>25.456710000000001</v>
+        <v>25.645489999999999</v>
       </c>
       <c r="M71" s="1">
-        <v>7.5697619999999999</v>
+        <v>7.6273210000000002</v>
       </c>
       <c r="N71" s="1">
-        <v>16.777439999999999</v>
+        <v>16.778780000000001</v>
       </c>
       <c r="O71" s="1">
-        <v>998.99490000000003</v>
+        <v>998.99760000000003</v>
       </c>
       <c r="P71" s="1">
-        <v>46.910509910000002</v>
+        <v>46.91050053</v>
       </c>
       <c r="Q71" s="1">
-        <v>-91.051795499999997</v>
+        <v>-91.051795709999993</v>
       </c>
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45098.559502314813</v>
+        <v>45098.559513888889</v>
       </c>
       <c r="B72" s="1">
-        <v>7.932817</v>
+        <v>7.944293</v>
       </c>
       <c r="C72" s="1">
-        <v>10.228770000000001</v>
+        <v>10.261609999999999</v>
       </c>
       <c r="D72" s="1">
-        <v>64.150670000000005</v>
+        <v>64.112589999999997</v>
       </c>
       <c r="E72" s="1">
-        <v>97.266559999999998</v>
+        <v>97.267650000000003</v>
       </c>
       <c r="F72" s="1">
-        <v>4.4748370000000003E-2</v>
+        <v>4.4746929999999997E-2</v>
       </c>
       <c r="G72" s="1">
-        <v>0.99993180000000004</v>
+        <v>0.99993259999999995</v>
       </c>
       <c r="H72" s="1">
-        <v>6.3223269999999998E-2</v>
+        <v>6.3223979999999999E-2</v>
       </c>
       <c r="I72" s="1">
-        <v>0.53776630000000003</v>
+        <v>0.54100820000000005</v>
       </c>
       <c r="J72" s="1">
-        <v>7.1917530000000003</v>
+        <v>7.1655129999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>10.84859</v>
+        <v>10.93046</v>
       </c>
       <c r="L72" s="1">
-        <v>25.645489999999999</v>
+        <v>25.83427</v>
       </c>
       <c r="M72" s="1">
-        <v>7.6273210000000002</v>
+        <v>7.6848799999999997</v>
       </c>
       <c r="N72" s="1">
-        <v>16.778780000000001</v>
+        <v>16.78012</v>
       </c>
       <c r="O72" s="1">
-        <v>998.99760000000003</v>
+        <v>999.00040000000001</v>
       </c>
       <c r="P72" s="1">
         <v>46.91050053</v>
@@ -4302,103 +4353,103 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45098.559513888889</v>
+        <v>45098.559525462966</v>
       </c>
       <c r="B73" s="1">
-        <v>7.944293</v>
+        <v>7.7724469999999997</v>
       </c>
       <c r="C73" s="1">
-        <v>10.261609999999999</v>
+        <v>10.15469</v>
       </c>
       <c r="D73" s="1">
-        <v>64.112589999999997</v>
+        <v>63.96931</v>
       </c>
       <c r="E73" s="1">
-        <v>97.267650000000003</v>
+        <v>97.498810000000006</v>
       </c>
       <c r="F73" s="1">
-        <v>4.4746929999999997E-2</v>
+        <v>4.4823540000000002E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>0.99993259999999995</v>
+        <v>0.99994640000000001</v>
       </c>
       <c r="H73" s="1">
-        <v>6.3223979999999999E-2</v>
+        <v>6.3381870000000007E-2</v>
       </c>
       <c r="I73" s="1">
-        <v>0.54100820000000005</v>
+        <v>0.43218699999999999</v>
       </c>
       <c r="J73" s="1">
-        <v>7.1655129999999998</v>
+        <v>7.0008800000000004</v>
       </c>
       <c r="K73" s="1">
-        <v>10.93046</v>
+        <v>12.2117</v>
       </c>
       <c r="L73" s="1">
-        <v>25.83427</v>
+        <v>28.78978</v>
       </c>
       <c r="M73" s="1">
-        <v>7.6848799999999997</v>
+        <v>8.5856820000000003</v>
       </c>
       <c r="N73" s="1">
-        <v>16.78012</v>
+        <v>16.698619999999998</v>
       </c>
       <c r="O73" s="1">
-        <v>999.00040000000001</v>
+        <v>998.93780000000004</v>
       </c>
       <c r="P73" s="1">
-        <v>46.91050053</v>
+        <v>46.910490950000003</v>
       </c>
       <c r="Q73" s="1">
-        <v>-91.051795709999993</v>
+        <v>-91.05179871</v>
       </c>
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45098.559525462966</v>
+        <v>45098.559537037036</v>
       </c>
       <c r="B74" s="1">
-        <v>7.7724469999999997</v>
+        <v>7.7674630000000002</v>
       </c>
       <c r="C74" s="1">
-        <v>10.15469</v>
+        <v>10.16225</v>
       </c>
       <c r="D74" s="1">
-        <v>63.96931</v>
+        <v>63.956620000000001</v>
       </c>
       <c r="E74" s="1">
-        <v>97.498810000000006</v>
+        <v>97.517679999999999</v>
       </c>
       <c r="F74" s="1">
-        <v>4.4823540000000002E-2</v>
+        <v>4.4830130000000003E-2</v>
       </c>
       <c r="G74" s="1">
-        <v>0.99994640000000001</v>
+        <v>0.99994740000000004</v>
       </c>
       <c r="H74" s="1">
-        <v>6.3381870000000007E-2</v>
+        <v>6.3394549999999994E-2</v>
       </c>
       <c r="I74" s="1">
-        <v>0.43218699999999999</v>
+        <v>0.42640489999999998</v>
       </c>
       <c r="J74" s="1">
-        <v>7.0008800000000004</v>
+        <v>6.9822430000000004</v>
       </c>
       <c r="K74" s="1">
-        <v>12.2117</v>
+        <v>12.310219999999999</v>
       </c>
       <c r="L74" s="1">
-        <v>28.78978</v>
+        <v>29.017060000000001</v>
       </c>
       <c r="M74" s="1">
-        <v>8.5856820000000003</v>
+        <v>8.6549490000000002</v>
       </c>
       <c r="N74" s="1">
-        <v>16.698619999999998</v>
+        <v>16.693940000000001</v>
       </c>
       <c r="O74" s="1">
-        <v>998.93780000000004</v>
+        <v>998.93489999999997</v>
       </c>
       <c r="P74" s="1">
         <v>46.910490950000003</v>
@@ -4410,103 +4461,103 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45098.559537037036</v>
+        <v>45098.559548611112</v>
       </c>
       <c r="B75" s="1">
-        <v>7.7674630000000002</v>
+        <v>7.7624789999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>10.16225</v>
+        <v>10.16982</v>
       </c>
       <c r="D75" s="1">
-        <v>63.956620000000001</v>
+        <v>63.943939999999998</v>
       </c>
       <c r="E75" s="1">
-        <v>97.517679999999999</v>
+        <v>97.536559999999994</v>
       </c>
       <c r="F75" s="1">
-        <v>4.4830130000000003E-2</v>
+        <v>4.4836719999999997E-2</v>
       </c>
       <c r="G75" s="1">
-        <v>0.99994740000000004</v>
+        <v>0.99994839999999996</v>
       </c>
       <c r="H75" s="1">
-        <v>6.3394549999999994E-2</v>
+        <v>6.3407229999999995E-2</v>
       </c>
       <c r="I75" s="1">
-        <v>0.42640489999999998</v>
+        <v>0.42062280000000002</v>
       </c>
       <c r="J75" s="1">
-        <v>6.9822430000000004</v>
+        <v>6.9636060000000004</v>
       </c>
       <c r="K75" s="1">
-        <v>12.310219999999999</v>
+        <v>12.40874</v>
       </c>
       <c r="L75" s="1">
-        <v>29.017060000000001</v>
+        <v>29.244330000000001</v>
       </c>
       <c r="M75" s="1">
-        <v>8.6549490000000002</v>
+        <v>8.7242160000000002</v>
       </c>
       <c r="N75" s="1">
-        <v>16.693940000000001</v>
+        <v>16.689260000000001</v>
       </c>
       <c r="O75" s="1">
-        <v>998.93489999999997</v>
+        <v>998.93200000000002</v>
       </c>
       <c r="P75" s="1">
-        <v>46.910490950000003</v>
+        <v>46.910482199999997</v>
       </c>
       <c r="Q75" s="1">
-        <v>-91.05179871</v>
+        <v>-91.051802440000003</v>
       </c>
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45098.559548611112</v>
+        <v>45098.559560185182</v>
       </c>
       <c r="B76" s="1">
-        <v>7.7624789999999999</v>
+        <v>8.3169570000000004</v>
       </c>
       <c r="C76" s="1">
-        <v>10.16982</v>
+        <v>10.310420000000001</v>
       </c>
       <c r="D76" s="1">
-        <v>63.943939999999998</v>
+        <v>63.38588</v>
       </c>
       <c r="E76" s="1">
-        <v>97.536559999999994</v>
+        <v>97.461129999999997</v>
       </c>
       <c r="F76" s="1">
-        <v>4.4836719999999997E-2</v>
+        <v>4.4776879999999998E-2</v>
       </c>
       <c r="G76" s="1">
-        <v>0.99994839999999996</v>
+        <v>0.99995400000000001</v>
       </c>
       <c r="H76" s="1">
-        <v>6.3407229999999995E-2</v>
+        <v>6.3350569999999995E-2</v>
       </c>
       <c r="I76" s="1">
-        <v>0.42062280000000002</v>
+        <v>0.5873216</v>
       </c>
       <c r="J76" s="1">
-        <v>6.9636060000000004</v>
+        <v>6.832757</v>
       </c>
       <c r="K76" s="1">
-        <v>12.40874</v>
+        <v>13.347619999999999</v>
       </c>
       <c r="L76" s="1">
-        <v>29.244330000000001</v>
+        <v>31.415030000000002</v>
       </c>
       <c r="M76" s="1">
-        <v>8.7242160000000002</v>
+        <v>9.3843110000000003</v>
       </c>
       <c r="N76" s="1">
-        <v>16.689260000000001</v>
+        <v>16.816790000000001</v>
       </c>
       <c r="O76" s="1">
-        <v>998.93200000000002</v>
+        <v>998.98410000000001</v>
       </c>
       <c r="P76" s="1">
         <v>46.910482199999997</v>
@@ -4518,49 +4569,49 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45098.559560185182</v>
+        <v>45098.559571759259</v>
       </c>
       <c r="B77" s="1">
-        <v>8.3169570000000004</v>
+        <v>8.3432250000000003</v>
       </c>
       <c r="C77" s="1">
-        <v>10.310420000000001</v>
+        <v>10.31617</v>
       </c>
       <c r="D77" s="1">
-        <v>63.38588</v>
+        <v>63.351779999999998</v>
       </c>
       <c r="E77" s="1">
-        <v>97.461129999999997</v>
+        <v>97.462360000000004</v>
       </c>
       <c r="F77" s="1">
-        <v>4.4776879999999998E-2</v>
+        <v>4.4775379999999997E-2</v>
       </c>
       <c r="G77" s="1">
-        <v>0.99995400000000001</v>
+        <v>0.99995460000000003</v>
       </c>
       <c r="H77" s="1">
-        <v>6.3350569999999995E-2</v>
+        <v>6.335114E-2</v>
       </c>
       <c r="I77" s="1">
-        <v>0.5873216</v>
+        <v>0.59390750000000003</v>
       </c>
       <c r="J77" s="1">
-        <v>6.832757</v>
+        <v>6.8214560000000004</v>
       </c>
       <c r="K77" s="1">
-        <v>13.347619999999999</v>
+        <v>13.4291</v>
       </c>
       <c r="L77" s="1">
-        <v>31.415030000000002</v>
+        <v>31.603249999999999</v>
       </c>
       <c r="M77" s="1">
-        <v>9.3843110000000003</v>
+        <v>9.4415960000000005</v>
       </c>
       <c r="N77" s="1">
-        <v>16.816790000000001</v>
+        <v>16.821850000000001</v>
       </c>
       <c r="O77" s="1">
-        <v>998.98410000000001</v>
+        <v>998.98559999999998</v>
       </c>
       <c r="P77" s="1">
         <v>46.910482199999997</v>
@@ -4572,49 +4623,49 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45098.559571759259</v>
+        <v>45098.559583333335</v>
       </c>
       <c r="B78" s="1">
-        <v>8.3432250000000003</v>
+        <v>8.3694939999999995</v>
       </c>
       <c r="C78" s="1">
-        <v>10.31617</v>
+        <v>10.32192</v>
       </c>
       <c r="D78" s="1">
-        <v>63.351779999999998</v>
+        <v>63.317680000000003</v>
       </c>
       <c r="E78" s="1">
-        <v>97.462360000000004</v>
+        <v>97.4636</v>
       </c>
       <c r="F78" s="1">
-        <v>4.4775379999999997E-2</v>
+        <v>4.477387E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>0.99995460000000003</v>
+        <v>0.99995520000000004</v>
       </c>
       <c r="H78" s="1">
-        <v>6.335114E-2</v>
+        <v>6.3351710000000006E-2</v>
       </c>
       <c r="I78" s="1">
-        <v>0.59390750000000003</v>
+        <v>0.60049339999999995</v>
       </c>
       <c r="J78" s="1">
-        <v>6.8214560000000004</v>
+        <v>6.810155</v>
       </c>
       <c r="K78" s="1">
-        <v>13.4291</v>
+        <v>13.510579999999999</v>
       </c>
       <c r="L78" s="1">
-        <v>31.603249999999999</v>
+        <v>31.79147</v>
       </c>
       <c r="M78" s="1">
-        <v>9.4415960000000005</v>
+        <v>9.4988810000000008</v>
       </c>
       <c r="N78" s="1">
-        <v>16.821850000000001</v>
+        <v>16.826910000000002</v>
       </c>
       <c r="O78" s="1">
-        <v>998.98559999999998</v>
+        <v>998.98699999999997</v>
       </c>
       <c r="P78" s="1">
         <v>46.910482199999997</v>
@@ -4626,103 +4677,103 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45098.559583333335</v>
+        <v>45098.559594907405</v>
       </c>
       <c r="B79" s="1">
-        <v>8.3694939999999995</v>
+        <v>8.2465569999999992</v>
       </c>
       <c r="C79" s="1">
-        <v>10.32192</v>
+        <v>10.34779</v>
       </c>
       <c r="D79" s="1">
-        <v>63.317680000000003</v>
+        <v>62.961069999999999</v>
       </c>
       <c r="E79" s="1">
-        <v>97.4636</v>
+        <v>97.365359999999995</v>
       </c>
       <c r="F79" s="1">
-        <v>4.477387E-2</v>
+        <v>4.4705750000000002E-2</v>
       </c>
       <c r="G79" s="1">
-        <v>0.99995520000000004</v>
+        <v>0.9999614</v>
       </c>
       <c r="H79" s="1">
-        <v>6.3351710000000006E-2</v>
+        <v>6.3287679999999999E-2</v>
       </c>
       <c r="I79" s="1">
-        <v>0.60049339999999995</v>
+        <v>0.53782209999999997</v>
       </c>
       <c r="J79" s="1">
-        <v>6.810155</v>
+        <v>6.5155240000000001</v>
       </c>
       <c r="K79" s="1">
-        <v>13.510579999999999</v>
+        <v>14.12776</v>
       </c>
       <c r="L79" s="1">
-        <v>31.79147</v>
+        <v>33.212119999999999</v>
       </c>
       <c r="M79" s="1">
-        <v>9.4988810000000008</v>
+        <v>9.9328040000000009</v>
       </c>
       <c r="N79" s="1">
-        <v>16.826910000000002</v>
+        <v>16.82874</v>
       </c>
       <c r="O79" s="1">
-        <v>998.98699999999997</v>
+        <v>998.94449999999995</v>
       </c>
       <c r="P79" s="1">
-        <v>46.910482199999997</v>
+        <v>46.910472630000001</v>
       </c>
       <c r="Q79" s="1">
-        <v>-91.051802440000003</v>
+        <v>-91.051804630000007</v>
       </c>
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45098.559594907405</v>
+        <v>45098.559606481482</v>
       </c>
       <c r="B80" s="1">
-        <v>8.2465569999999992</v>
+        <v>8.2527380000000008</v>
       </c>
       <c r="C80" s="1">
-        <v>10.34779</v>
+        <v>10.35258</v>
       </c>
       <c r="D80" s="1">
-        <v>62.961069999999999</v>
+        <v>62.92897</v>
       </c>
       <c r="E80" s="1">
-        <v>97.365359999999995</v>
+        <v>97.358739999999997</v>
       </c>
       <c r="F80" s="1">
-        <v>4.4705750000000002E-2</v>
+        <v>4.4700860000000002E-2</v>
       </c>
       <c r="G80" s="1">
-        <v>0.9999614</v>
+        <v>0.99996189999999996</v>
       </c>
       <c r="H80" s="1">
-        <v>6.3287679999999999E-2</v>
+        <v>6.3283199999999998E-2</v>
       </c>
       <c r="I80" s="1">
-        <v>0.53782209999999997</v>
+        <v>0.5382342</v>
       </c>
       <c r="J80" s="1">
-        <v>6.5155240000000001</v>
+        <v>6.4964709999999997</v>
       </c>
       <c r="K80" s="1">
-        <v>14.12776</v>
+        <v>14.18407</v>
       </c>
       <c r="L80" s="1">
-        <v>33.212119999999999</v>
+        <v>33.34196</v>
       </c>
       <c r="M80" s="1">
-        <v>9.9328040000000009</v>
+        <v>9.9723930000000003</v>
       </c>
       <c r="N80" s="1">
-        <v>16.82874</v>
+        <v>16.831700000000001</v>
       </c>
       <c r="O80" s="1">
-        <v>998.94449999999995</v>
+        <v>998.9434</v>
       </c>
       <c r="P80" s="1">
         <v>46.910472630000001</v>
@@ -4734,49 +4785,49 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45098.559606481482</v>
+        <v>45098.559618055559</v>
       </c>
       <c r="B81" s="1">
-        <v>8.2527380000000008</v>
+        <v>8.2589190000000006</v>
       </c>
       <c r="C81" s="1">
-        <v>10.35258</v>
+        <v>10.35736</v>
       </c>
       <c r="D81" s="1">
-        <v>62.92897</v>
+        <v>62.896880000000003</v>
       </c>
       <c r="E81" s="1">
-        <v>97.358739999999997</v>
+        <v>97.352109999999996</v>
       </c>
       <c r="F81" s="1">
-        <v>4.4700860000000002E-2</v>
+        <v>4.4695970000000002E-2</v>
       </c>
       <c r="G81" s="1">
-        <v>0.99996189999999996</v>
+        <v>0.99996229999999997</v>
       </c>
       <c r="H81" s="1">
-        <v>6.3283199999999998E-2</v>
+        <v>6.3278710000000002E-2</v>
       </c>
       <c r="I81" s="1">
-        <v>0.5382342</v>
+        <v>0.53864639999999997</v>
       </c>
       <c r="J81" s="1">
-        <v>6.4964709999999997</v>
+        <v>6.477417</v>
       </c>
       <c r="K81" s="1">
-        <v>14.18407</v>
+        <v>14.24038</v>
       </c>
       <c r="L81" s="1">
-        <v>33.34196</v>
+        <v>33.471809999999998</v>
       </c>
       <c r="M81" s="1">
-        <v>9.9723930000000003</v>
+        <v>10.011979999999999</v>
       </c>
       <c r="N81" s="1">
-        <v>16.831700000000001</v>
+        <v>16.83466</v>
       </c>
       <c r="O81" s="1">
-        <v>998.9434</v>
+        <v>998.94230000000005</v>
       </c>
       <c r="P81" s="1">
         <v>46.910472630000001</v>
@@ -4788,103 +4839,103 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45098.559618055559</v>
+        <v>45098.559629629628</v>
       </c>
       <c r="B82" s="1">
-        <v>8.2589190000000006</v>
+        <v>8.0171799999999998</v>
       </c>
       <c r="C82" s="1">
-        <v>10.35736</v>
+        <v>10.320320000000001</v>
       </c>
       <c r="D82" s="1">
-        <v>62.896880000000003</v>
+        <v>62.683169999999997</v>
       </c>
       <c r="E82" s="1">
-        <v>97.352109999999996</v>
+        <v>97.192179999999993</v>
       </c>
       <c r="F82" s="1">
-        <v>4.4695970000000002E-2</v>
+        <v>4.4611289999999998E-2</v>
       </c>
       <c r="G82" s="1">
-        <v>0.99996229999999997</v>
+        <v>0.99997329999999995</v>
       </c>
       <c r="H82" s="1">
-        <v>6.3278710000000002E-2</v>
+        <v>6.2557130000000002E-2</v>
       </c>
       <c r="I82" s="1">
-        <v>0.53864639999999997</v>
+        <v>0.61644410000000005</v>
       </c>
       <c r="J82" s="1">
-        <v>6.477417</v>
+        <v>6.4140670000000002</v>
       </c>
       <c r="K82" s="1">
-        <v>14.24038</v>
+        <v>16.051960000000001</v>
       </c>
       <c r="L82" s="1">
-        <v>33.471809999999998</v>
+        <v>37.648800000000001</v>
       </c>
       <c r="M82" s="1">
-        <v>10.011979999999999</v>
+        <v>11.28565</v>
       </c>
       <c r="N82" s="1">
-        <v>16.83466</v>
+        <v>16.719919999999998</v>
       </c>
       <c r="O82" s="1">
-        <v>998.94230000000005</v>
+        <v>999.00260000000003</v>
       </c>
       <c r="P82" s="1">
-        <v>46.910472630000001</v>
+        <v>46.9104612</v>
       </c>
       <c r="Q82" s="1">
-        <v>-91.051804630000007</v>
+        <v>-91.051803660000004</v>
       </c>
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45098.559629629628</v>
+        <v>45098.559641203705</v>
       </c>
       <c r="B83" s="1">
-        <v>8.0171799999999998</v>
+        <v>8.0019489999999998</v>
       </c>
       <c r="C83" s="1">
-        <v>10.320320000000001</v>
+        <v>10.31903</v>
       </c>
       <c r="D83" s="1">
-        <v>62.683169999999997</v>
+        <v>62.662999999999997</v>
       </c>
       <c r="E83" s="1">
-        <v>97.192179999999993</v>
+        <v>97.181399999999996</v>
       </c>
       <c r="F83" s="1">
-        <v>4.4611289999999998E-2</v>
+        <v>4.460517E-2</v>
       </c>
       <c r="G83" s="1">
-        <v>0.99997329999999995</v>
+        <v>0.99997400000000003</v>
       </c>
       <c r="H83" s="1">
-        <v>6.2557130000000002E-2</v>
+        <v>6.25169E-2</v>
       </c>
       <c r="I83" s="1">
-        <v>0.61644410000000005</v>
+        <v>0.61935459999999998</v>
       </c>
       <c r="J83" s="1">
-        <v>6.4140670000000002</v>
+        <v>6.4038269999999997</v>
       </c>
       <c r="K83" s="1">
-        <v>16.051960000000001</v>
+        <v>16.164840000000002</v>
       </c>
       <c r="L83" s="1">
-        <v>37.648800000000001</v>
+        <v>37.909030000000001</v>
       </c>
       <c r="M83" s="1">
-        <v>11.28565</v>
+        <v>11.36501</v>
       </c>
       <c r="N83" s="1">
-        <v>16.719919999999998</v>
+        <v>16.713889999999999</v>
       </c>
       <c r="O83" s="1">
-        <v>999.00260000000003</v>
+        <v>999.00490000000002</v>
       </c>
       <c r="P83" s="1">
         <v>46.9104612</v>
@@ -4896,49 +4947,49 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>45098.559641203705</v>
+        <v>45098.559652777774</v>
       </c>
       <c r="B84" s="1">
-        <v>8.0019489999999998</v>
+        <v>7.9867179999999998</v>
       </c>
       <c r="C84" s="1">
-        <v>10.31903</v>
+        <v>10.317729999999999</v>
       </c>
       <c r="D84" s="1">
-        <v>62.662999999999997</v>
+        <v>62.642829999999996</v>
       </c>
       <c r="E84" s="1">
-        <v>97.181399999999996</v>
+        <v>97.17062</v>
       </c>
       <c r="F84" s="1">
-        <v>4.460517E-2</v>
+        <v>4.4599060000000003E-2</v>
       </c>
       <c r="G84" s="1">
-        <v>0.99997400000000003</v>
+        <v>0.99997469999999999</v>
       </c>
       <c r="H84" s="1">
-        <v>6.25169E-2</v>
+        <v>6.2476660000000003E-2</v>
       </c>
       <c r="I84" s="1">
-        <v>0.61935459999999998</v>
+        <v>0.62226499999999996</v>
       </c>
       <c r="J84" s="1">
-        <v>6.4038269999999997</v>
+        <v>6.3935870000000001</v>
       </c>
       <c r="K84" s="1">
-        <v>16.164840000000002</v>
+        <v>16.277719999999999</v>
       </c>
       <c r="L84" s="1">
-        <v>37.909030000000001</v>
+        <v>38.169249999999998</v>
       </c>
       <c r="M84" s="1">
-        <v>11.36501</v>
+        <v>11.444380000000001</v>
       </c>
       <c r="N84" s="1">
-        <v>16.713889999999999</v>
+        <v>16.70786</v>
       </c>
       <c r="O84" s="1">
-        <v>999.00490000000002</v>
+        <v>999.00729999999999</v>
       </c>
       <c r="P84" s="1">
         <v>46.9104612</v>
@@ -4950,100 +5001,100 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>45098.559652777774</v>
+        <v>45098.559664351851</v>
       </c>
       <c r="B85" s="1">
-        <v>7.9867179999999998</v>
+        <v>8.2967720000000007</v>
       </c>
       <c r="C85" s="1">
-        <v>10.317729999999999</v>
+        <v>10.672319999999999</v>
       </c>
       <c r="D85" s="1">
-        <v>62.642829999999996</v>
+        <v>61.298839999999998</v>
       </c>
       <c r="E85" s="1">
-        <v>97.17062</v>
+        <v>96.622910000000005</v>
       </c>
       <c r="F85" s="1">
-        <v>4.4599060000000003E-2</v>
+        <v>4.4261120000000001E-2</v>
       </c>
       <c r="G85" s="1">
-        <v>0.99997469999999999</v>
+        <v>0.99998339999999997</v>
       </c>
       <c r="H85" s="1">
-        <v>6.2476660000000003E-2</v>
+        <v>6.2738959999999996E-2</v>
       </c>
       <c r="I85" s="1">
-        <v>0.62226499999999996</v>
+        <v>0.70410819999999996</v>
       </c>
       <c r="J85" s="1">
-        <v>6.3935870000000001</v>
+        <v>6.14093</v>
       </c>
       <c r="K85" s="1">
-        <v>16.277719999999999</v>
+        <v>17.326589999999999</v>
       </c>
       <c r="L85" s="1">
-        <v>38.169249999999998</v>
+        <v>40.594439999999999</v>
       </c>
       <c r="M85" s="1">
-        <v>11.444380000000001</v>
+        <v>12.181800000000001</v>
       </c>
       <c r="N85" s="1">
-        <v>16.70786</v>
+        <v>16.788170000000001</v>
       </c>
       <c r="O85" s="1">
-        <v>999.00729999999999</v>
+        <v>998.98170000000005</v>
       </c>
       <c r="P85" s="1">
-        <v>46.9104612</v>
+        <v>46.910448219999999</v>
       </c>
       <c r="Q85" s="1">
-        <v>-91.051803660000004</v>
+        <v>-91.051803820000003</v>
       </c>
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>45098.559664351851</v>
+        <v>45098.559675925928</v>
       </c>
       <c r="B86" s="1">
-        <v>8.2967720000000007</v>
+        <v>8.3080160000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>10.672319999999999</v>
+        <v>10.690580000000001</v>
       </c>
       <c r="D86" s="1">
-        <v>61.298839999999998</v>
+        <v>61.221249999999998</v>
       </c>
       <c r="E86" s="1">
-        <v>96.622910000000005</v>
+        <v>96.589740000000006</v>
       </c>
       <c r="F86" s="1">
-        <v>4.4261120000000001E-2</v>
+        <v>4.4240960000000003E-2</v>
       </c>
       <c r="G86" s="1">
-        <v>0.99998339999999997</v>
+        <v>0.99998410000000004</v>
       </c>
       <c r="H86" s="1">
-        <v>6.2738959999999996E-2</v>
+        <v>6.2736399999999998E-2</v>
       </c>
       <c r="I86" s="1">
-        <v>0.70410819999999996</v>
+        <v>0.7103062</v>
       </c>
       <c r="J86" s="1">
-        <v>6.14093</v>
+        <v>6.1255949999999997</v>
       </c>
       <c r="K86" s="1">
-        <v>17.326589999999999</v>
+        <v>17.425429999999999</v>
       </c>
       <c r="L86" s="1">
-        <v>40.594439999999999</v>
+        <v>40.822710000000001</v>
       </c>
       <c r="M86" s="1">
-        <v>12.181800000000001</v>
+        <v>12.251300000000001</v>
       </c>
       <c r="N86" s="1">
-        <v>16.788170000000001</v>
+        <v>16.789909999999999</v>
       </c>
       <c r="O86" s="1">
         <v>998.98170000000005</v>
@@ -5058,49 +5109,49 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>45098.559675925928</v>
+        <v>45098.559687499997</v>
       </c>
       <c r="B87" s="1">
-        <v>8.3080160000000003</v>
+        <v>8.7290919999999996</v>
       </c>
       <c r="C87" s="1">
-        <v>10.690580000000001</v>
+        <v>10.32502</v>
       </c>
       <c r="D87" s="1">
-        <v>61.221249999999998</v>
+        <v>61.167169999999999</v>
       </c>
       <c r="E87" s="1">
-        <v>96.589740000000006</v>
+        <v>97.039569999999998</v>
       </c>
       <c r="F87" s="1">
-        <v>4.4240960000000003E-2</v>
+        <v>4.4427010000000003E-2</v>
       </c>
       <c r="G87" s="1">
-        <v>0.99998410000000004</v>
+        <v>0.99998900000000002</v>
       </c>
       <c r="H87" s="1">
-        <v>6.2736399999999998E-2</v>
+        <v>6.3048090000000001E-2</v>
       </c>
       <c r="I87" s="1">
-        <v>0.7103062</v>
+        <v>0.6223921</v>
       </c>
       <c r="J87" s="1">
-        <v>6.1255949999999997</v>
+        <v>5.6833960000000001</v>
       </c>
       <c r="K87" s="1">
-        <v>17.425429999999999</v>
+        <v>18.469919999999998</v>
       </c>
       <c r="L87" s="1">
-        <v>40.822710000000001</v>
+        <v>43.232300000000002</v>
       </c>
       <c r="M87" s="1">
-        <v>12.251300000000001</v>
+        <v>12.98565</v>
       </c>
       <c r="N87" s="1">
-        <v>16.789909999999999</v>
+        <v>16.799990000000001</v>
       </c>
       <c r="O87" s="1">
-        <v>998.98170000000005</v>
+        <v>998.96400000000006</v>
       </c>
       <c r="P87" s="1">
         <v>46.910448219999999</v>
@@ -5112,49 +5163,49 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>45098.559687499997</v>
+        <v>45098.559699074074</v>
       </c>
       <c r="B88" s="1">
-        <v>8.7290919999999996</v>
+        <v>8.7595569999999991</v>
       </c>
       <c r="C88" s="1">
-        <v>10.32502</v>
+        <v>10.311780000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>61.167169999999999</v>
+        <v>61.135480000000001</v>
       </c>
       <c r="E88" s="1">
-        <v>97.039569999999998</v>
+        <v>97.0535</v>
       </c>
       <c r="F88" s="1">
-        <v>4.4427010000000003E-2</v>
+        <v>4.4430400000000002E-2</v>
       </c>
       <c r="G88" s="1">
-        <v>0.99998900000000002</v>
+        <v>0.99998940000000003</v>
       </c>
       <c r="H88" s="1">
-        <v>6.3048090000000001E-2</v>
+        <v>6.3071379999999996E-2</v>
       </c>
       <c r="I88" s="1">
-        <v>0.6223921</v>
+        <v>0.6190987</v>
       </c>
       <c r="J88" s="1">
-        <v>5.6833960000000001</v>
+        <v>5.6527919999999998</v>
       </c>
       <c r="K88" s="1">
-        <v>18.469919999999998</v>
+        <v>18.551659999999998</v>
       </c>
       <c r="L88" s="1">
-        <v>43.232300000000002</v>
+        <v>43.420969999999997</v>
       </c>
       <c r="M88" s="1">
-        <v>12.98565</v>
+        <v>13.04311</v>
       </c>
       <c r="N88" s="1">
-        <v>16.799990000000001</v>
+        <v>16.80227</v>
       </c>
       <c r="O88" s="1">
-        <v>998.96400000000006</v>
+        <v>998.9624</v>
       </c>
       <c r="P88" s="1">
         <v>46.910448219999999</v>
@@ -5166,49 +5217,49 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45098.559699074074</v>
+        <v>45098.559710648151</v>
       </c>
       <c r="B89" s="1">
-        <v>8.7595569999999991</v>
+        <v>8.7900220000000004</v>
       </c>
       <c r="C89" s="1">
-        <v>10.311780000000001</v>
+        <v>10.29853</v>
       </c>
       <c r="D89" s="1">
-        <v>61.135480000000001</v>
+        <v>61.10378</v>
       </c>
       <c r="E89" s="1">
-        <v>97.0535</v>
+        <v>97.067430000000002</v>
       </c>
       <c r="F89" s="1">
-        <v>4.4430400000000002E-2</v>
+        <v>4.4433790000000001E-2</v>
       </c>
       <c r="G89" s="1">
-        <v>0.99998940000000003</v>
+        <v>0.99998989999999999</v>
       </c>
       <c r="H89" s="1">
-        <v>6.3071379999999996E-2</v>
+        <v>6.309468E-2</v>
       </c>
       <c r="I89" s="1">
-        <v>0.6190987</v>
+        <v>0.6158053</v>
       </c>
       <c r="J89" s="1">
-        <v>5.6527919999999998</v>
+        <v>5.6221870000000003</v>
       </c>
       <c r="K89" s="1">
-        <v>18.551659999999998</v>
+        <v>18.633389999999999</v>
       </c>
       <c r="L89" s="1">
-        <v>43.420969999999997</v>
+        <v>43.609639999999999</v>
       </c>
       <c r="M89" s="1">
-        <v>13.04311</v>
+        <v>13.100580000000001</v>
       </c>
       <c r="N89" s="1">
-        <v>16.80227</v>
+        <v>16.804549999999999</v>
       </c>
       <c r="O89" s="1">
-        <v>998.9624</v>
+        <v>998.96090000000004</v>
       </c>
       <c r="P89" s="1">
         <v>46.910448219999999</v>
@@ -5220,49 +5271,49 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45098.559710648151</v>
+        <v>45098.55972222222</v>
       </c>
       <c r="B90" s="1">
-        <v>8.7900220000000004</v>
+        <v>9.0037990000000008</v>
       </c>
       <c r="C90" s="1">
-        <v>10.29853</v>
+        <v>11.93994</v>
       </c>
       <c r="D90" s="1">
-        <v>61.10378</v>
+        <v>61.116750000000003</v>
       </c>
       <c r="E90" s="1">
-        <v>97.067430000000002</v>
+        <v>97.437489999999997</v>
       </c>
       <c r="F90" s="1">
-        <v>4.4433790000000001E-2</v>
+        <v>4.4591100000000002E-2</v>
       </c>
       <c r="G90" s="1">
-        <v>0.99998989999999999</v>
+        <v>0.9999943</v>
       </c>
       <c r="H90" s="1">
-        <v>6.309468E-2</v>
+        <v>6.3444269999999997E-2</v>
       </c>
       <c r="I90" s="1">
-        <v>0.6158053</v>
+        <v>0.68932260000000001</v>
       </c>
       <c r="J90" s="1">
-        <v>5.6221870000000003</v>
+        <v>5.4960149999999999</v>
       </c>
       <c r="K90" s="1">
-        <v>18.633389999999999</v>
+        <v>20.27674</v>
       </c>
       <c r="L90" s="1">
-        <v>43.609639999999999</v>
+        <v>47.39517</v>
       </c>
       <c r="M90" s="1">
-        <v>13.100580000000001</v>
+        <v>14.25596</v>
       </c>
       <c r="N90" s="1">
-        <v>16.804549999999999</v>
+        <v>16.743020000000001</v>
       </c>
       <c r="O90" s="1">
-        <v>998.96090000000004</v>
+        <v>998.952</v>
       </c>
       <c r="P90" s="1">
         <v>46.910448219999999</v>
@@ -5274,49 +5325,49 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45098.55972222222</v>
+        <v>45098.559733796297</v>
       </c>
       <c r="B91" s="1">
-        <v>9.0037990000000008</v>
+        <v>9.0252300000000005</v>
       </c>
       <c r="C91" s="1">
-        <v>11.93994</v>
+        <v>12.02393</v>
       </c>
       <c r="D91" s="1">
-        <v>61.116750000000003</v>
+        <v>61.11712</v>
       </c>
       <c r="E91" s="1">
-        <v>97.437489999999997</v>
+        <v>97.46893</v>
       </c>
       <c r="F91" s="1">
-        <v>4.4591100000000002E-2</v>
+        <v>4.4604419999999999E-2</v>
       </c>
       <c r="G91" s="1">
-        <v>0.9999943</v>
+        <v>0.99999470000000001</v>
       </c>
       <c r="H91" s="1">
-        <v>6.3444269999999997E-2</v>
+        <v>6.3470910000000005E-2</v>
       </c>
       <c r="I91" s="1">
-        <v>0.68932260000000001</v>
+        <v>0.69141540000000001</v>
       </c>
       <c r="J91" s="1">
-        <v>5.4960149999999999</v>
+        <v>5.479012</v>
       </c>
       <c r="K91" s="1">
-        <v>20.27674</v>
+        <v>20.392430000000001</v>
       </c>
       <c r="L91" s="1">
-        <v>47.39517</v>
+        <v>47.661760000000001</v>
       </c>
       <c r="M91" s="1">
-        <v>14.25596</v>
+        <v>14.33731</v>
       </c>
       <c r="N91" s="1">
-        <v>16.743020000000001</v>
+        <v>16.739740000000001</v>
       </c>
       <c r="O91" s="1">
-        <v>998.952</v>
+        <v>998.9511</v>
       </c>
       <c r="P91" s="1">
         <v>46.910448219999999</v>
@@ -5328,49 +5379,49 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45098.559733796297</v>
+        <v>45098.559745370374</v>
       </c>
       <c r="B92" s="1">
-        <v>9.0252300000000005</v>
+        <v>9.0466619999999995</v>
       </c>
       <c r="C92" s="1">
-        <v>12.02393</v>
+        <v>12.10792</v>
       </c>
       <c r="D92" s="1">
-        <v>61.11712</v>
+        <v>61.117489999999997</v>
       </c>
       <c r="E92" s="1">
-        <v>97.46893</v>
+        <v>97.500370000000004</v>
       </c>
       <c r="F92" s="1">
-        <v>4.4604419999999999E-2</v>
+        <v>4.4617730000000001E-2</v>
       </c>
       <c r="G92" s="1">
-        <v>0.99999470000000001</v>
+        <v>0.99999510000000003</v>
       </c>
       <c r="H92" s="1">
-        <v>6.3470910000000005E-2</v>
+        <v>6.3497540000000005E-2</v>
       </c>
       <c r="I92" s="1">
-        <v>0.69141540000000001</v>
+        <v>0.69350809999999996</v>
       </c>
       <c r="J92" s="1">
-        <v>5.479012</v>
+        <v>5.4620090000000001</v>
       </c>
       <c r="K92" s="1">
-        <v>20.392430000000001</v>
+        <v>20.508130000000001</v>
       </c>
       <c r="L92" s="1">
-        <v>47.661760000000001</v>
+        <v>47.928339999999999</v>
       </c>
       <c r="M92" s="1">
-        <v>14.33731</v>
+        <v>14.41865</v>
       </c>
       <c r="N92" s="1">
-        <v>16.739740000000001</v>
+        <v>16.736450000000001</v>
       </c>
       <c r="O92" s="1">
-        <v>998.9511</v>
+        <v>998.95029999999997</v>
       </c>
       <c r="P92" s="1">
         <v>46.910448219999999</v>
@@ -5382,103 +5433,103 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>45098.559745370374</v>
+        <v>45098.559756944444</v>
       </c>
       <c r="B93" s="1">
-        <v>9.0466619999999995</v>
+        <v>8.7145410000000005</v>
       </c>
       <c r="C93" s="1">
-        <v>12.10792</v>
+        <v>10.09754</v>
       </c>
       <c r="D93" s="1">
-        <v>61.117489999999997</v>
+        <v>61.090629999999997</v>
       </c>
       <c r="E93" s="1">
-        <v>97.500370000000004</v>
+        <v>97.895340000000004</v>
       </c>
       <c r="F93" s="1">
-        <v>4.4617730000000001E-2</v>
+        <v>4.4781809999999998E-2</v>
       </c>
       <c r="G93" s="1">
-        <v>0.99999510000000003</v>
+        <v>0.99999700000000002</v>
       </c>
       <c r="H93" s="1">
-        <v>6.3497540000000005E-2</v>
+        <v>6.3647049999999997E-2</v>
       </c>
       <c r="I93" s="1">
-        <v>0.69350809999999996</v>
+        <v>0.6794907</v>
       </c>
       <c r="J93" s="1">
-        <v>5.4620090000000001</v>
+        <v>5.398771</v>
       </c>
       <c r="K93" s="1">
-        <v>20.508130000000001</v>
+        <v>21.257429999999999</v>
       </c>
       <c r="L93" s="1">
-        <v>47.928339999999999</v>
+        <v>49.65569</v>
       </c>
       <c r="M93" s="1">
-        <v>14.41865</v>
+        <v>14.945460000000001</v>
       </c>
       <c r="N93" s="1">
-        <v>16.736450000000001</v>
+        <v>16.781300000000002</v>
       </c>
       <c r="O93" s="1">
-        <v>998.95029999999997</v>
+        <v>998.95849999999996</v>
       </c>
       <c r="P93" s="1">
-        <v>46.910448219999999</v>
+        <v>46.910438569999997</v>
       </c>
       <c r="Q93" s="1">
-        <v>-91.051803820000003</v>
+        <v>-91.051801209999994</v>
       </c>
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>45098.559756944444</v>
+        <v>45098.55976851852</v>
       </c>
       <c r="B94" s="1">
-        <v>8.7145410000000005</v>
+        <v>8.7005339999999993</v>
       </c>
       <c r="C94" s="1">
-        <v>10.09754</v>
+        <v>10.02178</v>
       </c>
       <c r="D94" s="1">
-        <v>61.090629999999997</v>
+        <v>61.089379999999998</v>
       </c>
       <c r="E94" s="1">
-        <v>97.895340000000004</v>
+        <v>97.92568</v>
       </c>
       <c r="F94" s="1">
-        <v>4.4781809999999998E-2</v>
+        <v>4.4794489999999999E-2</v>
       </c>
       <c r="G94" s="1">
-        <v>0.99999700000000002</v>
+        <v>0.99999729999999998</v>
       </c>
       <c r="H94" s="1">
-        <v>6.3647049999999997E-2</v>
+        <v>6.3663220000000006E-2</v>
       </c>
       <c r="I94" s="1">
-        <v>0.6794907</v>
+        <v>0.68040489999999998</v>
       </c>
       <c r="J94" s="1">
-        <v>5.398771</v>
+        <v>5.3925450000000001</v>
       </c>
       <c r="K94" s="1">
-        <v>21.257429999999999</v>
+        <v>21.336269999999999</v>
       </c>
       <c r="L94" s="1">
-        <v>49.65569</v>
+        <v>49.83737</v>
       </c>
       <c r="M94" s="1">
-        <v>14.945460000000001</v>
+        <v>15.00089</v>
       </c>
       <c r="N94" s="1">
-        <v>16.781300000000002</v>
+        <v>16.782430000000002</v>
       </c>
       <c r="O94" s="1">
-        <v>998.95849999999996</v>
+        <v>998.9588</v>
       </c>
       <c r="P94" s="1">
         <v>46.910438569999997</v>
@@ -5490,49 +5541,49 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>45098.55976851852</v>
+        <v>45098.55978009259</v>
       </c>
       <c r="B95" s="1">
-        <v>8.7005339999999993</v>
+        <v>8.6865249999999996</v>
       </c>
       <c r="C95" s="1">
-        <v>10.02178</v>
+        <v>9.9460270000000008</v>
       </c>
       <c r="D95" s="1">
-        <v>61.089379999999998</v>
+        <v>61.08813</v>
       </c>
       <c r="E95" s="1">
-        <v>97.92568</v>
+        <v>97.956019999999995</v>
       </c>
       <c r="F95" s="1">
-        <v>4.4794489999999999E-2</v>
+        <v>4.480717E-2</v>
       </c>
       <c r="G95" s="1">
-        <v>0.99999729999999998</v>
+        <v>0.99999740000000004</v>
       </c>
       <c r="H95" s="1">
-        <v>6.3663220000000006E-2</v>
+        <v>6.3679399999999997E-2</v>
       </c>
       <c r="I95" s="1">
-        <v>0.68040489999999998</v>
+        <v>0.68131909999999996</v>
       </c>
       <c r="J95" s="1">
-        <v>5.3925450000000001</v>
+        <v>5.3863200000000004</v>
       </c>
       <c r="K95" s="1">
-        <v>21.336269999999999</v>
+        <v>21.415109999999999</v>
       </c>
       <c r="L95" s="1">
-        <v>49.83737</v>
+        <v>50.01905</v>
       </c>
       <c r="M95" s="1">
-        <v>15.00089</v>
+        <v>15.056319999999999</v>
       </c>
       <c r="N95" s="1">
-        <v>16.782430000000002</v>
+        <v>16.783560000000001</v>
       </c>
       <c r="O95" s="1">
-        <v>998.9588</v>
+        <v>998.95899999999995</v>
       </c>
       <c r="P95" s="1">
         <v>46.910438569999997</v>
@@ -5544,49 +5595,49 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45098.55978009259</v>
+        <v>45098.559791666667</v>
       </c>
       <c r="B96" s="1">
-        <v>8.6865249999999996</v>
+        <v>9.1128929999999997</v>
       </c>
       <c r="C96" s="1">
-        <v>9.9460270000000008</v>
+        <v>10.870290000000001</v>
       </c>
       <c r="D96" s="1">
-        <v>61.08813</v>
+        <v>61.110390000000002</v>
       </c>
       <c r="E96" s="1">
-        <v>97.956019999999995</v>
+        <v>98.165120000000002</v>
       </c>
       <c r="F96" s="1">
-        <v>4.480717E-2</v>
+        <v>4.4896999999999999E-2</v>
       </c>
       <c r="G96" s="1">
-        <v>0.99999740000000004</v>
+        <v>0.99999870000000002</v>
       </c>
       <c r="H96" s="1">
-        <v>6.3679399999999997E-2</v>
+        <v>6.3812209999999994E-2</v>
       </c>
       <c r="I96" s="1">
-        <v>0.68131909999999996</v>
+        <v>0.81452769999999997</v>
       </c>
       <c r="J96" s="1">
-        <v>5.3863200000000004</v>
+        <v>5.2488340000000004</v>
       </c>
       <c r="K96" s="1">
-        <v>21.415109999999999</v>
+        <v>21.498149999999999</v>
       </c>
       <c r="L96" s="1">
-        <v>50.01905</v>
+        <v>50.071379999999998</v>
       </c>
       <c r="M96" s="1">
-        <v>15.056319999999999</v>
+        <v>15.114710000000001</v>
       </c>
       <c r="N96" s="1">
-        <v>16.783560000000001</v>
+        <v>16.746230000000001</v>
       </c>
       <c r="O96" s="1">
-        <v>998.95899999999995</v>
+        <v>998.96770000000004</v>
       </c>
       <c r="P96" s="1">
         <v>46.910438569999997</v>
@@ -5598,49 +5649,49 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>45098.559791666667</v>
+        <v>45098.559803240743</v>
       </c>
       <c r="B97" s="1">
-        <v>9.1128929999999997</v>
+        <v>9.1286830000000005</v>
       </c>
       <c r="C97" s="1">
-        <v>10.870290000000001</v>
+        <v>10.87452</v>
       </c>
       <c r="D97" s="1">
-        <v>61.110390000000002</v>
+        <v>61.110999999999997</v>
       </c>
       <c r="E97" s="1">
-        <v>98.165120000000002</v>
+        <v>98.185509999999994</v>
       </c>
       <c r="F97" s="1">
-        <v>4.4896999999999999E-2</v>
+        <v>4.4905630000000002E-2</v>
       </c>
       <c r="G97" s="1">
-        <v>0.99999870000000002</v>
+        <v>0.99999879999999997</v>
       </c>
       <c r="H97" s="1">
-        <v>6.3812209999999994E-2</v>
+        <v>6.3822809999999994E-2</v>
       </c>
       <c r="I97" s="1">
-        <v>0.81452769999999997</v>
+        <v>0.82148310000000002</v>
       </c>
       <c r="J97" s="1">
-        <v>5.2488340000000004</v>
+        <v>5.2398509999999998</v>
       </c>
       <c r="K97" s="1">
-        <v>21.498149999999999</v>
+        <v>21.519259999999999</v>
       </c>
       <c r="L97" s="1">
-        <v>50.071379999999998</v>
+        <v>50.112409999999997</v>
       </c>
       <c r="M97" s="1">
-        <v>15.114710000000001</v>
+        <v>15.12955</v>
       </c>
       <c r="N97" s="1">
-        <v>16.746230000000001</v>
+        <v>16.745229999999999</v>
       </c>
       <c r="O97" s="1">
-        <v>998.96770000000004</v>
+        <v>998.96839999999997</v>
       </c>
       <c r="P97" s="1">
         <v>46.910438569999997</v>
@@ -5652,49 +5703,49 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45098.559803240743</v>
+        <v>45098.559814814813</v>
       </c>
       <c r="B98" s="1">
-        <v>9.1286830000000005</v>
+        <v>9.1444740000000007</v>
       </c>
       <c r="C98" s="1">
-        <v>10.87452</v>
+        <v>10.87875</v>
       </c>
       <c r="D98" s="1">
-        <v>61.110999999999997</v>
+        <v>61.111600000000003</v>
       </c>
       <c r="E98" s="1">
-        <v>98.185509999999994</v>
+        <v>98.205889999999997</v>
       </c>
       <c r="F98" s="1">
-        <v>4.4905630000000002E-2</v>
+        <v>4.4914259999999998E-2</v>
       </c>
       <c r="G98" s="1">
-        <v>0.99999879999999997</v>
+        <v>0.99999890000000002</v>
       </c>
       <c r="H98" s="1">
-        <v>6.3822809999999994E-2</v>
+        <v>6.3833399999999998E-2</v>
       </c>
       <c r="I98" s="1">
-        <v>0.82148310000000002</v>
+        <v>0.82843849999999997</v>
       </c>
       <c r="J98" s="1">
-        <v>5.2398509999999998</v>
+        <v>5.2308680000000001</v>
       </c>
       <c r="K98" s="1">
-        <v>21.519259999999999</v>
+        <v>21.540369999999999</v>
       </c>
       <c r="L98" s="1">
-        <v>50.112409999999997</v>
+        <v>50.15343</v>
       </c>
       <c r="M98" s="1">
-        <v>15.12955</v>
+        <v>15.14439</v>
       </c>
       <c r="N98" s="1">
-        <v>16.745229999999999</v>
+        <v>16.744230000000002</v>
       </c>
       <c r="O98" s="1">
-        <v>998.96839999999997</v>
+        <v>998.96910000000003</v>
       </c>
       <c r="P98" s="1">
         <v>46.910438569999997</v>
@@ -5706,103 +5757,103 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45098.559814814813</v>
+        <v>45098.55982638889</v>
       </c>
       <c r="B99" s="1">
-        <v>9.1444740000000007</v>
+        <v>8.7662390000000006</v>
       </c>
       <c r="C99" s="1">
-        <v>10.87875</v>
+        <v>10.92154</v>
       </c>
       <c r="D99" s="1">
-        <v>61.111600000000003</v>
+        <v>61.13646</v>
       </c>
       <c r="E99" s="1">
-        <v>98.205889999999997</v>
+        <v>98.151089999999996</v>
       </c>
       <c r="F99" s="1">
-        <v>4.4914259999999998E-2</v>
+        <v>4.4893370000000002E-2</v>
       </c>
       <c r="G99" s="1">
-        <v>0.99999890000000002</v>
+        <v>0.99999830000000001</v>
       </c>
       <c r="H99" s="1">
-        <v>6.3833399999999998E-2</v>
+        <v>6.3769770000000003E-2</v>
       </c>
       <c r="I99" s="1">
-        <v>0.82843849999999997</v>
+        <v>0.74246630000000002</v>
       </c>
       <c r="J99" s="1">
-        <v>5.2308680000000001</v>
+        <v>5.2593880000000004</v>
       </c>
       <c r="K99" s="1">
-        <v>21.540369999999999</v>
+        <v>21.3063</v>
       </c>
       <c r="L99" s="1">
-        <v>50.15343</v>
+        <v>49.743029999999997</v>
       </c>
       <c r="M99" s="1">
-        <v>15.14439</v>
+        <v>14.97982</v>
       </c>
       <c r="N99" s="1">
-        <v>16.744230000000002</v>
+        <v>16.72006</v>
       </c>
       <c r="O99" s="1">
-        <v>998.96910000000003</v>
+        <v>998.95249999999999</v>
       </c>
       <c r="P99" s="1">
-        <v>46.910438569999997</v>
+        <v>46.910429569999998</v>
       </c>
       <c r="Q99" s="1">
-        <v>-91.051801209999994</v>
+        <v>-91.051795630000001</v>
       </c>
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45098.55982638889</v>
+        <v>45098.559837962966</v>
       </c>
       <c r="B100" s="1">
-        <v>8.7662390000000006</v>
+        <v>8.7546999999999997</v>
       </c>
       <c r="C100" s="1">
-        <v>10.92154</v>
+        <v>10.944789999999999</v>
       </c>
       <c r="D100" s="1">
-        <v>61.13646</v>
+        <v>61.13832</v>
       </c>
       <c r="E100" s="1">
-        <v>98.151089999999996</v>
+        <v>98.152529999999999</v>
       </c>
       <c r="F100" s="1">
-        <v>4.4893370000000002E-2</v>
+        <v>4.4894139999999999E-2</v>
       </c>
       <c r="G100" s="1">
         <v>0.99999830000000001</v>
       </c>
       <c r="H100" s="1">
-        <v>6.3769770000000003E-2</v>
+        <v>6.3769119999999999E-2</v>
       </c>
       <c r="I100" s="1">
-        <v>0.74246630000000002</v>
+        <v>0.74061849999999996</v>
       </c>
       <c r="J100" s="1">
-        <v>5.2593880000000004</v>
+        <v>5.257981</v>
       </c>
       <c r="K100" s="1">
-        <v>21.3063</v>
+        <v>21.295100000000001</v>
       </c>
       <c r="L100" s="1">
-        <v>49.743029999999997</v>
+        <v>49.721339999999998</v>
       </c>
       <c r="M100" s="1">
-        <v>14.97982</v>
+        <v>14.97194</v>
       </c>
       <c r="N100" s="1">
-        <v>16.72006</v>
+        <v>16.717890000000001</v>
       </c>
       <c r="O100" s="1">
-        <v>998.95249999999999</v>
+        <v>998.95169999999996</v>
       </c>
       <c r="P100" s="1">
         <v>46.910429569999998</v>
@@ -5814,49 +5865,49 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45098.559837962966</v>
+        <v>45098.559849537036</v>
       </c>
       <c r="B101" s="1">
-        <v>8.7546999999999997</v>
+        <v>8.7431590000000003</v>
       </c>
       <c r="C101" s="1">
-        <v>10.944789999999999</v>
+        <v>10.96805</v>
       </c>
       <c r="D101" s="1">
-        <v>61.13832</v>
+        <v>61.140189999999997</v>
       </c>
       <c r="E101" s="1">
-        <v>98.152529999999999</v>
+        <v>98.153970000000001</v>
       </c>
       <c r="F101" s="1">
-        <v>4.4894139999999999E-2</v>
+        <v>4.4894900000000001E-2</v>
       </c>
       <c r="G101" s="1">
         <v>0.99999830000000001</v>
       </c>
       <c r="H101" s="1">
-        <v>6.3769119999999999E-2</v>
+        <v>6.3768480000000002E-2</v>
       </c>
       <c r="I101" s="1">
-        <v>0.74061849999999996</v>
+        <v>0.7387705</v>
       </c>
       <c r="J101" s="1">
-        <v>5.257981</v>
+        <v>5.2565749999999998</v>
       </c>
       <c r="K101" s="1">
-        <v>21.295100000000001</v>
+        <v>21.283899999999999</v>
       </c>
       <c r="L101" s="1">
-        <v>49.721339999999998</v>
+        <v>49.699649999999998</v>
       </c>
       <c r="M101" s="1">
-        <v>14.97194</v>
+        <v>14.96407</v>
       </c>
       <c r="N101" s="1">
-        <v>16.717890000000001</v>
+        <v>16.715720000000001</v>
       </c>
       <c r="O101" s="1">
-        <v>998.95169999999996</v>
+        <v>998.95100000000002</v>
       </c>
       <c r="P101" s="1">
         <v>46.910429569999998</v>
@@ -5868,49 +5919,49 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45098.559849537036</v>
+        <v>45098.559861111113</v>
       </c>
       <c r="B102" s="1">
-        <v>8.7431590000000003</v>
+        <v>9.3148949999999999</v>
       </c>
       <c r="C102" s="1">
-        <v>10.96805</v>
+        <v>10.889390000000001</v>
       </c>
       <c r="D102" s="1">
-        <v>61.140189999999997</v>
+        <v>61.164250000000003</v>
       </c>
       <c r="E102" s="1">
-        <v>98.153970000000001</v>
+        <v>98.571169999999995</v>
       </c>
       <c r="F102" s="1">
-        <v>4.4894900000000001E-2</v>
+        <v>4.5072210000000001E-2</v>
       </c>
       <c r="G102" s="1">
-        <v>0.99999830000000001</v>
+        <v>1.0000009999999999</v>
       </c>
       <c r="H102" s="1">
-        <v>6.3768480000000002E-2</v>
+        <v>6.406742E-2</v>
       </c>
       <c r="I102" s="1">
-        <v>0.7387705</v>
+        <v>0.84341109999999997</v>
       </c>
       <c r="J102" s="1">
-        <v>5.2565749999999998</v>
+        <v>5.2521620000000002</v>
       </c>
       <c r="K102" s="1">
-        <v>21.283899999999999</v>
+        <v>20.892240000000001</v>
       </c>
       <c r="L102" s="1">
-        <v>49.699649999999998</v>
+        <v>48.80827</v>
       </c>
       <c r="M102" s="1">
-        <v>14.96407</v>
+        <v>14.68871</v>
       </c>
       <c r="N102" s="1">
-        <v>16.715720000000001</v>
+        <v>16.699739999999998</v>
       </c>
       <c r="O102" s="1">
-        <v>998.95100000000002</v>
+        <v>999.01840000000004</v>
       </c>
       <c r="P102" s="1">
         <v>46.910429569999998</v>
@@ -5922,49 +5973,49 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>45098.559861111113</v>
+        <v>45098.559872685182</v>
       </c>
       <c r="B103" s="1">
-        <v>9.3148949999999999</v>
+        <v>9.3383450000000003</v>
       </c>
       <c r="C103" s="1">
-        <v>10.889390000000001</v>
+        <v>10.885070000000001</v>
       </c>
       <c r="D103" s="1">
-        <v>61.164250000000003</v>
+        <v>61.166130000000003</v>
       </c>
       <c r="E103" s="1">
-        <v>98.571169999999995</v>
+        <v>98.593279999999993</v>
       </c>
       <c r="F103" s="1">
-        <v>4.5072210000000001E-2</v>
+        <v>4.5081660000000003E-2</v>
       </c>
       <c r="G103" s="1">
         <v>1.0000009999999999</v>
       </c>
       <c r="H103" s="1">
-        <v>6.406742E-2</v>
+        <v>6.4082730000000004E-2</v>
       </c>
       <c r="I103" s="1">
-        <v>0.84341109999999997</v>
+        <v>0.84730170000000005</v>
       </c>
       <c r="J103" s="1">
-        <v>5.2521620000000002</v>
+        <v>5.2526289999999998</v>
       </c>
       <c r="K103" s="1">
-        <v>20.892240000000001</v>
+        <v>20.865130000000001</v>
       </c>
       <c r="L103" s="1">
-        <v>48.80827</v>
+        <v>48.749339999999997</v>
       </c>
       <c r="M103" s="1">
-        <v>14.68871</v>
+        <v>14.669650000000001</v>
       </c>
       <c r="N103" s="1">
-        <v>16.699739999999998</v>
+        <v>16.698340000000002</v>
       </c>
       <c r="O103" s="1">
-        <v>999.01840000000004</v>
+        <v>999.02179999999998</v>
       </c>
       <c r="P103" s="1">
         <v>46.910429569999998</v>
@@ -5976,103 +6027,103 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45098.559872685182</v>
+        <v>45098.559884259259</v>
       </c>
       <c r="B104" s="1">
-        <v>9.3383450000000003</v>
+        <v>9.3617950000000008</v>
       </c>
       <c r="C104" s="1">
-        <v>10.885070000000001</v>
+        <v>10.880739999999999</v>
       </c>
       <c r="D104" s="1">
-        <v>61.166130000000003</v>
+        <v>61.168010000000002</v>
       </c>
       <c r="E104" s="1">
-        <v>98.593279999999993</v>
+        <v>98.615390000000005</v>
       </c>
       <c r="F104" s="1">
-        <v>4.5081660000000003E-2</v>
+        <v>4.5091109999999997E-2</v>
       </c>
       <c r="G104" s="1">
         <v>1.0000009999999999</v>
       </c>
       <c r="H104" s="1">
-        <v>6.4082730000000004E-2</v>
+        <v>6.409803E-2</v>
       </c>
       <c r="I104" s="1">
-        <v>0.84730170000000005</v>
+        <v>0.85119219999999995</v>
       </c>
       <c r="J104" s="1">
-        <v>5.2526289999999998</v>
+        <v>5.2530970000000003</v>
       </c>
       <c r="K104" s="1">
-        <v>20.865130000000001</v>
+        <v>20.838010000000001</v>
       </c>
       <c r="L104" s="1">
-        <v>48.749339999999997</v>
+        <v>48.69041</v>
       </c>
       <c r="M104" s="1">
-        <v>14.669650000000001</v>
+        <v>14.65058</v>
       </c>
       <c r="N104" s="1">
-        <v>16.698340000000002</v>
+        <v>16.696940000000001</v>
       </c>
       <c r="O104" s="1">
-        <v>999.02179999999998</v>
+        <v>999.02520000000004</v>
       </c>
       <c r="P104" s="1">
-        <v>46.910429569999998</v>
+        <v>46.910418759999999</v>
       </c>
       <c r="Q104" s="1">
-        <v>-91.051795630000001</v>
+        <v>-91.051795949999999</v>
       </c>
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45098.559884259259</v>
+        <v>45098.559895833336</v>
       </c>
       <c r="B105" s="1">
-        <v>9.3617950000000008</v>
+        <v>8.9430449999999997</v>
       </c>
       <c r="C105" s="1">
-        <v>10.880739999999999</v>
+        <v>11.27858</v>
       </c>
       <c r="D105" s="1">
-        <v>61.168010000000002</v>
+        <v>61.099150000000002</v>
       </c>
       <c r="E105" s="1">
-        <v>98.615390000000005</v>
+        <v>98.644679999999994</v>
       </c>
       <c r="F105" s="1">
-        <v>4.5091109999999997E-2</v>
+        <v>4.5097350000000001E-2</v>
       </c>
       <c r="G105" s="1">
-        <v>1.0000009999999999</v>
+        <v>1.0000020000000001</v>
       </c>
       <c r="H105" s="1">
-        <v>6.409803E-2</v>
+        <v>6.4117859999999999E-2</v>
       </c>
       <c r="I105" s="1">
-        <v>0.85119219999999995</v>
+        <v>0.91500760000000003</v>
       </c>
       <c r="J105" s="1">
-        <v>5.2530970000000003</v>
+        <v>5.0887320000000003</v>
       </c>
       <c r="K105" s="1">
-        <v>20.838010000000001</v>
+        <v>19.86871</v>
       </c>
       <c r="L105" s="1">
-        <v>48.69041</v>
+        <v>46.447569999999999</v>
       </c>
       <c r="M105" s="1">
-        <v>14.65058</v>
+        <v>13.969099999999999</v>
       </c>
       <c r="N105" s="1">
-        <v>16.696940000000001</v>
+        <v>16.766470000000002</v>
       </c>
       <c r="O105" s="1">
-        <v>999.02520000000004</v>
+        <v>998.99279999999999</v>
       </c>
       <c r="P105" s="1">
         <v>46.910418759999999</v>
@@ -6084,49 +6135,49 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45098.559895833336</v>
+        <v>45098.559907407405</v>
       </c>
       <c r="B106" s="1">
-        <v>8.9430449999999997</v>
+        <v>8.932798</v>
       </c>
       <c r="C106" s="1">
-        <v>11.27858</v>
+        <v>11.299060000000001</v>
       </c>
       <c r="D106" s="1">
-        <v>61.099150000000002</v>
+        <v>61.095829999999999</v>
       </c>
       <c r="E106" s="1">
-        <v>98.644679999999994</v>
+        <v>98.655820000000006</v>
       </c>
       <c r="F106" s="1">
-        <v>4.5097350000000001E-2</v>
+        <v>4.5101740000000001E-2</v>
       </c>
       <c r="G106" s="1">
         <v>1.0000020000000001</v>
       </c>
       <c r="H106" s="1">
-        <v>6.4117859999999999E-2</v>
+        <v>6.4125779999999993E-2</v>
       </c>
       <c r="I106" s="1">
-        <v>0.91500760000000003</v>
+        <v>0.92099980000000004</v>
       </c>
       <c r="J106" s="1">
-        <v>5.0887320000000003</v>
+        <v>5.0794189999999997</v>
       </c>
       <c r="K106" s="1">
-        <v>19.86871</v>
+        <v>19.80574</v>
       </c>
       <c r="L106" s="1">
-        <v>46.447569999999999</v>
+        <v>46.302129999999998</v>
       </c>
       <c r="M106" s="1">
-        <v>13.969099999999999</v>
+        <v>13.92482</v>
       </c>
       <c r="N106" s="1">
-        <v>16.766470000000002</v>
+        <v>16.770009999999999</v>
       </c>
       <c r="O106" s="1">
-        <v>998.99279999999999</v>
+        <v>998.99260000000004</v>
       </c>
       <c r="P106" s="1">
         <v>46.910418759999999</v>
@@ -6138,49 +6189,49 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45098.559907407405</v>
+        <v>45098.559918981482</v>
       </c>
       <c r="B107" s="1">
-        <v>8.932798</v>
+        <v>8.9225530000000006</v>
       </c>
       <c r="C107" s="1">
-        <v>11.299060000000001</v>
+        <v>11.31953</v>
       </c>
       <c r="D107" s="1">
-        <v>61.095829999999999</v>
+        <v>61.092509999999997</v>
       </c>
       <c r="E107" s="1">
-        <v>98.655820000000006</v>
+        <v>98.66695</v>
       </c>
       <c r="F107" s="1">
-        <v>4.5101740000000001E-2</v>
+        <v>4.510612E-2</v>
       </c>
       <c r="G107" s="1">
         <v>1.0000020000000001</v>
       </c>
       <c r="H107" s="1">
-        <v>6.4125779999999993E-2</v>
+        <v>6.4133700000000002E-2</v>
       </c>
       <c r="I107" s="1">
-        <v>0.92099980000000004</v>
+        <v>0.92699189999999998</v>
       </c>
       <c r="J107" s="1">
-        <v>5.0794189999999997</v>
+        <v>5.070106</v>
       </c>
       <c r="K107" s="1">
-        <v>19.80574</v>
+        <v>19.74277</v>
       </c>
       <c r="L107" s="1">
-        <v>46.302129999999998</v>
+        <v>46.156680000000001</v>
       </c>
       <c r="M107" s="1">
-        <v>13.92482</v>
+        <v>13.880549999999999</v>
       </c>
       <c r="N107" s="1">
-        <v>16.770009999999999</v>
+        <v>16.773540000000001</v>
       </c>
       <c r="O107" s="1">
-        <v>998.99260000000004</v>
+        <v>998.99220000000003</v>
       </c>
       <c r="P107" s="1">
         <v>46.910418759999999</v>
@@ -6192,103 +6243,103 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45098.559918981482</v>
+        <v>45098.559930555559</v>
       </c>
       <c r="B108" s="1">
-        <v>8.9225530000000006</v>
+        <v>8.5780239999999992</v>
       </c>
       <c r="C108" s="1">
-        <v>11.31953</v>
+        <v>11.084099999999999</v>
       </c>
       <c r="D108" s="1">
-        <v>61.092509999999997</v>
+        <v>61.082700000000003</v>
       </c>
       <c r="E108" s="1">
-        <v>98.66695</v>
+        <v>98.832920000000001</v>
       </c>
       <c r="F108" s="1">
-        <v>4.510612E-2</v>
+        <v>4.5174800000000001E-2</v>
       </c>
       <c r="G108" s="1">
-        <v>1.0000020000000001</v>
+        <v>1.000003</v>
       </c>
       <c r="H108" s="1">
-        <v>6.4133700000000002E-2</v>
+        <v>6.4212400000000003E-2</v>
       </c>
       <c r="I108" s="1">
-        <v>0.92699189999999998</v>
+        <v>0.88141420000000004</v>
       </c>
       <c r="J108" s="1">
-        <v>5.070106</v>
+        <v>5.0069169999999996</v>
       </c>
       <c r="K108" s="1">
-        <v>19.74277</v>
+        <v>19.633520000000001</v>
       </c>
       <c r="L108" s="1">
-        <v>46.156680000000001</v>
+        <v>45.907640000000001</v>
       </c>
       <c r="M108" s="1">
-        <v>13.880549999999999</v>
+        <v>13.803739999999999</v>
       </c>
       <c r="N108" s="1">
-        <v>16.773540000000001</v>
+        <v>16.829070000000002</v>
       </c>
       <c r="O108" s="1">
-        <v>998.99220000000003</v>
+        <v>998.93979999999999</v>
       </c>
       <c r="P108" s="1">
-        <v>46.910418759999999</v>
+        <v>46.910408879999999</v>
       </c>
       <c r="Q108" s="1">
-        <v>-91.051795949999999</v>
+        <v>-91.051800119999996</v>
       </c>
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>45098.559930555559</v>
+        <v>45098.559942129628</v>
       </c>
       <c r="B109" s="1">
-        <v>8.5780239999999992</v>
+        <v>8.5491759999999992</v>
       </c>
       <c r="C109" s="1">
-        <v>11.084099999999999</v>
+        <v>11.080019999999999</v>
       </c>
       <c r="D109" s="1">
-        <v>61.082700000000003</v>
+        <v>61.080590000000001</v>
       </c>
       <c r="E109" s="1">
-        <v>98.832920000000001</v>
+        <v>98.842759999999998</v>
       </c>
       <c r="F109" s="1">
-        <v>4.5174800000000001E-2</v>
+        <v>4.5178740000000002E-2</v>
       </c>
       <c r="G109" s="1">
         <v>1.000003</v>
       </c>
       <c r="H109" s="1">
-        <v>6.4212400000000003E-2</v>
+        <v>6.4217189999999993E-2</v>
       </c>
       <c r="I109" s="1">
-        <v>0.88141420000000004</v>
+        <v>0.88029740000000001</v>
       </c>
       <c r="J109" s="1">
-        <v>5.0069169999999996</v>
+        <v>4.9996640000000001</v>
       </c>
       <c r="K109" s="1">
-        <v>19.633520000000001</v>
+        <v>19.60547</v>
       </c>
       <c r="L109" s="1">
-        <v>45.907640000000001</v>
+        <v>45.842959999999998</v>
       </c>
       <c r="M109" s="1">
-        <v>13.803739999999999</v>
+        <v>13.78402</v>
       </c>
       <c r="N109" s="1">
-        <v>16.829070000000002</v>
+        <v>16.833749999999998</v>
       </c>
       <c r="O109" s="1">
-        <v>998.93979999999999</v>
+        <v>998.93610000000001</v>
       </c>
       <c r="P109" s="1">
         <v>46.910408879999999</v>
@@ -6300,49 +6351,49 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>45098.559942129628</v>
+        <v>45098.559953703705</v>
       </c>
       <c r="B110" s="1">
-        <v>8.5491759999999992</v>
+        <v>8.5203290000000003</v>
       </c>
       <c r="C110" s="1">
-        <v>11.080019999999999</v>
+        <v>11.075950000000001</v>
       </c>
       <c r="D110" s="1">
-        <v>61.080590000000001</v>
+        <v>61.078479999999999</v>
       </c>
       <c r="E110" s="1">
-        <v>98.842759999999998</v>
+        <v>98.852599999999995</v>
       </c>
       <c r="F110" s="1">
-        <v>4.5178740000000002E-2</v>
+        <v>4.5182680000000003E-2</v>
       </c>
       <c r="G110" s="1">
         <v>1.000003</v>
       </c>
       <c r="H110" s="1">
-        <v>6.4217189999999993E-2</v>
+        <v>6.4221959999999995E-2</v>
       </c>
       <c r="I110" s="1">
-        <v>0.88029740000000001</v>
+        <v>0.87918059999999998</v>
       </c>
       <c r="J110" s="1">
-        <v>4.9996640000000001</v>
+        <v>4.9924119999999998</v>
       </c>
       <c r="K110" s="1">
-        <v>19.60547</v>
+        <v>19.57742</v>
       </c>
       <c r="L110" s="1">
-        <v>45.842959999999998</v>
+        <v>45.778269999999999</v>
       </c>
       <c r="M110" s="1">
-        <v>13.78402</v>
+        <v>13.7643</v>
       </c>
       <c r="N110" s="1">
-        <v>16.833749999999998</v>
+        <v>16.838419999999999</v>
       </c>
       <c r="O110" s="1">
-        <v>998.93610000000001</v>
+        <v>998.93240000000003</v>
       </c>
       <c r="P110" s="1">
         <v>46.910408879999999</v>
@@ -6354,49 +6405,49 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>45098.559953703705</v>
+        <v>45098.559965277775</v>
       </c>
       <c r="B111" s="1">
-        <v>8.5203290000000003</v>
+        <v>8.4914810000000003</v>
       </c>
       <c r="C111" s="1">
-        <v>11.075950000000001</v>
+        <v>11.071870000000001</v>
       </c>
       <c r="D111" s="1">
-        <v>61.078479999999999</v>
+        <v>61.076360000000001</v>
       </c>
       <c r="E111" s="1">
-        <v>98.852599999999995</v>
+        <v>98.862430000000003</v>
       </c>
       <c r="F111" s="1">
-        <v>4.5182680000000003E-2</v>
+        <v>4.5186610000000002E-2</v>
       </c>
       <c r="G111" s="1">
         <v>1.000003</v>
       </c>
       <c r="H111" s="1">
-        <v>6.4221959999999995E-2</v>
+        <v>6.4226749999999999E-2</v>
       </c>
       <c r="I111" s="1">
-        <v>0.87918059999999998</v>
+        <v>0.8780637</v>
       </c>
       <c r="J111" s="1">
-        <v>4.9924119999999998</v>
+        <v>4.9851590000000003</v>
       </c>
       <c r="K111" s="1">
-        <v>19.57742</v>
+        <v>19.54937</v>
       </c>
       <c r="L111" s="1">
-        <v>45.778269999999999</v>
+        <v>45.71358</v>
       </c>
       <c r="M111" s="1">
-        <v>13.7643</v>
+        <v>13.744579999999999</v>
       </c>
       <c r="N111" s="1">
-        <v>16.838419999999999</v>
+        <v>16.8431</v>
       </c>
       <c r="O111" s="1">
-        <v>998.93240000000003</v>
+        <v>998.92870000000005</v>
       </c>
       <c r="P111" s="1">
         <v>46.910408879999999</v>
@@ -6408,103 +6459,103 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>45098.559965277775</v>
+        <v>45098.559976851851</v>
       </c>
       <c r="B112" s="1">
-        <v>8.4914810000000003</v>
+        <v>8.4714960000000001</v>
       </c>
       <c r="C112" s="1">
-        <v>11.071870000000001</v>
+        <v>11.14785</v>
       </c>
       <c r="D112" s="1">
-        <v>61.076360000000001</v>
+        <v>61.09037</v>
       </c>
       <c r="E112" s="1">
-        <v>98.862430000000003</v>
+        <v>99.051419999999993</v>
       </c>
       <c r="F112" s="1">
-        <v>4.5186610000000002E-2</v>
+        <v>4.5266939999999999E-2</v>
       </c>
       <c r="G112" s="1">
-        <v>1.000003</v>
+        <v>1.0000039999999999</v>
       </c>
       <c r="H112" s="1">
-        <v>6.4226749999999999E-2</v>
+        <v>6.4380179999999995E-2</v>
       </c>
       <c r="I112" s="1">
-        <v>0.8780637</v>
+        <v>0.81760359999999999</v>
       </c>
       <c r="J112" s="1">
-        <v>4.9851590000000003</v>
+        <v>4.9850120000000002</v>
       </c>
       <c r="K112" s="1">
-        <v>19.54937</v>
+        <v>19.11337</v>
       </c>
       <c r="L112" s="1">
-        <v>45.71358</v>
+        <v>44.702019999999997</v>
       </c>
       <c r="M112" s="1">
-        <v>13.744579999999999</v>
+        <v>13.438029999999999</v>
       </c>
       <c r="N112" s="1">
-        <v>16.8431</v>
+        <v>16.80003</v>
       </c>
       <c r="O112" s="1">
-        <v>998.92870000000005</v>
+        <v>998.93060000000003</v>
       </c>
       <c r="P112" s="1">
-        <v>46.910408879999999</v>
+        <v>46.910401229999998</v>
       </c>
       <c r="Q112" s="1">
-        <v>-91.051800119999996</v>
+        <v>-91.051807719999999</v>
       </c>
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>45098.559976851851</v>
+        <v>45098.559988425928</v>
       </c>
       <c r="B113" s="1">
-        <v>8.4714960000000001</v>
+        <v>8.4616089999999993</v>
       </c>
       <c r="C113" s="1">
-        <v>11.14785</v>
+        <v>11.14636</v>
       </c>
       <c r="D113" s="1">
-        <v>61.09037</v>
+        <v>61.090769999999999</v>
       </c>
       <c r="E113" s="1">
-        <v>99.051419999999993</v>
+        <v>99.065269999999998</v>
       </c>
       <c r="F113" s="1">
-        <v>4.5266939999999999E-2</v>
+        <v>4.5272779999999999E-2</v>
       </c>
       <c r="G113" s="1">
         <v>1.0000039999999999</v>
       </c>
       <c r="H113" s="1">
-        <v>6.4380179999999995E-2</v>
+        <v>6.4390030000000001E-2</v>
       </c>
       <c r="I113" s="1">
-        <v>0.81760359999999999</v>
+        <v>0.81347360000000002</v>
       </c>
       <c r="J113" s="1">
-        <v>4.9850120000000002</v>
+        <v>4.9832669999999997</v>
       </c>
       <c r="K113" s="1">
-        <v>19.11337</v>
+        <v>19.087260000000001</v>
       </c>
       <c r="L113" s="1">
-        <v>44.702019999999997</v>
+        <v>44.641579999999998</v>
       </c>
       <c r="M113" s="1">
-        <v>13.438029999999999</v>
+        <v>13.41968</v>
       </c>
       <c r="N113" s="1">
-        <v>16.80003</v>
+        <v>16.79927</v>
       </c>
       <c r="O113" s="1">
-        <v>998.93060000000003</v>
+        <v>998.92939999999999</v>
       </c>
       <c r="P113" s="1">
         <v>46.910401229999998</v>
@@ -6516,49 +6567,49 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>45098.559988425928</v>
+        <v>45098.559999999998</v>
       </c>
       <c r="B114" s="1">
-        <v>8.4616089999999993</v>
+        <v>8.4517229999999994</v>
       </c>
       <c r="C114" s="1">
-        <v>11.14636</v>
+        <v>11.144869999999999</v>
       </c>
       <c r="D114" s="1">
-        <v>61.090769999999999</v>
+        <v>61.091180000000001</v>
       </c>
       <c r="E114" s="1">
-        <v>99.065269999999998</v>
+        <v>99.079120000000003</v>
       </c>
       <c r="F114" s="1">
-        <v>4.5272779999999999E-2</v>
+        <v>4.5278609999999997E-2</v>
       </c>
       <c r="G114" s="1">
         <v>1.0000039999999999</v>
       </c>
       <c r="H114" s="1">
-        <v>6.4390030000000001E-2</v>
+        <v>6.4399880000000007E-2</v>
       </c>
       <c r="I114" s="1">
-        <v>0.81347360000000002</v>
+        <v>0.8093437</v>
       </c>
       <c r="J114" s="1">
-        <v>4.9832669999999997</v>
+        <v>4.981522</v>
       </c>
       <c r="K114" s="1">
-        <v>19.087260000000001</v>
+        <v>19.061160000000001</v>
       </c>
       <c r="L114" s="1">
-        <v>44.641579999999998</v>
+        <v>44.581130000000002</v>
       </c>
       <c r="M114" s="1">
-        <v>13.41968</v>
+        <v>13.40133</v>
       </c>
       <c r="N114" s="1">
-        <v>16.79927</v>
+        <v>16.79851</v>
       </c>
       <c r="O114" s="1">
-        <v>998.92939999999999</v>
+        <v>998.92819999999995</v>
       </c>
       <c r="P114" s="1">
         <v>46.910401229999998</v>
@@ -6570,103 +6621,103 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>45098.559999999998</v>
+        <v>45098.560011574074</v>
       </c>
       <c r="B115" s="1">
-        <v>8.4517229999999994</v>
+        <v>8.4470369999999999</v>
       </c>
       <c r="C115" s="1">
-        <v>11.144869999999999</v>
+        <v>10.73368</v>
       </c>
       <c r="D115" s="1">
-        <v>61.091180000000001</v>
+        <v>61.041849999999997</v>
       </c>
       <c r="E115" s="1">
-        <v>99.079120000000003</v>
+        <v>99.091440000000006</v>
       </c>
       <c r="F115" s="1">
-        <v>4.5278609999999997E-2</v>
+        <v>4.5279350000000003E-2</v>
       </c>
       <c r="G115" s="1">
-        <v>1.0000039999999999</v>
+        <v>1.000005</v>
       </c>
       <c r="H115" s="1">
-        <v>6.4399880000000007E-2</v>
+        <v>6.4408670000000001E-2</v>
       </c>
       <c r="I115" s="1">
-        <v>0.8093437</v>
+        <v>0.86539239999999995</v>
       </c>
       <c r="J115" s="1">
-        <v>4.981522</v>
+        <v>4.9019300000000001</v>
       </c>
       <c r="K115" s="1">
-        <v>19.061160000000001</v>
+        <v>18.960899999999999</v>
       </c>
       <c r="L115" s="1">
-        <v>44.581130000000002</v>
+        <v>44.356259999999999</v>
       </c>
       <c r="M115" s="1">
-        <v>13.40133</v>
+        <v>13.272489999999999</v>
       </c>
       <c r="N115" s="1">
-        <v>16.79851</v>
+        <v>16.820620000000002</v>
       </c>
       <c r="O115" s="1">
-        <v>998.92819999999995</v>
+        <v>998.99959999999999</v>
       </c>
       <c r="P115" s="1">
-        <v>46.910401229999998</v>
+        <v>46.910390239999998</v>
       </c>
       <c r="Q115" s="1">
-        <v>-91.051807719999999</v>
+        <v>-91.051809500000005</v>
       </c>
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>45098.560011574074</v>
+        <v>45098.560023148151</v>
       </c>
       <c r="B116" s="1">
-        <v>8.4470369999999999</v>
+        <v>8.4454410000000006</v>
       </c>
       <c r="C116" s="1">
-        <v>10.73368</v>
+        <v>10.71457</v>
       </c>
       <c r="D116" s="1">
-        <v>61.041849999999997</v>
+        <v>61.039619999999999</v>
       </c>
       <c r="E116" s="1">
-        <v>99.091440000000006</v>
+        <v>99.096559999999997</v>
       </c>
       <c r="F116" s="1">
-        <v>4.5279350000000003E-2</v>
+        <v>4.5281290000000002E-2</v>
       </c>
       <c r="G116" s="1">
         <v>1.000005</v>
       </c>
       <c r="H116" s="1">
-        <v>6.4408670000000001E-2</v>
+        <v>6.4412650000000002E-2</v>
       </c>
       <c r="I116" s="1">
-        <v>0.86539239999999995</v>
+        <v>0.86682570000000003</v>
       </c>
       <c r="J116" s="1">
-        <v>4.9019300000000001</v>
+        <v>4.8977079999999997</v>
       </c>
       <c r="K116" s="1">
-        <v>18.960899999999999</v>
+        <v>18.94539</v>
       </c>
       <c r="L116" s="1">
-        <v>44.356259999999999</v>
+        <v>44.320680000000003</v>
       </c>
       <c r="M116" s="1">
-        <v>13.272489999999999</v>
+        <v>13.258660000000001</v>
       </c>
       <c r="N116" s="1">
-        <v>16.820620000000002</v>
+        <v>16.820920000000001</v>
       </c>
       <c r="O116" s="1">
-        <v>998.99959999999999</v>
+        <v>999.00319999999999</v>
       </c>
       <c r="P116" s="1">
         <v>46.910390239999998</v>
@@ -6678,49 +6729,49 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45098.560023148151</v>
+        <v>45098.560034722221</v>
       </c>
       <c r="B117" s="1">
-        <v>8.4454410000000006</v>
+        <v>8.4438460000000006</v>
       </c>
       <c r="C117" s="1">
-        <v>10.71457</v>
+        <v>10.695460000000001</v>
       </c>
       <c r="D117" s="1">
-        <v>61.039619999999999</v>
+        <v>61.037399999999998</v>
       </c>
       <c r="E117" s="1">
-        <v>99.096559999999997</v>
+        <v>99.101669999999999</v>
       </c>
       <c r="F117" s="1">
-        <v>4.5281290000000002E-2</v>
+        <v>4.5283230000000001E-2</v>
       </c>
       <c r="G117" s="1">
         <v>1.000005</v>
       </c>
       <c r="H117" s="1">
-        <v>6.4412650000000002E-2</v>
+        <v>6.4416639999999997E-2</v>
       </c>
       <c r="I117" s="1">
-        <v>0.86682570000000003</v>
+        <v>0.86825909999999995</v>
       </c>
       <c r="J117" s="1">
-        <v>4.8977079999999997</v>
+        <v>4.8934870000000004</v>
       </c>
       <c r="K117" s="1">
-        <v>18.94539</v>
+        <v>18.929880000000001</v>
       </c>
       <c r="L117" s="1">
-        <v>44.320680000000003</v>
+        <v>44.285089999999997</v>
       </c>
       <c r="M117" s="1">
-        <v>13.258660000000001</v>
+        <v>13.24483</v>
       </c>
       <c r="N117" s="1">
-        <v>16.820920000000001</v>
+        <v>16.82123</v>
       </c>
       <c r="O117" s="1">
-        <v>999.00319999999999</v>
+        <v>999.00670000000002</v>
       </c>
       <c r="P117" s="1">
         <v>46.910390239999998</v>
@@ -6732,103 +6783,103 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>45098.560034722221</v>
+        <v>45098.560046296298</v>
       </c>
       <c r="B118" s="1">
-        <v>8.4438460000000006</v>
+        <v>8.5361410000000006</v>
       </c>
       <c r="C118" s="1">
-        <v>10.695460000000001</v>
+        <v>10.755570000000001</v>
       </c>
       <c r="D118" s="1">
-        <v>61.037399999999998</v>
+        <v>61.135649999999998</v>
       </c>
       <c r="E118" s="1">
-        <v>99.101669999999999</v>
+        <v>99.480260000000001</v>
       </c>
       <c r="F118" s="1">
-        <v>4.5283230000000001E-2</v>
+        <v>4.5450280000000003E-2</v>
       </c>
       <c r="G118" s="1">
-        <v>1.000005</v>
+        <v>1.000006</v>
       </c>
       <c r="H118" s="1">
-        <v>6.4416639999999997E-2</v>
+        <v>6.4662170000000005E-2</v>
       </c>
       <c r="I118" s="1">
-        <v>0.86825909999999995</v>
+        <v>0.89072079999999998</v>
       </c>
       <c r="J118" s="1">
-        <v>4.8934870000000004</v>
+        <v>4.8571629999999999</v>
       </c>
       <c r="K118" s="1">
-        <v>18.929880000000001</v>
+        <v>17.83398</v>
       </c>
       <c r="L118" s="1">
-        <v>44.285089999999997</v>
+        <v>41.712119999999999</v>
       </c>
       <c r="M118" s="1">
-        <v>13.24483</v>
+        <v>12.531470000000001</v>
       </c>
       <c r="N118" s="1">
-        <v>16.82123</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="O118" s="1">
-        <v>999.00670000000002</v>
+        <v>998.99009999999998</v>
       </c>
       <c r="P118" s="1">
-        <v>46.910390239999998</v>
+        <v>46.910377680000003</v>
       </c>
       <c r="Q118" s="1">
-        <v>-91.051809500000005</v>
+        <v>-91.051810259999996</v>
       </c>
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>45098.560046296298</v>
+        <v>45098.560057870367</v>
       </c>
       <c r="B119" s="1">
-        <v>8.5361410000000006</v>
+        <v>8.5404610000000005</v>
       </c>
       <c r="C119" s="1">
-        <v>10.755570000000001</v>
+        <v>10.749919999999999</v>
       </c>
       <c r="D119" s="1">
-        <v>61.135649999999998</v>
+        <v>61.139600000000002</v>
       </c>
       <c r="E119" s="1">
-        <v>99.480260000000001</v>
+        <v>99.499960000000002</v>
       </c>
       <c r="F119" s="1">
-        <v>4.5450280000000003E-2</v>
+        <v>4.5458859999999997E-2</v>
       </c>
       <c r="G119" s="1">
         <v>1.000006</v>
       </c>
       <c r="H119" s="1">
-        <v>6.4662170000000005E-2</v>
+        <v>6.4674969999999998E-2</v>
       </c>
       <c r="I119" s="1">
-        <v>0.89072079999999998</v>
+        <v>0.89294280000000004</v>
       </c>
       <c r="J119" s="1">
-        <v>4.8571629999999999</v>
+        <v>4.8536130000000002</v>
       </c>
       <c r="K119" s="1">
-        <v>17.83398</v>
+        <v>17.775939999999999</v>
       </c>
       <c r="L119" s="1">
-        <v>41.712119999999999</v>
+        <v>41.576079999999997</v>
       </c>
       <c r="M119" s="1">
-        <v>12.531470000000001</v>
+        <v>12.492330000000001</v>
       </c>
       <c r="N119" s="1">
-        <v>16.829999999999998</v>
+        <v>16.8309</v>
       </c>
       <c r="O119" s="1">
-        <v>998.99009999999998</v>
+        <v>998.99069999999995</v>
       </c>
       <c r="P119" s="1">
         <v>46.910377680000003</v>
@@ -6840,49 +6891,49 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>45098.560057870367</v>
+        <v>45098.560069444444</v>
       </c>
       <c r="B120" s="1">
-        <v>8.5404610000000005</v>
+        <v>8.5447799999999994</v>
       </c>
       <c r="C120" s="1">
-        <v>10.749919999999999</v>
+        <v>10.74427</v>
       </c>
       <c r="D120" s="1">
-        <v>61.139600000000002</v>
+        <v>61.143540000000002</v>
       </c>
       <c r="E120" s="1">
-        <v>99.499960000000002</v>
+        <v>99.519660000000002</v>
       </c>
       <c r="F120" s="1">
-        <v>4.5458859999999997E-2</v>
+        <v>4.546745E-2</v>
       </c>
       <c r="G120" s="1">
         <v>1.000006</v>
       </c>
       <c r="H120" s="1">
-        <v>6.4674969999999998E-2</v>
+        <v>6.468778E-2</v>
       </c>
       <c r="I120" s="1">
-        <v>0.89294280000000004</v>
+        <v>0.89516490000000004</v>
       </c>
       <c r="J120" s="1">
-        <v>4.8536130000000002</v>
+        <v>4.8500629999999996</v>
       </c>
       <c r="K120" s="1">
-        <v>17.775939999999999</v>
+        <v>17.717890000000001</v>
       </c>
       <c r="L120" s="1">
-        <v>41.576079999999997</v>
+        <v>41.440040000000003</v>
       </c>
       <c r="M120" s="1">
-        <v>12.492330000000001</v>
+        <v>12.45318</v>
       </c>
       <c r="N120" s="1">
-        <v>16.8309</v>
+        <v>16.831800000000001</v>
       </c>
       <c r="O120" s="1">
-        <v>998.99069999999995</v>
+        <v>998.99130000000002</v>
       </c>
       <c r="P120" s="1">
         <v>46.910377680000003</v>
@@ -6894,103 +6945,103 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>45098.560069444444</v>
+        <v>45098.560081018521</v>
       </c>
       <c r="B121" s="1">
-        <v>8.5447799999999994</v>
+        <v>8.3847489999999993</v>
       </c>
       <c r="C121" s="1">
-        <v>10.74427</v>
+        <v>10.812110000000001</v>
       </c>
       <c r="D121" s="1">
-        <v>61.143540000000002</v>
+        <v>61.081040000000002</v>
       </c>
       <c r="E121" s="1">
-        <v>99.519660000000002</v>
+        <v>99.436109999999999</v>
       </c>
       <c r="F121" s="1">
-        <v>4.546745E-2</v>
+        <v>4.5426899999999999E-2</v>
       </c>
       <c r="G121" s="1">
         <v>1.000006</v>
       </c>
       <c r="H121" s="1">
-        <v>6.468778E-2</v>
+        <v>6.4633469999999998E-2</v>
       </c>
       <c r="I121" s="1">
-        <v>0.89516490000000004</v>
+        <v>0.87199870000000002</v>
       </c>
       <c r="J121" s="1">
-        <v>4.8500629999999996</v>
+        <v>4.8094340000000004</v>
       </c>
       <c r="K121" s="1">
-        <v>17.717890000000001</v>
+        <v>17.128540000000001</v>
       </c>
       <c r="L121" s="1">
-        <v>41.440040000000003</v>
+        <v>40.118290000000002</v>
       </c>
       <c r="M121" s="1">
-        <v>12.45318</v>
+        <v>12.04041</v>
       </c>
       <c r="N121" s="1">
-        <v>16.831800000000001</v>
+        <v>16.816230000000001</v>
       </c>
       <c r="O121" s="1">
-        <v>998.99130000000002</v>
+        <v>998.95590000000004</v>
       </c>
       <c r="P121" s="1">
-        <v>46.910377680000003</v>
+        <v>46.91036871</v>
       </c>
       <c r="Q121" s="1">
-        <v>-91.051810259999996</v>
+        <v>-91.051808980000004</v>
       </c>
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>45098.560081018521</v>
+        <v>45098.56009259259</v>
       </c>
       <c r="B122" s="1">
-        <v>8.3847489999999993</v>
+        <v>8.3784069999999993</v>
       </c>
       <c r="C122" s="1">
-        <v>10.812110000000001</v>
+        <v>10.81677</v>
       </c>
       <c r="D122" s="1">
-        <v>61.081040000000002</v>
+        <v>61.07985</v>
       </c>
       <c r="E122" s="1">
-        <v>99.436109999999999</v>
+        <v>99.439750000000004</v>
       </c>
       <c r="F122" s="1">
-        <v>4.5426899999999999E-2</v>
+        <v>4.542831E-2</v>
       </c>
       <c r="G122" s="1">
         <v>1.000006</v>
       </c>
       <c r="H122" s="1">
-        <v>6.4633469999999998E-2</v>
+        <v>6.463584E-2</v>
       </c>
       <c r="I122" s="1">
-        <v>0.87199870000000002</v>
+        <v>0.87126499999999996</v>
       </c>
       <c r="J122" s="1">
-        <v>4.8094340000000004</v>
+        <v>4.8065619999999996</v>
       </c>
       <c r="K122" s="1">
-        <v>17.128540000000001</v>
+        <v>17.075220000000002</v>
       </c>
       <c r="L122" s="1">
-        <v>40.118290000000002</v>
+        <v>39.996310000000001</v>
       </c>
       <c r="M122" s="1">
-        <v>12.04041</v>
+        <v>12.00417</v>
       </c>
       <c r="N122" s="1">
-        <v>16.816230000000001</v>
+        <v>16.8156</v>
       </c>
       <c r="O122" s="1">
-        <v>998.95590000000004</v>
+        <v>998.9538</v>
       </c>
       <c r="P122" s="1">
         <v>46.91036871</v>
@@ -7002,49 +7053,49 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>45098.56009259259</v>
+        <v>45098.560104166667</v>
       </c>
       <c r="B123" s="1">
-        <v>8.3784069999999993</v>
+        <v>8.372064</v>
       </c>
       <c r="C123" s="1">
-        <v>10.81677</v>
+        <v>10.821429999999999</v>
       </c>
       <c r="D123" s="1">
-        <v>61.07985</v>
+        <v>61.078659999999999</v>
       </c>
       <c r="E123" s="1">
-        <v>99.439750000000004</v>
+        <v>99.443389999999994</v>
       </c>
       <c r="F123" s="1">
-        <v>4.542831E-2</v>
+        <v>4.5429730000000001E-2</v>
       </c>
       <c r="G123" s="1">
         <v>1.000006</v>
       </c>
       <c r="H123" s="1">
-        <v>6.463584E-2</v>
+        <v>6.4638200000000007E-2</v>
       </c>
       <c r="I123" s="1">
-        <v>0.87126499999999996</v>
+        <v>0.87053130000000001</v>
       </c>
       <c r="J123" s="1">
-        <v>4.8065619999999996</v>
+        <v>4.8036899999999996</v>
       </c>
       <c r="K123" s="1">
-        <v>17.075220000000002</v>
+        <v>17.021909999999998</v>
       </c>
       <c r="L123" s="1">
-        <v>39.996310000000001</v>
+        <v>39.87433</v>
       </c>
       <c r="M123" s="1">
-        <v>12.00417</v>
+        <v>11.96794</v>
       </c>
       <c r="N123" s="1">
-        <v>16.8156</v>
+        <v>16.814969999999999</v>
       </c>
       <c r="O123" s="1">
-        <v>998.9538</v>
+        <v>998.95169999999996</v>
       </c>
       <c r="P123" s="1">
         <v>46.91036871</v>
@@ -7056,49 +7107,49 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>45098.560104166667</v>
+        <v>45098.560115740744</v>
       </c>
       <c r="B124" s="1">
-        <v>8.372064</v>
+        <v>8.3043110000000002</v>
       </c>
       <c r="C124" s="1">
-        <v>10.821429999999999</v>
+        <v>10.76764</v>
       </c>
       <c r="D124" s="1">
-        <v>61.078659999999999</v>
+        <v>61.088239999999999</v>
       </c>
       <c r="E124" s="1">
-        <v>99.443389999999994</v>
+        <v>99.543589999999995</v>
       </c>
       <c r="F124" s="1">
-        <v>4.5429730000000001E-2</v>
+        <v>4.547242E-2</v>
       </c>
       <c r="G124" s="1">
-        <v>1.000006</v>
+        <v>1.0000070000000001</v>
       </c>
       <c r="H124" s="1">
-        <v>6.4638200000000007E-2</v>
+        <v>6.4703339999999998E-2</v>
       </c>
       <c r="I124" s="1">
-        <v>0.87053130000000001</v>
+        <v>0.757772</v>
       </c>
       <c r="J124" s="1">
-        <v>4.8036899999999996</v>
+        <v>4.7754659999999998</v>
       </c>
       <c r="K124" s="1">
-        <v>17.021909999999998</v>
+        <v>15.705870000000001</v>
       </c>
       <c r="L124" s="1">
-        <v>39.87433</v>
+        <v>36.843040000000002</v>
       </c>
       <c r="M124" s="1">
-        <v>11.96794</v>
+        <v>11.04233</v>
       </c>
       <c r="N124" s="1">
-        <v>16.814969999999999</v>
+        <v>17.105239999999998</v>
       </c>
       <c r="O124" s="1">
-        <v>998.95169999999996</v>
+        <v>998.94259999999997</v>
       </c>
       <c r="P124" s="1">
         <v>46.91036871</v>
@@ -7110,49 +7161,49 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>45098.560115740744</v>
+        <v>45098.560127314813</v>
       </c>
       <c r="B125" s="1">
-        <v>8.3043110000000002</v>
+        <v>8.2974340000000009</v>
       </c>
       <c r="C125" s="1">
-        <v>10.76764</v>
+        <v>10.766209999999999</v>
       </c>
       <c r="D125" s="1">
-        <v>61.088239999999999</v>
+        <v>61.087400000000002</v>
       </c>
       <c r="E125" s="1">
-        <v>99.543589999999995</v>
+        <v>99.546970000000002</v>
       </c>
       <c r="F125" s="1">
-        <v>4.547242E-2</v>
+        <v>4.5473760000000002E-2</v>
       </c>
       <c r="G125" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H125" s="1">
-        <v>6.4703339999999998E-2</v>
+        <v>6.4705540000000006E-2</v>
       </c>
       <c r="I125" s="1">
-        <v>0.757772</v>
+        <v>0.75147799999999998</v>
       </c>
       <c r="J125" s="1">
-        <v>4.7754659999999998</v>
+        <v>4.7731389999999996</v>
       </c>
       <c r="K125" s="1">
-        <v>15.705870000000001</v>
+        <v>15.62562</v>
       </c>
       <c r="L125" s="1">
-        <v>36.843040000000002</v>
+        <v>36.658940000000001</v>
       </c>
       <c r="M125" s="1">
-        <v>11.04233</v>
+        <v>10.985910000000001</v>
       </c>
       <c r="N125" s="1">
-        <v>17.105239999999998</v>
+        <v>17.119890000000002</v>
       </c>
       <c r="O125" s="1">
-        <v>998.94259999999997</v>
+        <v>998.94140000000004</v>
       </c>
       <c r="P125" s="1">
         <v>46.91036871</v>
@@ -7164,49 +7215,49 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45098.560127314813</v>
+        <v>45098.56013888889</v>
       </c>
       <c r="B126" s="1">
-        <v>8.2974340000000009</v>
+        <v>8.2905569999999997</v>
       </c>
       <c r="C126" s="1">
-        <v>10.766209999999999</v>
+        <v>10.76477</v>
       </c>
       <c r="D126" s="1">
-        <v>61.087400000000002</v>
+        <v>61.086559999999999</v>
       </c>
       <c r="E126" s="1">
-        <v>99.546970000000002</v>
+        <v>99.550359999999998</v>
       </c>
       <c r="F126" s="1">
-        <v>4.5473760000000002E-2</v>
+        <v>4.5475099999999997E-2</v>
       </c>
       <c r="G126" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H126" s="1">
-        <v>6.4705540000000006E-2</v>
+        <v>6.4707730000000005E-2</v>
       </c>
       <c r="I126" s="1">
-        <v>0.75147799999999998</v>
+        <v>0.74518390000000001</v>
       </c>
       <c r="J126" s="1">
-        <v>4.7731389999999996</v>
+        <v>4.7708130000000004</v>
       </c>
       <c r="K126" s="1">
-        <v>15.62562</v>
+        <v>15.54537</v>
       </c>
       <c r="L126" s="1">
-        <v>36.658940000000001</v>
+        <v>36.474850000000004</v>
       </c>
       <c r="M126" s="1">
-        <v>10.985910000000001</v>
+        <v>10.92948</v>
       </c>
       <c r="N126" s="1">
-        <v>17.119890000000002</v>
+        <v>17.134530000000002</v>
       </c>
       <c r="O126" s="1">
-        <v>998.94140000000004</v>
+        <v>998.9402</v>
       </c>
       <c r="P126" s="1">
         <v>46.91036871</v>
@@ -7218,49 +7269,49 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>45098.56013888889</v>
+        <v>45098.560150462959</v>
       </c>
       <c r="B127" s="1">
-        <v>8.2905569999999997</v>
+        <v>8.2836789999999993</v>
       </c>
       <c r="C127" s="1">
-        <v>10.76477</v>
+        <v>10.763339999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>61.086559999999999</v>
+        <v>61.085720000000002</v>
       </c>
       <c r="E127" s="1">
-        <v>99.550359999999998</v>
+        <v>99.553749999999994</v>
       </c>
       <c r="F127" s="1">
-        <v>4.5475099999999997E-2</v>
+        <v>4.547644E-2</v>
       </c>
       <c r="G127" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H127" s="1">
-        <v>6.4707730000000005E-2</v>
+        <v>6.4709939999999994E-2</v>
       </c>
       <c r="I127" s="1">
-        <v>0.74518390000000001</v>
+        <v>0.73888989999999999</v>
       </c>
       <c r="J127" s="1">
-        <v>4.7708130000000004</v>
+        <v>4.7684860000000002</v>
       </c>
       <c r="K127" s="1">
-        <v>15.54537</v>
+        <v>15.465109999999999</v>
       </c>
       <c r="L127" s="1">
-        <v>36.474850000000004</v>
+        <v>36.290750000000003</v>
       </c>
       <c r="M127" s="1">
-        <v>10.92948</v>
+        <v>10.873060000000001</v>
       </c>
       <c r="N127" s="1">
-        <v>17.134530000000002</v>
+        <v>17.149180000000001</v>
       </c>
       <c r="O127" s="1">
-        <v>998.9402</v>
+        <v>998.93899999999996</v>
       </c>
       <c r="P127" s="1">
         <v>46.91036871</v>
@@ -7272,103 +7323,103 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>45098.560150462959</v>
+        <v>45098.560162037036</v>
       </c>
       <c r="B128" s="1">
-        <v>8.2836789999999993</v>
+        <v>8.276802</v>
       </c>
       <c r="C128" s="1">
-        <v>10.763339999999999</v>
+        <v>10.76191</v>
       </c>
       <c r="D128" s="1">
-        <v>61.085720000000002</v>
+        <v>61.084879999999998</v>
       </c>
       <c r="E128" s="1">
-        <v>99.553749999999994</v>
+        <v>99.557140000000004</v>
       </c>
       <c r="F128" s="1">
-        <v>4.547644E-2</v>
+        <v>4.5477770000000001E-2</v>
       </c>
       <c r="G128" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H128" s="1">
-        <v>6.4709939999999994E-2</v>
+        <v>6.4712140000000001E-2</v>
       </c>
       <c r="I128" s="1">
-        <v>0.73888989999999999</v>
+        <v>0.73259589999999997</v>
       </c>
       <c r="J128" s="1">
-        <v>4.7684860000000002</v>
+        <v>4.766159</v>
       </c>
       <c r="K128" s="1">
-        <v>15.465109999999999</v>
+        <v>15.38486</v>
       </c>
       <c r="L128" s="1">
-        <v>36.290750000000003</v>
+        <v>36.106659999999998</v>
       </c>
       <c r="M128" s="1">
-        <v>10.873060000000001</v>
+        <v>10.81663</v>
       </c>
       <c r="N128" s="1">
-        <v>17.149180000000001</v>
+        <v>17.163820000000001</v>
       </c>
       <c r="O128" s="1">
-        <v>998.93899999999996</v>
+        <v>998.93780000000004</v>
       </c>
       <c r="P128" s="1">
-        <v>46.91036871</v>
+        <v>46.910358889999998</v>
       </c>
       <c r="Q128" s="1">
-        <v>-91.051808980000004</v>
+        <v>-91.051804750000002</v>
       </c>
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>45098.560162037036</v>
+        <v>45098.560173611113</v>
       </c>
       <c r="B129" s="1">
-        <v>8.276802</v>
+        <v>8.2699239999999996</v>
       </c>
       <c r="C129" s="1">
-        <v>10.76191</v>
+        <v>10.760479999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>61.084879999999998</v>
+        <v>61.084040000000002</v>
       </c>
       <c r="E129" s="1">
-        <v>99.557140000000004</v>
+        <v>99.560519999999997</v>
       </c>
       <c r="F129" s="1">
-        <v>4.5477770000000001E-2</v>
+        <v>4.5479110000000003E-2</v>
       </c>
       <c r="G129" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H129" s="1">
-        <v>6.4712140000000001E-2</v>
+        <v>6.4714339999999995E-2</v>
       </c>
       <c r="I129" s="1">
-        <v>0.73259589999999997</v>
+        <v>0.726302</v>
       </c>
       <c r="J129" s="1">
-        <v>4.766159</v>
+        <v>4.7638319999999998</v>
       </c>
       <c r="K129" s="1">
-        <v>15.38486</v>
+        <v>15.30461</v>
       </c>
       <c r="L129" s="1">
-        <v>36.106659999999998</v>
+        <v>35.922559999999997</v>
       </c>
       <c r="M129" s="1">
-        <v>10.81663</v>
+        <v>10.760210000000001</v>
       </c>
       <c r="N129" s="1">
-        <v>17.163820000000001</v>
+        <v>17.178470000000001</v>
       </c>
       <c r="O129" s="1">
-        <v>998.93780000000004</v>
+        <v>998.9366</v>
       </c>
       <c r="P129" s="1">
         <v>46.910358889999998</v>
@@ -7380,49 +7431,49 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>45098.560173611113</v>
+        <v>45098.560185185182</v>
       </c>
       <c r="B130" s="1">
-        <v>8.2699239999999996</v>
+        <v>8.2630470000000003</v>
       </c>
       <c r="C130" s="1">
-        <v>10.760479999999999</v>
+        <v>10.759040000000001</v>
       </c>
       <c r="D130" s="1">
-        <v>61.084040000000002</v>
+        <v>61.083199999999998</v>
       </c>
       <c r="E130" s="1">
-        <v>99.560519999999997</v>
+        <v>99.563900000000004</v>
       </c>
       <c r="F130" s="1">
-        <v>4.5479110000000003E-2</v>
+        <v>4.5480449999999999E-2</v>
       </c>
       <c r="G130" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H130" s="1">
-        <v>6.4714339999999995E-2</v>
+        <v>6.4716540000000003E-2</v>
       </c>
       <c r="I130" s="1">
-        <v>0.726302</v>
+        <v>0.72000799999999998</v>
       </c>
       <c r="J130" s="1">
-        <v>4.7638319999999998</v>
+        <v>4.7615049999999997</v>
       </c>
       <c r="K130" s="1">
-        <v>15.30461</v>
+        <v>15.224349999999999</v>
       </c>
       <c r="L130" s="1">
-        <v>35.922559999999997</v>
+        <v>35.73847</v>
       </c>
       <c r="M130" s="1">
-        <v>10.760210000000001</v>
+        <v>10.70379</v>
       </c>
       <c r="N130" s="1">
-        <v>17.178470000000001</v>
+        <v>17.19312</v>
       </c>
       <c r="O130" s="1">
-        <v>998.9366</v>
+        <v>998.93539999999996</v>
       </c>
       <c r="P130" s="1">
         <v>46.910358889999998</v>
@@ -7434,49 +7485,49 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>45098.560185185182</v>
+        <v>45098.560196759259</v>
       </c>
       <c r="B131" s="1">
-        <v>8.2630470000000003</v>
+        <v>8.2561689999999999</v>
       </c>
       <c r="C131" s="1">
-        <v>10.759040000000001</v>
+        <v>10.75761</v>
       </c>
       <c r="D131" s="1">
-        <v>61.083199999999998</v>
+        <v>61.082360000000001</v>
       </c>
       <c r="E131" s="1">
-        <v>99.563900000000004</v>
+        <v>99.56729</v>
       </c>
       <c r="F131" s="1">
-        <v>4.5480449999999999E-2</v>
+        <v>4.5481790000000001E-2</v>
       </c>
       <c r="G131" s="1">
         <v>1.0000070000000001</v>
       </c>
       <c r="H131" s="1">
-        <v>6.4716540000000003E-2</v>
+        <v>6.4718750000000005E-2</v>
       </c>
       <c r="I131" s="1">
-        <v>0.72000799999999998</v>
+        <v>0.71371390000000001</v>
       </c>
       <c r="J131" s="1">
-        <v>4.7615049999999997</v>
+        <v>4.7591780000000004</v>
       </c>
       <c r="K131" s="1">
-        <v>15.224349999999999</v>
+        <v>15.1441</v>
       </c>
       <c r="L131" s="1">
-        <v>35.73847</v>
+        <v>35.554369999999999</v>
       </c>
       <c r="M131" s="1">
-        <v>10.70379</v>
+        <v>10.647360000000001</v>
       </c>
       <c r="N131" s="1">
-        <v>17.19312</v>
+        <v>17.20776</v>
       </c>
       <c r="O131" s="1">
-        <v>998.93539999999996</v>
+        <v>998.93420000000003</v>
       </c>
       <c r="P131" s="1">
         <v>46.910358889999998</v>
@@ -7488,103 +7539,103 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>45098.560196759259</v>
+        <v>45098.560208333336</v>
       </c>
       <c r="B132" s="1">
-        <v>8.2561689999999999</v>
+        <v>6.5758900000000002</v>
       </c>
       <c r="C132" s="1">
-        <v>10.75761</v>
+        <v>13.21651</v>
       </c>
       <c r="D132" s="1">
-        <v>61.082360000000001</v>
+        <v>63.849640000000001</v>
       </c>
       <c r="E132" s="1">
-        <v>99.56729</v>
+        <v>102.4247</v>
       </c>
       <c r="F132" s="1">
-        <v>4.5481790000000001E-2</v>
+        <v>4.6923380000000001E-2</v>
       </c>
       <c r="G132" s="1">
-        <v>1.0000070000000001</v>
+        <v>0.99999939999999998</v>
       </c>
       <c r="H132" s="1">
-        <v>6.4718750000000005E-2</v>
+        <v>6.6576060000000006E-2</v>
       </c>
       <c r="I132" s="1">
-        <v>0.71371390000000001</v>
+        <v>0.80727119999999997</v>
       </c>
       <c r="J132" s="1">
-        <v>4.7591780000000004</v>
+        <v>5.2824850000000003</v>
       </c>
       <c r="K132" s="1">
-        <v>15.1441</v>
+        <v>7.5783319999999996</v>
       </c>
       <c r="L132" s="1">
-        <v>35.554369999999999</v>
+        <v>17.98837</v>
       </c>
       <c r="M132" s="1">
-        <v>10.647360000000001</v>
+        <v>5.3280979999999998</v>
       </c>
       <c r="N132" s="1">
-        <v>17.20776</v>
+        <v>17.164919999999999</v>
       </c>
       <c r="O132" s="1">
-        <v>998.93420000000003</v>
+        <v>998.91800000000001</v>
       </c>
       <c r="P132" s="1">
-        <v>46.910358889999998</v>
+        <v>46.910349889999999</v>
       </c>
       <c r="Q132" s="1">
-        <v>-91.051804750000002</v>
+        <v>-91.051808600000001</v>
       </c>
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>45098.560208333336</v>
+        <v>45098.560219907406</v>
       </c>
       <c r="B133" s="1">
-        <v>6.5758900000000002</v>
+        <v>6.5042869999999997</v>
       </c>
       <c r="C133" s="1">
-        <v>13.21651</v>
+        <v>13.316459999999999</v>
       </c>
       <c r="D133" s="1">
-        <v>63.849640000000001</v>
+        <v>63.963470000000001</v>
       </c>
       <c r="E133" s="1">
-        <v>102.4247</v>
+        <v>102.5446</v>
       </c>
       <c r="F133" s="1">
-        <v>4.6923380000000001E-2</v>
+        <v>4.6983669999999998E-2</v>
       </c>
       <c r="G133" s="1">
-        <v>0.99999939999999998</v>
+        <v>0.99999910000000003</v>
       </c>
       <c r="H133" s="1">
-        <v>6.6576060000000006E-2</v>
+        <v>6.6654000000000005E-2</v>
       </c>
       <c r="I133" s="1">
-        <v>0.80727119999999997</v>
+        <v>0.80797459999999999</v>
       </c>
       <c r="J133" s="1">
-        <v>5.2824850000000003</v>
+        <v>5.3030689999999998</v>
       </c>
       <c r="K133" s="1">
-        <v>7.5783319999999996</v>
+        <v>7.2289690000000002</v>
       </c>
       <c r="L133" s="1">
-        <v>17.98837</v>
+        <v>17.178080000000001</v>
       </c>
       <c r="M133" s="1">
-        <v>5.3280979999999998</v>
+        <v>5.082471</v>
       </c>
       <c r="N133" s="1">
-        <v>17.164919999999999</v>
+        <v>17.170950000000001</v>
       </c>
       <c r="O133" s="1">
-        <v>998.91800000000001</v>
+        <v>998.91690000000006</v>
       </c>
       <c r="P133" s="1">
         <v>46.910349889999999</v>
@@ -7596,49 +7647,49 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>45098.560219907406</v>
+        <v>45098.560231481482</v>
       </c>
       <c r="B134" s="1">
-        <v>6.5042869999999997</v>
+        <v>6.4326840000000001</v>
       </c>
       <c r="C134" s="1">
-        <v>13.316459999999999</v>
+        <v>13.416410000000001</v>
       </c>
       <c r="D134" s="1">
-        <v>63.963470000000001</v>
+        <v>64.077299999999994</v>
       </c>
       <c r="E134" s="1">
-        <v>102.5446</v>
+        <v>102.66459999999999</v>
       </c>
       <c r="F134" s="1">
-        <v>4.6983669999999998E-2</v>
+        <v>4.7043969999999997E-2</v>
       </c>
       <c r="G134" s="1">
-        <v>0.99999910000000003</v>
+        <v>0.99999879999999997</v>
       </c>
       <c r="H134" s="1">
-        <v>6.6654000000000005E-2</v>
+        <v>6.6731960000000007E-2</v>
       </c>
       <c r="I134" s="1">
-        <v>0.80797459999999999</v>
+        <v>0.80867800000000001</v>
       </c>
       <c r="J134" s="1">
-        <v>5.3030689999999998</v>
+        <v>5.3236540000000003</v>
       </c>
       <c r="K134" s="1">
-        <v>7.2289690000000002</v>
+        <v>6.8796049999999997</v>
       </c>
       <c r="L134" s="1">
-        <v>17.178080000000001</v>
+        <v>16.36778</v>
       </c>
       <c r="M134" s="1">
-        <v>5.082471</v>
+        <v>4.8368440000000001</v>
       </c>
       <c r="N134" s="1">
-        <v>17.170950000000001</v>
+        <v>17.17698</v>
       </c>
       <c r="O134" s="1">
-        <v>998.91690000000006</v>
+        <v>998.91579999999999</v>
       </c>
       <c r="P134" s="1">
         <v>46.910349889999999</v>
@@ -7650,103 +7701,103 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45098.560231481482</v>
+        <v>45098.560243055559</v>
       </c>
       <c r="B135" s="1">
-        <v>6.4326840000000001</v>
+        <v>6.3610819999999997</v>
       </c>
       <c r="C135" s="1">
-        <v>13.416410000000001</v>
+        <v>13.516360000000001</v>
       </c>
       <c r="D135" s="1">
-        <v>64.077299999999994</v>
+        <v>64.191119999999998</v>
       </c>
       <c r="E135" s="1">
-        <v>102.66459999999999</v>
+        <v>102.78449999999999</v>
       </c>
       <c r="F135" s="1">
-        <v>4.7043969999999997E-2</v>
+        <v>4.7104269999999997E-2</v>
       </c>
       <c r="G135" s="1">
-        <v>0.99999879999999997</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="H135" s="1">
-        <v>6.6731960000000007E-2</v>
+        <v>6.6809919999999995E-2</v>
       </c>
       <c r="I135" s="1">
-        <v>0.80867800000000001</v>
+        <v>0.80938149999999998</v>
       </c>
       <c r="J135" s="1">
-        <v>5.3236540000000003</v>
+        <v>5.3442379999999998</v>
       </c>
       <c r="K135" s="1">
-        <v>6.8796049999999997</v>
+        <v>6.5302420000000003</v>
       </c>
       <c r="L135" s="1">
-        <v>16.36778</v>
+        <v>15.55749</v>
       </c>
       <c r="M135" s="1">
-        <v>4.8368440000000001</v>
+        <v>4.5912170000000003</v>
       </c>
       <c r="N135" s="1">
-        <v>17.17698</v>
+        <v>17.183019999999999</v>
       </c>
       <c r="O135" s="1">
-        <v>998.91579999999999</v>
+        <v>998.91480000000001</v>
       </c>
       <c r="P135" s="1">
-        <v>46.910349889999999</v>
+        <v>46.910337769999998</v>
       </c>
       <c r="Q135" s="1">
-        <v>-91.051808600000001</v>
+        <v>-91.0518036</v>
       </c>
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>45098.560243055559</v>
+        <v>45098.560254629629</v>
       </c>
       <c r="B136" s="1">
-        <v>6.3610819999999997</v>
+        <v>6.289479</v>
       </c>
       <c r="C136" s="1">
-        <v>13.516360000000001</v>
+        <v>13.61631</v>
       </c>
       <c r="D136" s="1">
-        <v>64.191119999999998</v>
+        <v>64.304950000000005</v>
       </c>
       <c r="E136" s="1">
-        <v>102.78449999999999</v>
+        <v>102.9044</v>
       </c>
       <c r="F136" s="1">
-        <v>4.7104269999999997E-2</v>
+        <v>4.7164560000000001E-2</v>
       </c>
       <c r="G136" s="1">
-        <v>0.99999850000000001</v>
+        <v>0.99999819999999995</v>
       </c>
       <c r="H136" s="1">
-        <v>6.6809919999999995E-2</v>
+        <v>6.6887859999999993E-2</v>
       </c>
       <c r="I136" s="1">
-        <v>0.80938149999999998</v>
+        <v>0.8100849</v>
       </c>
       <c r="J136" s="1">
-        <v>5.3442379999999998</v>
+        <v>5.3648230000000003</v>
       </c>
       <c r="K136" s="1">
-        <v>6.5302420000000003</v>
+        <v>6.1808779999999999</v>
       </c>
       <c r="L136" s="1">
-        <v>15.55749</v>
+        <v>14.74719</v>
       </c>
       <c r="M136" s="1">
-        <v>4.5912170000000003</v>
+        <v>4.3455899999999996</v>
       </c>
       <c r="N136" s="1">
-        <v>17.183019999999999</v>
+        <v>17.189050000000002</v>
       </c>
       <c r="O136" s="1">
-        <v>998.91480000000001</v>
+        <v>998.91369999999995</v>
       </c>
       <c r="P136" s="1">
         <v>46.910337769999998</v>
@@ -7758,49 +7809,49 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>45098.560254629629</v>
+        <v>45098.560266203705</v>
       </c>
       <c r="B137" s="1">
-        <v>6.289479</v>
+        <v>6.2178760000000004</v>
       </c>
       <c r="C137" s="1">
-        <v>13.61631</v>
+        <v>13.71626</v>
       </c>
       <c r="D137" s="1">
-        <v>64.304950000000005</v>
+        <v>64.418779999999998</v>
       </c>
       <c r="E137" s="1">
-        <v>102.9044</v>
+        <v>103.0243</v>
       </c>
       <c r="F137" s="1">
-        <v>4.7164560000000001E-2</v>
+        <v>4.722486E-2</v>
       </c>
       <c r="G137" s="1">
-        <v>0.99999819999999995</v>
+        <v>0.99999800000000005</v>
       </c>
       <c r="H137" s="1">
-        <v>6.6887859999999993E-2</v>
+        <v>6.6965819999999995E-2</v>
       </c>
       <c r="I137" s="1">
-        <v>0.8100849</v>
+        <v>0.81078830000000002</v>
       </c>
       <c r="J137" s="1">
-        <v>5.3648230000000003</v>
+        <v>5.3854069999999998</v>
       </c>
       <c r="K137" s="1">
-        <v>6.1808779999999999</v>
+        <v>5.8315149999999996</v>
       </c>
       <c r="L137" s="1">
-        <v>14.74719</v>
+        <v>13.9369</v>
       </c>
       <c r="M137" s="1">
-        <v>4.3455899999999996</v>
+        <v>4.0999629999999998</v>
       </c>
       <c r="N137" s="1">
-        <v>17.189050000000002</v>
+        <v>17.195080000000001</v>
       </c>
       <c r="O137" s="1">
-        <v>998.91369999999995</v>
+        <v>998.91269999999997</v>
       </c>
       <c r="P137" s="1">
         <v>46.910337769999998</v>
@@ -7812,49 +7863,49 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>45098.560266203705</v>
+        <v>45098.560277777775</v>
       </c>
       <c r="B138" s="1">
-        <v>6.2178760000000004</v>
+        <v>6.1462729999999999</v>
       </c>
       <c r="C138" s="1">
-        <v>13.71626</v>
+        <v>13.81621</v>
       </c>
       <c r="D138" s="1">
-        <v>64.418779999999998</v>
+        <v>64.532610000000005</v>
       </c>
       <c r="E138" s="1">
-        <v>103.0243</v>
+        <v>103.1443</v>
       </c>
       <c r="F138" s="1">
-        <v>4.722486E-2</v>
+        <v>4.728516E-2</v>
       </c>
       <c r="G138" s="1">
-        <v>0.99999800000000005</v>
+        <v>0.99999769999999999</v>
       </c>
       <c r="H138" s="1">
-        <v>6.6965819999999995E-2</v>
+        <v>6.7043770000000003E-2</v>
       </c>
       <c r="I138" s="1">
-        <v>0.81078830000000002</v>
+        <v>0.81149179999999999</v>
       </c>
       <c r="J138" s="1">
-        <v>5.3854069999999998</v>
+        <v>5.4059920000000004</v>
       </c>
       <c r="K138" s="1">
-        <v>5.8315149999999996</v>
+        <v>5.4821520000000001</v>
       </c>
       <c r="L138" s="1">
-        <v>13.9369</v>
+        <v>13.1266</v>
       </c>
       <c r="M138" s="1">
-        <v>4.0999629999999998</v>
+        <v>3.854336</v>
       </c>
       <c r="N138" s="1">
-        <v>17.195080000000001</v>
+        <v>17.20111</v>
       </c>
       <c r="O138" s="1">
-        <v>998.91269999999997</v>
+        <v>998.91160000000002</v>
       </c>
       <c r="P138" s="1">
         <v>46.910337769999998</v>
@@ -7866,49 +7917,49 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>45098.560277777775</v>
+        <v>45098.560289351852</v>
       </c>
       <c r="B139" s="1">
-        <v>6.1462729999999999</v>
+        <v>6.0746700000000002</v>
       </c>
       <c r="C139" s="1">
-        <v>13.81621</v>
+        <v>13.916169999999999</v>
       </c>
       <c r="D139" s="1">
-        <v>64.532610000000005</v>
+        <v>64.646429999999995</v>
       </c>
       <c r="E139" s="1">
-        <v>103.1443</v>
+        <v>103.2642</v>
       </c>
       <c r="F139" s="1">
-        <v>4.728516E-2</v>
+        <v>4.7345449999999997E-2</v>
       </c>
       <c r="G139" s="1">
-        <v>0.99999769999999999</v>
+        <v>0.99999740000000004</v>
       </c>
       <c r="H139" s="1">
-        <v>6.7043770000000003E-2</v>
+        <v>6.7121719999999996E-2</v>
       </c>
       <c r="I139" s="1">
-        <v>0.81149179999999999</v>
+        <v>0.81219520000000001</v>
       </c>
       <c r="J139" s="1">
-        <v>5.4059920000000004</v>
+        <v>5.426577</v>
       </c>
       <c r="K139" s="1">
-        <v>5.4821520000000001</v>
+        <v>5.1327879999999997</v>
       </c>
       <c r="L139" s="1">
-        <v>13.1266</v>
+        <v>12.31631</v>
       </c>
       <c r="M139" s="1">
-        <v>3.854336</v>
+        <v>3.6087090000000002</v>
       </c>
       <c r="N139" s="1">
-        <v>17.20111</v>
+        <v>17.207149999999999</v>
       </c>
       <c r="O139" s="1">
-        <v>998.91160000000002</v>
+        <v>998.91049999999996</v>
       </c>
       <c r="P139" s="1">
         <v>46.910337769999998</v>
@@ -7920,49 +7971,49 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>45098.560289351852</v>
+        <v>45098.560300925928</v>
       </c>
       <c r="B140" s="1">
-        <v>6.0746700000000002</v>
+        <v>6.3122379999999998</v>
       </c>
       <c r="C140" s="1">
-        <v>13.916169999999999</v>
+        <v>12.73213</v>
       </c>
       <c r="D140" s="1">
-        <v>64.646429999999995</v>
+        <v>65.844470000000001</v>
       </c>
       <c r="E140" s="1">
-        <v>103.2642</v>
+        <v>103.3322</v>
       </c>
       <c r="F140" s="1">
-        <v>4.7345449999999997E-2</v>
+        <v>4.7470640000000001E-2</v>
       </c>
       <c r="G140" s="1">
-        <v>0.99999740000000004</v>
+        <v>0.99998039999999999</v>
       </c>
       <c r="H140" s="1">
-        <v>6.7121719999999996E-2</v>
+        <v>6.7165900000000001E-2</v>
       </c>
       <c r="I140" s="1">
-        <v>0.81219520000000001</v>
+        <v>0.7193117</v>
       </c>
       <c r="J140" s="1">
-        <v>5.426577</v>
+        <v>6.0065559999999998</v>
       </c>
       <c r="K140" s="1">
-        <v>5.1327879999999997</v>
+        <v>4.9815319999999996</v>
       </c>
       <c r="L140" s="1">
-        <v>12.31631</v>
+        <v>12.062810000000001</v>
       </c>
       <c r="M140" s="1">
-        <v>3.6087090000000002</v>
+        <v>3.5023650000000002</v>
       </c>
       <c r="N140" s="1">
-        <v>17.207149999999999</v>
+        <v>17.1617</v>
       </c>
       <c r="O140" s="1">
-        <v>998.91049999999996</v>
+        <v>998.93550000000005</v>
       </c>
       <c r="P140" s="1">
         <v>46.910337769999998</v>
@@ -7974,46 +8025,46 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>45098.560300925928</v>
+        <v>45098.560312499998</v>
       </c>
       <c r="B141" s="1">
-        <v>6.3122379999999998</v>
+        <v>6.2764899999999999</v>
       </c>
       <c r="C141" s="1">
-        <v>12.73213</v>
+        <v>12.765560000000001</v>
       </c>
       <c r="D141" s="1">
-        <v>65.844470000000001</v>
+        <v>65.934669999999997</v>
       </c>
       <c r="E141" s="1">
-        <v>103.3322</v>
+        <v>103.40170000000001</v>
       </c>
       <c r="F141" s="1">
-        <v>4.7470640000000001E-2</v>
+        <v>4.7507550000000003E-2</v>
       </c>
       <c r="G141" s="1">
-        <v>0.99998039999999999</v>
+        <v>0.99997999999999998</v>
       </c>
       <c r="H141" s="1">
-        <v>6.7165900000000001E-2</v>
+        <v>6.7211110000000004E-2</v>
       </c>
       <c r="I141" s="1">
-        <v>0.7193117</v>
+        <v>0.71871240000000003</v>
       </c>
       <c r="J141" s="1">
-        <v>6.0065559999999998</v>
+        <v>6.0306379999999997</v>
       </c>
       <c r="K141" s="1">
-        <v>4.9815319999999996</v>
+        <v>4.788157</v>
       </c>
       <c r="L141" s="1">
-        <v>12.062810000000001</v>
+        <v>11.616160000000001</v>
       </c>
       <c r="M141" s="1">
-        <v>3.5023650000000002</v>
+        <v>3.3664100000000001</v>
       </c>
       <c r="N141" s="1">
-        <v>17.1617</v>
+        <v>17.161850000000001</v>
       </c>
       <c r="O141" s="1">
         <v>998.93550000000005</v>
@@ -8028,154 +8079,150 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>45098.560312499998</v>
+        <v>45098.560324074075</v>
       </c>
       <c r="B142" s="1">
-        <v>6.2764899999999999</v>
+        <v>6.2407409999999999</v>
       </c>
       <c r="C142" s="1">
-        <v>12.765560000000001</v>
+        <v>12.79899</v>
       </c>
       <c r="D142" s="1">
-        <v>65.934669999999997</v>
+        <v>66.024879999999996</v>
       </c>
       <c r="E142" s="1">
-        <v>103.40170000000001</v>
+        <v>103.4713</v>
       </c>
       <c r="F142" s="1">
-        <v>4.7507550000000003E-2</v>
+        <v>4.7544469999999998E-2</v>
       </c>
       <c r="G142" s="1">
-        <v>0.99997999999999998</v>
+        <v>0.99997939999999996</v>
       </c>
       <c r="H142" s="1">
-        <v>6.7211110000000004E-2</v>
+        <v>6.7256319999999994E-2</v>
       </c>
       <c r="I142" s="1">
-        <v>0.71871240000000003</v>
+        <v>0.71811320000000001</v>
       </c>
       <c r="J142" s="1">
-        <v>6.0306379999999997</v>
+        <v>6.0547199999999997</v>
       </c>
       <c r="K142" s="1">
-        <v>4.788157</v>
+        <v>4.5947839999999998</v>
       </c>
       <c r="L142" s="1">
-        <v>11.616160000000001</v>
+        <v>11.169510000000001</v>
       </c>
       <c r="M142" s="1">
-        <v>3.3664100000000001</v>
+        <v>3.2304539999999999</v>
       </c>
       <c r="N142" s="1">
-        <v>17.161850000000001</v>
+        <v>17.161989999999999</v>
       </c>
       <c r="O142" s="1">
-        <v>998.93550000000005</v>
+        <v>998.93539999999996</v>
       </c>
       <c r="P142" s="1">
-        <v>46.910337769999998</v>
+        <v>46.910326920000003</v>
       </c>
       <c r="Q142" s="1">
-        <v>-91.0518036</v>
+        <v>-91.051806979999995</v>
       </c>
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>45098.560324074075</v>
+        <v>45098.560335648152</v>
       </c>
       <c r="B143" s="1">
-        <v>6.2407409999999999</v>
+        <v>6.204993</v>
       </c>
       <c r="C143" s="1">
-        <v>12.79899</v>
+        <v>12.832420000000001</v>
       </c>
       <c r="D143" s="1">
-        <v>66.024879999999996</v>
+        <v>66.115080000000006</v>
       </c>
       <c r="E143" s="1">
-        <v>103.4713</v>
+        <v>103.5408</v>
       </c>
       <c r="F143" s="1">
-        <v>4.7544469999999998E-2</v>
+        <v>4.7581390000000001E-2</v>
       </c>
       <c r="G143" s="1">
-        <v>0.99997939999999996</v>
+        <v>0.9999789</v>
       </c>
       <c r="H143" s="1">
-        <v>6.7256319999999994E-2</v>
+        <v>6.7301529999999998E-2</v>
       </c>
       <c r="I143" s="1">
-        <v>0.71811320000000001</v>
+        <v>0.71751399999999999</v>
       </c>
       <c r="J143" s="1">
-        <v>6.0547199999999997</v>
+        <v>6.0788019999999996</v>
       </c>
       <c r="K143" s="1">
-        <v>4.5947839999999998</v>
+        <v>4.4014100000000003</v>
       </c>
       <c r="L143" s="1">
-        <v>11.169510000000001</v>
+        <v>10.722860000000001</v>
       </c>
       <c r="M143" s="1">
-        <v>3.2304539999999999</v>
+        <v>3.0944989999999999</v>
       </c>
       <c r="N143" s="1">
-        <v>17.161989999999999</v>
+        <v>17.162140000000001</v>
       </c>
       <c r="O143" s="1">
         <v>998.93539999999996</v>
       </c>
-      <c r="P143" s="1">
-        <v>46.910326920000003</v>
-      </c>
-      <c r="Q143" s="1">
-        <v>-91.051806979999995</v>
-      </c>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>45098.560335648152</v>
+        <v>45098.560347222221</v>
       </c>
       <c r="B144" s="1">
-        <v>6.204993</v>
+        <v>6.169244</v>
       </c>
       <c r="C144" s="1">
-        <v>12.832420000000001</v>
+        <v>12.86585</v>
       </c>
       <c r="D144" s="1">
-        <v>66.115080000000006</v>
+        <v>66.205290000000005</v>
       </c>
       <c r="E144" s="1">
-        <v>103.5408</v>
+        <v>103.6104</v>
       </c>
       <c r="F144" s="1">
-        <v>4.7581390000000001E-2</v>
+        <v>4.7618300000000002E-2</v>
       </c>
       <c r="G144" s="1">
-        <v>0.9999789</v>
+        <v>0.99997840000000005</v>
       </c>
       <c r="H144" s="1">
-        <v>6.7301529999999998E-2</v>
+        <v>6.7346740000000002E-2</v>
       </c>
       <c r="I144" s="1">
-        <v>0.71751399999999999</v>
+        <v>0.71691479999999996</v>
       </c>
       <c r="J144" s="1">
-        <v>6.0788019999999996</v>
+        <v>6.1028830000000003</v>
       </c>
       <c r="K144" s="1">
-        <v>4.4014100000000003</v>
+        <v>4.2080349999999997</v>
       </c>
       <c r="L144" s="1">
-        <v>10.722860000000001</v>
+        <v>10.276210000000001</v>
       </c>
       <c r="M144" s="1">
-        <v>3.0944989999999999</v>
+        <v>2.9585439999999998</v>
       </c>
       <c r="N144" s="1">
-        <v>17.162140000000001</v>
+        <v>17.162279999999999</v>
       </c>
       <c r="O144" s="1">
         <v>998.93539999999996</v>
@@ -8186,46 +8233,46 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>45098.560347222221</v>
+        <v>45098.560358796298</v>
       </c>
       <c r="B145" s="1">
-        <v>6.169244</v>
+        <v>6.1334960000000001</v>
       </c>
       <c r="C145" s="1">
-        <v>12.86585</v>
+        <v>12.899279999999999</v>
       </c>
       <c r="D145" s="1">
-        <v>66.205290000000005</v>
+        <v>66.295500000000004</v>
       </c>
       <c r="E145" s="1">
-        <v>103.6104</v>
+        <v>103.6799</v>
       </c>
       <c r="F145" s="1">
-        <v>4.7618300000000002E-2</v>
+        <v>4.7655219999999998E-2</v>
       </c>
       <c r="G145" s="1">
-        <v>0.99997840000000005</v>
+        <v>0.99997789999999998</v>
       </c>
       <c r="H145" s="1">
-        <v>6.7346740000000002E-2</v>
+        <v>6.7391939999999997E-2</v>
       </c>
       <c r="I145" s="1">
-        <v>0.71691479999999996</v>
+        <v>0.71631560000000005</v>
       </c>
       <c r="J145" s="1">
-        <v>6.1028830000000003</v>
+        <v>6.1269660000000004</v>
       </c>
       <c r="K145" s="1">
-        <v>4.2080349999999997</v>
+        <v>4.0146620000000004</v>
       </c>
       <c r="L145" s="1">
-        <v>10.276210000000001</v>
+        <v>9.829561</v>
       </c>
       <c r="M145" s="1">
-        <v>2.9585439999999998</v>
+        <v>2.8225880000000001</v>
       </c>
       <c r="N145" s="1">
-        <v>17.162279999999999</v>
+        <v>17.162430000000001</v>
       </c>
       <c r="O145" s="1">
         <v>998.93539999999996</v>
@@ -8236,46 +8283,46 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>45098.560358796298</v>
+        <v>45098.560370370367</v>
       </c>
       <c r="B146" s="1">
-        <v>6.1334960000000001</v>
+        <v>6.097747</v>
       </c>
       <c r="C146" s="1">
-        <v>12.899279999999999</v>
+        <v>12.932700000000001</v>
       </c>
       <c r="D146" s="1">
-        <v>66.295500000000004</v>
+        <v>66.3857</v>
       </c>
       <c r="E146" s="1">
-        <v>103.6799</v>
+        <v>103.7495</v>
       </c>
       <c r="F146" s="1">
-        <v>4.7655219999999998E-2</v>
+        <v>4.7692140000000001E-2</v>
       </c>
       <c r="G146" s="1">
-        <v>0.99997789999999998</v>
+        <v>0.99997740000000002</v>
       </c>
       <c r="H146" s="1">
-        <v>6.7391939999999997E-2</v>
+        <v>6.7437150000000001E-2</v>
       </c>
       <c r="I146" s="1">
-        <v>0.71631560000000005</v>
+        <v>0.71571640000000003</v>
       </c>
       <c r="J146" s="1">
-        <v>6.1269660000000004</v>
+        <v>6.1510470000000002</v>
       </c>
       <c r="K146" s="1">
-        <v>4.0146620000000004</v>
+        <v>3.821288</v>
       </c>
       <c r="L146" s="1">
-        <v>9.829561</v>
+        <v>9.382911</v>
       </c>
       <c r="M146" s="1">
-        <v>2.8225880000000001</v>
+        <v>2.6866319999999999</v>
       </c>
       <c r="N146" s="1">
-        <v>17.162430000000001</v>
+        <v>17.162579999999998</v>
       </c>
       <c r="O146" s="1">
         <v>998.93539999999996</v>
@@ -8286,49 +8333,49 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>45098.560370370367</v>
+        <v>45098.560381944444</v>
       </c>
       <c r="B147" s="1">
-        <v>6.097747</v>
+        <v>6.0619990000000001</v>
       </c>
       <c r="C147" s="1">
-        <v>12.932700000000001</v>
+        <v>12.96613</v>
       </c>
       <c r="D147" s="1">
-        <v>66.3857</v>
+        <v>66.475909999999999</v>
       </c>
       <c r="E147" s="1">
-        <v>103.7495</v>
+        <v>103.819</v>
       </c>
       <c r="F147" s="1">
-        <v>4.7692140000000001E-2</v>
+        <v>4.7729059999999997E-2</v>
       </c>
       <c r="G147" s="1">
-        <v>0.99997740000000002</v>
+        <v>0.9999768</v>
       </c>
       <c r="H147" s="1">
-        <v>6.7437150000000001E-2</v>
+        <v>6.7482360000000005E-2</v>
       </c>
       <c r="I147" s="1">
-        <v>0.71571640000000003</v>
+        <v>0.71511720000000001</v>
       </c>
       <c r="J147" s="1">
-        <v>6.1510470000000002</v>
+        <v>6.1751290000000001</v>
       </c>
       <c r="K147" s="1">
-        <v>3.821288</v>
+        <v>3.6279129999999999</v>
       </c>
       <c r="L147" s="1">
-        <v>9.382911</v>
+        <v>8.936261</v>
       </c>
       <c r="M147" s="1">
-        <v>2.6866319999999999</v>
+        <v>2.5506769999999999</v>
       </c>
       <c r="N147" s="1">
-        <v>17.162579999999998</v>
+        <v>17.16273</v>
       </c>
       <c r="O147" s="1">
-        <v>998.93539999999996</v>
+        <v>998.93529999999998</v>
       </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -8336,46 +8383,46 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>45098.560381944444</v>
+        <v>45098.560393518521</v>
       </c>
       <c r="B148" s="1">
-        <v>6.0619990000000001</v>
+        <v>6.0262500000000001</v>
       </c>
       <c r="C148" s="1">
-        <v>12.96613</v>
+        <v>12.999560000000001</v>
       </c>
       <c r="D148" s="1">
-        <v>66.475909999999999</v>
+        <v>66.566119999999998</v>
       </c>
       <c r="E148" s="1">
-        <v>103.819</v>
+        <v>103.8886</v>
       </c>
       <c r="F148" s="1">
-        <v>4.7729059999999997E-2</v>
+        <v>4.7765969999999998E-2</v>
       </c>
       <c r="G148" s="1">
-        <v>0.9999768</v>
+        <v>0.99997630000000004</v>
       </c>
       <c r="H148" s="1">
-        <v>6.7482360000000005E-2</v>
+        <v>6.752756E-2</v>
       </c>
       <c r="I148" s="1">
-        <v>0.71511720000000001</v>
+        <v>0.71451799999999999</v>
       </c>
       <c r="J148" s="1">
-        <v>6.1751290000000001</v>
+        <v>6.199211</v>
       </c>
       <c r="K148" s="1">
-        <v>3.6279129999999999</v>
+        <v>3.4345400000000001</v>
       </c>
       <c r="L148" s="1">
-        <v>8.936261</v>
+        <v>8.4896119999999993</v>
       </c>
       <c r="M148" s="1">
-        <v>2.5506769999999999</v>
+        <v>2.4147210000000001</v>
       </c>
       <c r="N148" s="1">
-        <v>17.16273</v>
+        <v>17.162870000000002</v>
       </c>
       <c r="O148" s="1">
         <v>998.93529999999998</v>
@@ -8386,134 +8433,84 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>45098.560393518521</v>
+        <v>45098.56040509259</v>
       </c>
       <c r="B149" s="1">
-        <v>6.0262500000000001</v>
+        <v>6.3510980000000004</v>
       </c>
       <c r="C149" s="1">
-        <v>12.999560000000001</v>
+        <v>12.40485</v>
       </c>
       <c r="D149" s="1">
-        <v>66.566119999999998</v>
+        <v>66.406260000000003</v>
       </c>
       <c r="E149" s="1">
-        <v>103.8886</v>
+        <v>102.5604</v>
       </c>
       <c r="F149" s="1">
-        <v>4.7765969999999998E-2</v>
+        <v>4.718431E-2</v>
       </c>
       <c r="G149" s="1">
-        <v>0.99997630000000004</v>
+        <v>0.99996079999999998</v>
       </c>
       <c r="H149" s="1">
-        <v>6.752756E-2</v>
+        <v>6.6664269999999998E-2</v>
       </c>
       <c r="I149" s="1">
-        <v>0.71451799999999999</v>
+        <v>0.55415340000000002</v>
       </c>
       <c r="J149" s="1">
-        <v>6.199211</v>
+        <v>6.5440069999999997</v>
       </c>
       <c r="K149" s="1">
-        <v>3.4345400000000001</v>
+        <v>4.969697</v>
       </c>
       <c r="L149" s="1">
-        <v>8.4896119999999993</v>
+        <v>12.046200000000001</v>
       </c>
       <c r="M149" s="1">
-        <v>2.4147210000000001</v>
+        <v>3.4940440000000001</v>
       </c>
       <c r="N149" s="1">
-        <v>17.162870000000002</v>
+        <v>17.156700000000001</v>
       </c>
       <c r="O149" s="1">
-        <v>998.93529999999998</v>
-      </c>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
+        <v>998.92179999999996</v>
+      </c>
+      <c r="P149" s="1">
+        <v>46.91031795</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>-91.051808260000001</v>
+      </c>
       <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>45098.56040509259</v>
+        <v>45098.560416666667</v>
       </c>
       <c r="B150" s="1">
-        <v>6.3510980000000004</v>
+        <v>6.3485779999999998</v>
       </c>
       <c r="C150" s="1">
-        <v>12.40485</v>
+        <v>12.397869999999999</v>
       </c>
       <c r="D150" s="1">
-        <v>66.406260000000003</v>
+        <v>66.432140000000004</v>
       </c>
       <c r="E150" s="1">
-        <v>102.5604</v>
+        <v>102.553</v>
       </c>
       <c r="F150" s="1">
-        <v>4.718431E-2</v>
+        <v>4.718319E-2</v>
       </c>
       <c r="G150" s="1">
-        <v>0.99996079999999998</v>
+        <v>0.99996039999999997</v>
       </c>
       <c r="H150" s="1">
-        <v>6.6664269999999998E-2</v>
+        <v>6.6659479999999993E-2</v>
       </c>
       <c r="I150" s="1">
-        <v>0.55415340000000002</v>
-      </c>
-      <c r="J150" s="1">
-        <v>6.5440069999999997</v>
-      </c>
-      <c r="K150" s="1">
-        <v>4.969697</v>
-      </c>
-      <c r="L150" s="1">
-        <v>12.046200000000001</v>
-      </c>
-      <c r="M150" s="1">
-        <v>3.4940440000000001</v>
-      </c>
-      <c r="N150" s="1">
-        <v>17.156700000000001</v>
-      </c>
-      <c r="O150" s="1">
-        <v>998.92179999999996</v>
-      </c>
-      <c r="P150" s="1">
-        <v>46.91031795</v>
-      </c>
-      <c r="Q150" s="1">
-        <v>-91.051808260000001</v>
-      </c>
-      <c r="R150" s="1"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>45098.560416666667</v>
-      </c>
-      <c r="B151" s="1">
-        <v>6.3485779999999998</v>
-      </c>
-      <c r="C151" s="1">
-        <v>12.397869999999999</v>
-      </c>
-      <c r="D151" s="1">
-        <v>66.432140000000004</v>
-      </c>
-      <c r="E151" s="1">
-        <v>102.553</v>
-      </c>
-      <c r="F151" s="1">
-        <v>4.718319E-2</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0.99996039999999997</v>
-      </c>
-      <c r="H151" s="1">
-        <v>6.6659479999999993E-2</v>
-      </c>
-      <c r="I151" s="1">
         <v>0.55032829999999999</v>
       </c>
     </row>
